--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D811BEC-7D90-480F-AD58-E32F06C52CB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DECE00-5683-45A0-936B-DAB323351463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -58,32 +58,41 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Member 4</t>
+    <t>Week: 13/9/2019 to 19/9/2019</t>
   </si>
   <si>
-    <t>Member 5</t>
+    <t>Tsang Bao Xian</t>
   </si>
   <si>
-    <t>Week: &lt;starting date&gt; to &lt;ending date&gt;</t>
+    <t>Loh Xiao Binn</t>
+  </si>
+  <si>
+    <t>Casper Lim</t>
+  </si>
+  <si>
+    <t>Tricia Tan</t>
+  </si>
+  <si>
+    <t>Ong Yan Ning</t>
+  </si>
+  <si>
+    <t>Not a working day</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Discuss and confirm project schedule, decide on iteration tasks and schedule iteration 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -107,12 +116,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,9 +170,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -486,21 +486,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -520,28 +520,28 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -562,175 +562,205 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
+      <c r="A3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
+      <c r="A6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
+      <c r="A9" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
+      <c r="A12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="10" t="s">
-        <v>17</v>
+      <c r="A15" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DECE00-5683-45A0-936B-DAB323351463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C511F5A-4512-40B9-9C08-4E0B8D9E0B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Discuss and confirm project schedule, decide on iteration tasks and schedule iteration 1</t>
+  </si>
+  <si>
+    <t>Confirmed project schedule and iteration 1 tasks</t>
+  </si>
+  <si>
+    <t>Familiarise with bootstrap functionality</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -571,7 +577,9 @@
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -584,7 +592,9 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -597,7 +607,9 @@
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -612,7 +624,9 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -625,7 +639,9 @@
       <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -638,7 +654,9 @@
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -653,7 +671,9 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -666,7 +686,9 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -679,7 +701,9 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -694,7 +718,9 @@
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -707,7 +733,9 @@
       <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -720,7 +748,9 @@
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -735,7 +765,9 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -748,7 +780,9 @@
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -761,7 +795,9 @@
       <c r="C17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C511F5A-4512-40B9-9C08-4E0B8D9E0B65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF08D6-6776-405E-801D-189D4F20BBB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Familiarise with bootstrap functionality</t>
+  </si>
+  <si>
+    <t>Read up on bootstrap and completed labs</t>
+  </si>
+  <si>
+    <t>Begin html login form and welcome message upon successful login</t>
+  </si>
+  <si>
+    <t>Create database structure and authentication for login page</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -580,7 +589,9 @@
       <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -595,7 +606,9 @@
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -610,7 +623,9 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -627,7 +642,9 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -642,7 +659,9 @@
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -657,7 +676,9 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -674,7 +695,9 @@
       <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -689,7 +712,9 @@
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -704,7 +729,9 @@
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -721,7 +748,9 @@
       <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -736,7 +765,9 @@
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -751,7 +782,9 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -768,7 +801,9 @@
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -783,7 +818,9 @@
       <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -798,7 +835,9 @@
       <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BF08D6-6776-405E-801D-189D4F20BBB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6683F0-1DA1-4C31-9FC1-58819B34EF05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>Create database structure and authentication for login page</t>
+  </si>
+  <si>
+    <t>Created SQL tables and DAO for user to be used for login page. Also created common.php to be included in other pages</t>
+  </si>
+  <si>
+    <t>Personal commitments delayed task</t>
+  </si>
+  <si>
+    <t>Read up on metrics and prepare to brief team on metrics requirements</t>
+  </si>
+  <si>
+    <t>Unclear of general project requirements</t>
+  </si>
+  <si>
+    <t>Start on Add bid interface</t>
   </si>
 </sst>
 </file>
@@ -484,9 +499,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -592,7 +607,9 @@
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
@@ -609,7 +626,9 @@
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -626,7 +645,9 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -645,7 +666,9 @@
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -662,7 +685,9 @@
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -679,7 +704,9 @@
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -698,7 +725,9 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -715,7 +744,9 @@
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -732,7 +763,9 @@
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -751,7 +784,9 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -768,7 +803,9 @@
       <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -785,7 +822,9 @@
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -804,7 +843,9 @@
       <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -821,7 +862,9 @@
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -838,7 +881,9 @@
       <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.5">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6683F0-1DA1-4C31-9FC1-58819B34EF05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313A629-8804-48ED-85FA-1D6CEFD00C1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Question</t>
   </si>
@@ -116,6 +124,30 @@
   </si>
   <si>
     <t>Start on Add bid interface</t>
+  </si>
+  <si>
+    <t>Uploaded CSV files to repository</t>
+  </si>
+  <si>
+    <t>Meet to show login page functionalities and test together with group</t>
+  </si>
+  <si>
+    <t>Coded html form and welcome message, pair programming with Bao Xian to create add bid functionality and required DAOs and class files</t>
+  </si>
+  <si>
+    <t>Unable to test html form on working directory so not able to push onto central repository</t>
+  </si>
+  <si>
+    <t>Clarified understanding of metrics, briefed team about changes to wiki</t>
+  </si>
+  <si>
+    <t>Meet with team to test login page functionalities and add bid</t>
+  </si>
+  <si>
+    <t>Explain add bid functionalities, meet and test login page</t>
+  </si>
+  <si>
+    <t>Conducted pair programming with Tricia to begin add bid functionality and created required DAOs and class files</t>
   </si>
 </sst>
 </file>
@@ -499,9 +531,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -610,7 +642,9 @@
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
@@ -629,7 +663,9 @@
       <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
@@ -648,7 +684,9 @@
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -669,7 +707,9 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
@@ -688,7 +728,9 @@
       <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
@@ -707,7 +749,9 @@
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
@@ -728,7 +772,9 @@
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="10"/>
@@ -747,7 +793,9 @@
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
@@ -766,7 +814,9 @@
       <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
@@ -787,7 +837,9 @@
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="10"/>
@@ -806,7 +858,9 @@
       <c r="F13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
@@ -825,7 +879,9 @@
       <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -846,7 +902,9 @@
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="10"/>
@@ -865,7 +923,9 @@
       <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
@@ -884,7 +944,9 @@
       <c r="F17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313A629-8804-48ED-85FA-1D6CEFD00C1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A7929-0C5C-475D-BF85-981C65D22D5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Question</t>
   </si>
@@ -149,12 +149,18 @@
   <si>
     <t>Conducted pair programming with Tricia to begin add bid functionality and created required DAOs and class files</t>
   </si>
+  <si>
+    <t>Met to check login functionality and add bid functionality, cleared doubts about project</t>
+  </si>
+  <si>
+    <t>Met to check login functionality and add bid functionality, cleared doubts about project. Pair programming with Tricia to complete login functionality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,6 +184,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -214,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,9 +546,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -645,6 +660,9 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="10"/>
@@ -666,6 +684,9 @@
       <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10"/>
@@ -687,6 +708,9 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
@@ -709,6 +733,9 @@
       </c>
       <c r="G6" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -731,6 +758,9 @@
       <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="10"/>
@@ -752,6 +782,9 @@
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
@@ -774,6 +807,9 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -796,6 +832,9 @@
       <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="10"/>
@@ -817,6 +856,9 @@
       <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
@@ -839,6 +881,9 @@
       </c>
       <c r="G12" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -861,6 +906,9 @@
       <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H13" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="10"/>
@@ -882,6 +930,9 @@
       <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
@@ -904,6 +955,9 @@
       </c>
       <c r="G15" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -926,8 +980,11 @@
       <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="H16" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -947,64 +1004,67 @@
       <c r="G17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+      <c r="H17" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A7929-0C5C-475D-BF85-981C65D22D5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64B59A-33D3-4826-97FC-C263EE830589}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -155,6 +155,18 @@
   <si>
     <t>Met to check login functionality and add bid functionality, cleared doubts about project. Pair programming with Tricia to complete login functionality</t>
   </si>
+  <si>
+    <t>Learn about bug metrics and class content, complete add bid functionality with Tricia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Learn about bug metrics and class content, complete add bid functionality with Bao Xian</t>
+  </si>
+  <si>
+    <t>Learn about bug metrics and other contents in class</t>
+  </si>
 </sst>
 </file>
 
@@ -245,6 +257,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -257,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,9 +558,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -563,21 +575,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -597,8 +609,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.5">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
@@ -639,7 +651,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -660,12 +672,15 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -684,12 +699,15 @@
       <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I4" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,12 +726,15 @@
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -734,12 +755,15 @@
       <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -758,12 +782,15 @@
       <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I7" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -782,12 +809,15 @@
       <c r="G8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -808,12 +838,15 @@
       <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="I9" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -832,12 +865,15 @@
       <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -856,12 +892,15 @@
       <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -882,12 +921,15 @@
       <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="I12" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -906,12 +948,15 @@
       <c r="G13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I13" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -930,12 +975,15 @@
       <c r="G14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -956,12 +1004,15 @@
       <c r="G15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="I15" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,12 +1031,15 @@
       <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="10"/>
+      <c r="I16" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1004,67 +1058,70 @@
       <c r="G17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD64B59A-33D3-4826-97FC-C263EE830589}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED9742-229F-4639-8D7F-CAC2933E167C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
   <si>
     <t>Question</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>Learn about bug metrics and other contents in class</t>
+  </si>
+  <si>
+    <t>Week: 20/9/2019 to 26/9/2019</t>
+  </si>
+  <si>
+    <t>Learnt about bug metrics, partially completed add bid functionality with ability to view sections available per course</t>
+  </si>
+  <si>
+    <t>Learnt about scheduling and bug metrics</t>
+  </si>
+  <si>
+    <t>Fix wamp issues with alias and read about bootstrap functionality to prepare to start programming</t>
+  </si>
+  <si>
+    <t>Learnt about token and how to use web service</t>
+  </si>
+  <si>
+    <t>Clarified doubts about bootstrap, assisted group to upload previous schedule into google drive</t>
+  </si>
+  <si>
+    <t>Read up about bootstrap functionality</t>
+  </si>
+  <si>
+    <t>Unsure about what bootstrap is for</t>
   </si>
 </sst>
 </file>
@@ -558,9 +582,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -572,6 +596,7 @@
     <col min="5" max="5" width="31" style="6" customWidth="1"/>
     <col min="6" max="6" width="30.88671875" style="6" customWidth="1"/>
     <col min="7" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -590,13 +615,15 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="J1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -632,13 +659,27 @@
       <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -678,6 +719,15 @@
       <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11"/>
@@ -705,6 +755,15 @@
       <c r="I4" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -732,6 +791,15 @@
       <c r="I5" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
@@ -761,6 +829,15 @@
       <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11"/>
@@ -788,6 +865,15 @@
       <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
@@ -815,6 +901,15 @@
       <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
@@ -844,6 +939,15 @@
       <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11"/>
@@ -871,6 +975,15 @@
       <c r="I10" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
@@ -898,6 +1011,15 @@
       <c r="I11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
@@ -927,6 +1049,15 @@
       <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
@@ -954,6 +1085,15 @@
       <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11"/>
@@ -981,6 +1121,15 @@
       <c r="I14" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="J14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
@@ -1010,6 +1159,15 @@
       <c r="I15" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="J15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="11"/>
@@ -1037,8 +1195,17 @@
       <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1064,64 +1231,73 @@
       <c r="I17" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+      <c r="J17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
@@ -5002,7 +5178,8 @@
       <c r="B1001" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED9742-229F-4639-8D7F-CAC2933E167C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185E5712-6D15-4393-B852-AE1FAA96E5F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="57">
   <si>
     <t>Question</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Unsure about what bootstrap is for</t>
+  </si>
+  <si>
+    <t>Met to discuss overall project structure and progress</t>
+  </si>
+  <si>
+    <t>Reinstall wamp and try accessing php pages and create alias for project</t>
+  </si>
+  <si>
+    <t>Practice bootstrap before pair programming</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -722,7 +731,9 @@
       <c r="J3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -758,7 +769,9 @@
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -794,7 +807,9 @@
       <c r="J5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -832,7 +847,9 @@
       <c r="J6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -868,7 +885,9 @@
       <c r="J7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -904,7 +923,9 @@
       <c r="J8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -942,7 +963,9 @@
       <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -978,7 +1001,9 @@
       <c r="J10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1014,7 +1039,9 @@
       <c r="J11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1052,7 +1079,9 @@
       <c r="J12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1088,7 +1117,9 @@
       <c r="J13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1124,7 +1155,9 @@
       <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -1162,7 +1195,9 @@
       <c r="J15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1198,7 +1233,9 @@
       <c r="J16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -1234,7 +1271,9 @@
       <c r="J17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185E5712-6D15-4393-B852-AE1FAA96E5F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C5443-9882-4A22-9CF8-87935677D50B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Practice bootstrap before pair programming</t>
+  </si>
+  <si>
+    <t>Reinstalled wamp and tested out existing web pages</t>
+  </si>
+  <si>
+    <t>Pair programming with yan ning for Bootstrap functionality</t>
+  </si>
+  <si>
+    <t>Practiced and understood bootstrap on labs</t>
+  </si>
+  <si>
+    <t>Pair programming with Celine for Bootstrap functionality</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -734,7 +746,9 @@
       <c r="K3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="8"/>
@@ -772,7 +786,9 @@
       <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="8"/>
@@ -810,7 +826,9 @@
       <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="8"/>
@@ -850,7 +868,9 @@
       <c r="K6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="8"/>
@@ -888,7 +908,9 @@
       <c r="K7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="8"/>
@@ -926,7 +948,9 @@
       <c r="K8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="8"/>
@@ -966,7 +990,9 @@
       <c r="K9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="8"/>
@@ -1004,7 +1030,9 @@
       <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="8"/>
@@ -1042,7 +1070,9 @@
       <c r="K11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
@@ -1082,7 +1112,9 @@
       <c r="K12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="8"/>
@@ -1120,7 +1152,9 @@
       <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="8"/>
@@ -1158,7 +1192,9 @@
       <c r="K14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="8"/>
@@ -1198,7 +1234,9 @@
       <c r="K15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="8"/>
@@ -1236,7 +1274,9 @@
       <c r="K16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="8"/>
@@ -1274,7 +1314,9 @@
       <c r="K17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C5443-9882-4A22-9CF8-87935677D50B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476AC00-D331-4D13-B142-0624763EA58D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>Question</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Pair programming with Celine for Bootstrap functionality</t>
+  </si>
+  <si>
+    <t>Complete add bid functionality by creating bid objects upon submission</t>
+  </si>
+  <si>
+    <t>Pair programming with Yan Ning for bootstrap</t>
+  </si>
+  <si>
+    <t>Fix errors for bootstrap code</t>
+  </si>
+  <si>
+    <t>Could not log in hence cannot test bootstrap on working directory</t>
+  </si>
+  <si>
+    <t>Pair programming with Celine for bootstrap functionalty</t>
   </si>
 </sst>
 </file>
@@ -603,9 +618,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -749,7 +764,9 @@
       <c r="L3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -789,7 +806,9 @@
       <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -829,7 +848,9 @@
       <c r="L5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
@@ -871,7 +892,9 @@
       <c r="L6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -911,7 +934,9 @@
       <c r="L7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -951,7 +976,9 @@
       <c r="L8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -993,7 +1020,9 @@
       <c r="L9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -1033,7 +1062,9 @@
       <c r="L10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1073,7 +1104,9 @@
       <c r="L11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1115,7 +1148,9 @@
       <c r="L12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
@@ -1155,7 +1190,9 @@
       <c r="L13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1195,7 +1232,9 @@
       <c r="L14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -1237,7 +1276,9 @@
       <c r="L15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -1277,7 +1318,9 @@
       <c r="L16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -1317,7 +1360,9 @@
       <c r="L17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476AC00-D331-4D13-B142-0624763EA58D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02FA53-D635-4EFB-8518-F617E3A51C25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Pair programming with Celine for bootstrap functionalty</t>
+  </si>
+  <si>
+    <t>Added cart and created bid class</t>
+  </si>
+  <si>
+    <t>Meet to test bootstrap functionality and complete add bid</t>
+  </si>
+  <si>
+    <t>Tried to fix bootstrap errors</t>
+  </si>
+  <si>
+    <t>Meet to discuss bootstrap</t>
+  </si>
+  <si>
+    <t>Cannot debug bootstrap errors so cannot commit</t>
+  </si>
+  <si>
+    <t>Meet to test bootstrap functionality and help Celine and Yan ning with bootstrap errors</t>
   </si>
 </sst>
 </file>
@@ -618,9 +636,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -767,7 +785,9 @@
       <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
@@ -809,7 +829,9 @@
       <c r="M4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
@@ -851,7 +873,9 @@
       <c r="M5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
@@ -895,7 +919,9 @@
       <c r="M6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
@@ -937,7 +963,9 @@
       <c r="M7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
@@ -979,7 +1007,9 @@
       <c r="M8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
@@ -1023,7 +1053,9 @@
       <c r="M9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
@@ -1065,7 +1097,9 @@
       <c r="M10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
@@ -1107,7 +1141,9 @@
       <c r="M11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
@@ -1151,7 +1187,9 @@
       <c r="M12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
@@ -1193,7 +1231,9 @@
       <c r="M13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
@@ -1235,7 +1275,9 @@
       <c r="M14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
@@ -1279,7 +1321,9 @@
       <c r="M15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
@@ -1321,7 +1365,9 @@
       <c r="M16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1363,7 +1409,9 @@
       <c r="M17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02FA53-D635-4EFB-8518-F617E3A51C25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F20F3-4EC2-4BCF-BE6F-267914E7BD81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="79">
   <si>
     <t>Question</t>
   </si>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>Meet to test bootstrap functionality and help Celine and Yan ning with bootstrap errors</t>
+  </si>
+  <si>
+    <t>Met to discuss bootstrap and coded bidding functionality</t>
+  </si>
+  <si>
+    <t>Complete bidding functionality with validations</t>
+  </si>
+  <si>
+    <t>Fixed bootstrap errors</t>
+  </si>
+  <si>
+    <t>Helped to debug and fix bootstrap errors</t>
+  </si>
+  <si>
+    <t>Discussed bootstrap with group and coded bid functionality</t>
+  </si>
+  <si>
+    <t>Had trouble understanding workings of bootstrap</t>
+  </si>
+  <si>
+    <t>Complete bootstrap functionality</t>
   </si>
 </sst>
 </file>
@@ -636,9 +657,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <selection pane="topRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -788,7 +809,9 @@
       <c r="N3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
@@ -832,7 +855,9 @@
       <c r="N4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -876,7 +901,9 @@
       <c r="N5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -922,7 +949,9 @@
       <c r="N6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -966,7 +995,9 @@
       <c r="N7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1010,7 +1041,9 @@
       <c r="N8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1056,7 +1089,9 @@
       <c r="N9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1100,7 +1135,9 @@
       <c r="N10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1144,7 +1181,9 @@
       <c r="N11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1190,7 +1229,9 @@
       <c r="N12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1234,7 +1275,9 @@
       <c r="N13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1278,7 +1321,9 @@
       <c r="N14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -1324,7 +1369,9 @@
       <c r="N15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1368,7 +1415,9 @@
       <c r="N16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1412,7 +1461,9 @@
       <c r="N17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.5">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F20F3-4EC2-4BCF-BE6F-267914E7BD81}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0802A75-C00E-41ED-A89E-E85C9A64665C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>Complete bootstrap functionality</t>
+  </si>
+  <si>
+    <t>No time to programme, rescheduled to today</t>
+  </si>
+  <si>
+    <t>Completed bootstrap functionality</t>
+  </si>
+  <si>
+    <t>Rezip the sample data to the correct format. Troubleshoot and complete bootstrap.php. Create missing objects and DAO. Correct errors in add and remove dao.</t>
+  </si>
+  <si>
+    <t>Rescheduled yesterday's task</t>
   </si>
 </sst>
 </file>
@@ -657,9 +669,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O8" sqref="O8"/>
+      <selection pane="topRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -812,7 +824,9 @@
       <c r="O3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="P3" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11"/>
@@ -858,7 +872,9 @@
       <c r="O4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -904,7 +920,9 @@
       <c r="O5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
@@ -952,7 +970,9 @@
       <c r="O6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="11"/>
@@ -998,7 +1018,9 @@
       <c r="O7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
@@ -1044,7 +1066,9 @@
       <c r="O8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="8"/>
+      <c r="P8" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
@@ -1092,7 +1116,9 @@
       <c r="O9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11"/>
@@ -1138,7 +1164,9 @@
       <c r="O10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
@@ -1184,7 +1212,9 @@
       <c r="O11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
@@ -1232,7 +1262,9 @@
       <c r="O12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="11"/>
@@ -1278,7 +1310,9 @@
       <c r="O13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="8"/>
+      <c r="P13" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11"/>
@@ -1324,7 +1358,9 @@
       <c r="O14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
@@ -1372,7 +1408,9 @@
       <c r="O15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="11"/>
@@ -1418,7 +1456,9 @@
       <c r="O16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="P16" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
@@ -1464,7 +1504,9 @@
       <c r="O17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="P17" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0802A75-C00E-41ED-A89E-E85C9A64665C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9915A4BD-9634-4770-9374-66814D187136}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>Question</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Rescheduled yesterday's task</t>
+  </si>
+  <si>
+    <t>Discussed and fixed bootstrap bug</t>
+  </si>
+  <si>
+    <t>Meet to test bootstrap and add bid</t>
   </si>
 </sst>
 </file>
@@ -669,9 +675,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -767,9 +773,15 @@
       <c r="P2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="Q2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -827,6 +839,9 @@
       <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11"/>
@@ -875,6 +890,9 @@
       <c r="P4" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Q4" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -923,6 +941,9 @@
       <c r="P5" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="Q5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
@@ -972,6 +993,9 @@
       </c>
       <c r="P6" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1021,6 +1045,9 @@
       <c r="P7" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="Q7" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
@@ -1069,6 +1096,9 @@
       <c r="P8" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="Q8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
@@ -1118,6 +1148,9 @@
       </c>
       <c r="P9" s="8" t="s">
         <v>81</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1167,6 +1200,9 @@
       <c r="P10" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="Q10" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
@@ -1215,6 +1251,9 @@
       <c r="P11" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="Q11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
@@ -1264,6 +1303,9 @@
       </c>
       <c r="P12" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1313,6 +1355,9 @@
       <c r="P13" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Q13" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11"/>
@@ -1361,6 +1406,9 @@
       <c r="P14" s="8" t="s">
         <v>82</v>
       </c>
+      <c r="Q14" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
@@ -1410,6 +1458,9 @@
       </c>
       <c r="P15" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1459,8 +1510,11 @@
       <c r="P16" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Q16" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1507,64 +1561,67 @@
       <c r="P17" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+      <c r="Q17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>
@@ -5456,6 +5513,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9915A4BD-9634-4770-9374-66814D187136}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA1530-B254-4B90-90AB-A99FA386BC46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
   <si>
     <t>Question</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Meet to test bootstrap and add bid</t>
+  </si>
+  <si>
+    <t>Added bootstrap validation with team</t>
+  </si>
+  <si>
+    <t>Added bootstrap validation with team and tested login and bootstrap</t>
   </si>
 </sst>
 </file>
@@ -675,9 +681,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="topRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -842,6 +848,9 @@
       <c r="Q3" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="R3" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11"/>
@@ -893,6 +902,9 @@
       <c r="Q4" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -944,6 +956,9 @@
       <c r="Q5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="R5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
@@ -996,6 +1011,9 @@
       </c>
       <c r="Q6" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1048,6 +1066,9 @@
       <c r="Q7" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R7" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
@@ -1099,6 +1120,9 @@
       <c r="Q8" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="R8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
@@ -1151,6 +1175,9 @@
       </c>
       <c r="Q9" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1203,6 +1230,9 @@
       <c r="Q10" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R10" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
@@ -1254,6 +1284,9 @@
       <c r="Q11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="R11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
@@ -1306,6 +1339,9 @@
       </c>
       <c r="Q12" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1358,6 +1394,9 @@
       <c r="Q13" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11"/>
@@ -1409,6 +1448,9 @@
       <c r="Q14" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="R14" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
@@ -1461,6 +1503,9 @@
       </c>
       <c r="Q15" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1513,8 +1558,11 @@
       <c r="Q16" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1564,64 +1612,67 @@
       <c r="Q17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+      <c r="R17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CA1530-B254-4B90-90AB-A99FA386BC46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD9421-6BAB-4139-91C8-C24C6822E583}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>Added bootstrap validation with team and tested login and bootstrap</t>
+  </si>
+  <si>
+    <t>Minor bug fixes</t>
+  </si>
+  <si>
+    <t>Meet with team to test iteration 1 and schedule iteration 2</t>
+  </si>
+  <si>
+    <t>Created testcases</t>
   </si>
 </sst>
 </file>
@@ -681,9 +690,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -851,6 +860,9 @@
       <c r="R3" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="S3" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11"/>
@@ -905,6 +917,9 @@
       <c r="R4" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
@@ -959,6 +974,9 @@
       <c r="R5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
@@ -1014,6 +1032,9 @@
       </c>
       <c r="R6" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1069,6 +1090,9 @@
       <c r="R7" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S7" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
@@ -1123,6 +1147,9 @@
       <c r="R8" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="S8" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
@@ -1178,6 +1205,9 @@
       </c>
       <c r="R9" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1233,6 +1263,9 @@
       <c r="R10" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S10" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="11"/>
@@ -1287,6 +1320,9 @@
       <c r="R11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="S11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
@@ -1342,6 +1378,9 @@
       </c>
       <c r="R12" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1397,6 +1436,9 @@
       <c r="R13" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="S13" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="11"/>
@@ -1451,6 +1493,9 @@
       <c r="R14" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="S14" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
@@ -1506,6 +1551,9 @@
       </c>
       <c r="R15" s="5" t="s">
         <v>86</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
@@ -1561,8 +1609,11 @@
       <c r="R16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="S16" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1615,64 +1666,67 @@
       <c r="R17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+      <c r="S17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9012ECC4-CEFE-4055-8FCE-95AD96C28119}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11D9B8-1C84-48A5-AD19-21146DDFB2AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
-    <sheet name="Week 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="105">
   <si>
     <t>Question</t>
   </si>
@@ -317,13 +316,40 @@
   </si>
   <si>
     <t>Bootstrap testing and bug metric</t>
+  </si>
+  <si>
+    <t>Updated validation for edollar and amount if statement.</t>
+  </si>
+  <si>
+    <t>Meet to discuss slides and prepare for PM review. Do the remaining logic validation.</t>
+  </si>
+  <si>
+    <t>Remaining validations and group meeting</t>
+  </si>
+  <si>
+    <t>Tested and completed bootstrap function for student, course and section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet to discuss slides and prepare for PM review </t>
+  </si>
+  <si>
+    <t>Test cases - unsure whether am I doing it correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides &amp; bootstrap testing </t>
+  </si>
+  <si>
+    <t>Waiting for iter1 critical path / whole project de????</t>
+  </si>
+  <si>
+    <t>Week 5: 30 September to 6 October</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,24 +372,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +414,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,15 +442,11 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -414,7 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -430,12 +470,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,4971 +770,5036 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" style="6" customWidth="1"/>
-    <col min="7" max="9" width="29.1328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" style="4" customWidth="1"/>
+    <col min="7" max="9" width="29.1328125" style="4" customWidth="1"/>
     <col min="10" max="16" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.1328125" customWidth="1"/>
+    <col min="20" max="20" width="20.06640625" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="14" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="U2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="L3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="14" t="s">
         <v>90</v>
       </c>
+      <c r="U3" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>19</v>
+      <c r="T4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="Q5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="15" t="s">
+      <c r="S6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="U6" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="P7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="R7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="14" t="s">
         <v>92</v>
       </c>
+      <c r="U7" s="14" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="C8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>20</v>
+      <c r="O8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="L9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="16" t="s">
+      <c r="S9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>93</v>
       </c>
+      <c r="U9" s="14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+      <c r="O10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="5" t="s">
+      <c r="R10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="15" t="s">
-        <v>19</v>
+      <c r="T10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="15" t="s">
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="5" t="s">
+      <c r="L12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="P12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="16" t="s">
+      <c r="S12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="14" t="s">
         <v>93</v>
       </c>
+      <c r="U12" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="5" t="s">
+      <c r="R13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T13" s="15" t="s">
-        <v>19</v>
+      <c r="T13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="C14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="8" t="s">
+      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="15" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="14" t="s">
         <v>94</v>
       </c>
+      <c r="U15" s="14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="5" t="s">
+      <c r="P16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="5" t="s">
+      <c r="R16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
+      <c r="U16" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="C17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="P17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
+      <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="4"/>
+      <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="4"/>
+      <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="4"/>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="3"/>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
-      <c r="B150" s="4"/>
+      <c r="B150" s="3"/>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
-      <c r="B151" s="4"/>
+      <c r="B151" s="3"/>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
-      <c r="B152" s="4"/>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
-      <c r="B153" s="4"/>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
-      <c r="B154" s="4"/>
+      <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
-      <c r="B155" s="4"/>
+      <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
-      <c r="B157" s="4"/>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
-      <c r="B158" s="4"/>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
-      <c r="B160" s="4"/>
+      <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
-      <c r="B162" s="4"/>
+      <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
-      <c r="B163" s="4"/>
+      <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
-      <c r="B164" s="4"/>
+      <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
-      <c r="B166" s="4"/>
+      <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
-      <c r="B167" s="4"/>
+      <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="3"/>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
-      <c r="B170" s="4"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="3"/>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
-      <c r="B175" s="4"/>
+      <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
-      <c r="B176" s="4"/>
+      <c r="B176" s="3"/>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="3"/>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
-      <c r="B184" s="4"/>
+      <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
-      <c r="B186" s="4"/>
+      <c r="B186" s="3"/>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="3"/>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="3"/>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
-      <c r="B193" s="4"/>
+      <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
-      <c r="B194" s="4"/>
+      <c r="B194" s="3"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
-      <c r="B195" s="4"/>
+      <c r="B195" s="3"/>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
-      <c r="B196" s="4"/>
+      <c r="B196" s="3"/>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="3"/>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="3"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="3"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
-      <c r="B200" s="4"/>
+      <c r="B200" s="3"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="3"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="3"/>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="3"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="3"/>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="1"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="3"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="3"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="3"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="3"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="3"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="3"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="3"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
-      <c r="B212" s="4"/>
+      <c r="B212" s="3"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="3"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
-      <c r="B214" s="4"/>
+      <c r="B214" s="3"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
-      <c r="B215" s="4"/>
+      <c r="B215" s="3"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
-      <c r="B216" s="4"/>
+      <c r="B216" s="3"/>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
-      <c r="B217" s="4"/>
+      <c r="B217" s="3"/>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
-      <c r="B218" s="4"/>
+      <c r="B218" s="3"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="3"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
-      <c r="B220" s="4"/>
+      <c r="B220" s="3"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="3"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
-      <c r="B222" s="4"/>
+      <c r="B222" s="3"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="3"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="3"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="3"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
-      <c r="B226" s="4"/>
+      <c r="B226" s="3"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="3"/>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
-      <c r="B228" s="4"/>
+      <c r="B228" s="3"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
-      <c r="B229" s="4"/>
+      <c r="B229" s="3"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
-      <c r="B230" s="4"/>
+      <c r="B230" s="3"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="3"/>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="1"/>
-      <c r="B232" s="4"/>
+      <c r="B232" s="3"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="1"/>
-      <c r="B233" s="4"/>
+      <c r="B233" s="3"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="1"/>
-      <c r="B234" s="4"/>
+      <c r="B234" s="3"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
-      <c r="B235" s="4"/>
+      <c r="B235" s="3"/>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
-      <c r="B236" s="4"/>
+      <c r="B236" s="3"/>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
-      <c r="B237" s="4"/>
+      <c r="B237" s="3"/>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
-      <c r="B238" s="4"/>
+      <c r="B238" s="3"/>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
-      <c r="B239" s="4"/>
+      <c r="B239" s="3"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
-      <c r="B240" s="4"/>
+      <c r="B240" s="3"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
-      <c r="B241" s="4"/>
+      <c r="B241" s="3"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
-      <c r="B242" s="4"/>
+      <c r="B242" s="3"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
-      <c r="B243" s="4"/>
+      <c r="B243" s="3"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
-      <c r="B244" s="4"/>
+      <c r="B244" s="3"/>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
-      <c r="B245" s="4"/>
+      <c r="B245" s="3"/>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
-      <c r="B246" s="4"/>
+      <c r="B246" s="3"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
-      <c r="B247" s="4"/>
+      <c r="B247" s="3"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
-      <c r="B248" s="4"/>
+      <c r="B248" s="3"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
-      <c r="B249" s="4"/>
+      <c r="B249" s="3"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
-      <c r="B250" s="4"/>
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
-      <c r="B251" s="4"/>
+      <c r="B251" s="3"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="3"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="3"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
-      <c r="B254" s="4"/>
+      <c r="B254" s="3"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
-      <c r="B255" s="4"/>
+      <c r="B255" s="3"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
-      <c r="B256" s="4"/>
+      <c r="B256" s="3"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
-      <c r="B257" s="4"/>
+      <c r="B257" s="3"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
-      <c r="B258" s="4"/>
+      <c r="B258" s="3"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
-      <c r="B259" s="4"/>
+      <c r="B259" s="3"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
-      <c r="B260" s="4"/>
+      <c r="B260" s="3"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A261" s="1"/>
-      <c r="B261" s="4"/>
+      <c r="B261" s="3"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A262" s="1"/>
-      <c r="B262" s="4"/>
+      <c r="B262" s="3"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A263" s="1"/>
-      <c r="B263" s="4"/>
+      <c r="B263" s="3"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
-      <c r="B264" s="4"/>
+      <c r="B264" s="3"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
-      <c r="B265" s="4"/>
+      <c r="B265" s="3"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
-      <c r="B266" s="4"/>
+      <c r="B266" s="3"/>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
-      <c r="B267" s="4"/>
+      <c r="B267" s="3"/>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
-      <c r="B268" s="4"/>
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
-      <c r="B269" s="4"/>
+      <c r="B269" s="3"/>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
-      <c r="B270" s="4"/>
+      <c r="B270" s="3"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
-      <c r="B271" s="4"/>
+      <c r="B271" s="3"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
-      <c r="B272" s="4"/>
+      <c r="B272" s="3"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
-      <c r="B273" s="4"/>
+      <c r="B273" s="3"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
-      <c r="B274" s="4"/>
+      <c r="B274" s="3"/>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
-      <c r="B275" s="4"/>
+      <c r="B275" s="3"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
-      <c r="B276" s="4"/>
+      <c r="B276" s="3"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
-      <c r="B277" s="4"/>
+      <c r="B277" s="3"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
-      <c r="B278" s="4"/>
+      <c r="B278" s="3"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
-      <c r="B279" s="4"/>
+      <c r="B279" s="3"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
-      <c r="B280" s="4"/>
+      <c r="B280" s="3"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
-      <c r="B281" s="4"/>
+      <c r="B281" s="3"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
-      <c r="B282" s="4"/>
+      <c r="B282" s="3"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
-      <c r="B283" s="4"/>
+      <c r="B283" s="3"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
-      <c r="B284" s="4"/>
+      <c r="B284" s="3"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
-      <c r="B285" s="4"/>
+      <c r="B285" s="3"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
-      <c r="B286" s="4"/>
+      <c r="B286" s="3"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
-      <c r="B287" s="4"/>
+      <c r="B287" s="3"/>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
-      <c r="B288" s="4"/>
+      <c r="B288" s="3"/>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
-      <c r="B289" s="4"/>
+      <c r="B289" s="3"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A290" s="1"/>
-      <c r="B290" s="4"/>
+      <c r="B290" s="3"/>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A291" s="1"/>
-      <c r="B291" s="4"/>
+      <c r="B291" s="3"/>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A292" s="1"/>
-      <c r="B292" s="4"/>
+      <c r="B292" s="3"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A293" s="1"/>
-      <c r="B293" s="4"/>
+      <c r="B293" s="3"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
-      <c r="B294" s="4"/>
+      <c r="B294" s="3"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
-      <c r="B295" s="4"/>
+      <c r="B295" s="3"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A296" s="1"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="3"/>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A298" s="1"/>
-      <c r="B298" s="4"/>
+      <c r="B298" s="3"/>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A299" s="1"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="3"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A300" s="1"/>
-      <c r="B300" s="4"/>
+      <c r="B300" s="3"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A301" s="1"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="3"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
-      <c r="B302" s="4"/>
+      <c r="B302" s="3"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="3"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="3"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="3"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
-      <c r="B306" s="4"/>
+      <c r="B306" s="3"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
-      <c r="B307" s="4"/>
+      <c r="B307" s="3"/>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
-      <c r="B308" s="4"/>
+      <c r="B308" s="3"/>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
-      <c r="B309" s="4"/>
+      <c r="B309" s="3"/>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
-      <c r="B310" s="4"/>
+      <c r="B310" s="3"/>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
-      <c r="B311" s="4"/>
+      <c r="B311" s="3"/>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
-      <c r="B312" s="4"/>
+      <c r="B312" s="3"/>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
-      <c r="B313" s="4"/>
+      <c r="B313" s="3"/>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
-      <c r="B314" s="4"/>
+      <c r="B314" s="3"/>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
-      <c r="B315" s="4"/>
+      <c r="B315" s="3"/>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
-      <c r="B316" s="4"/>
+      <c r="B316" s="3"/>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
-      <c r="B317" s="4"/>
+      <c r="B317" s="3"/>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
-      <c r="B318" s="4"/>
+      <c r="B318" s="3"/>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A319" s="1"/>
-      <c r="B319" s="4"/>
+      <c r="B319" s="3"/>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A320" s="1"/>
-      <c r="B320" s="4"/>
+      <c r="B320" s="3"/>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A321" s="1"/>
-      <c r="B321" s="4"/>
+      <c r="B321" s="3"/>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A322" s="1"/>
-      <c r="B322" s="4"/>
+      <c r="B322" s="3"/>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A323" s="1"/>
-      <c r="B323" s="4"/>
+      <c r="B323" s="3"/>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A324" s="1"/>
-      <c r="B324" s="4"/>
+      <c r="B324" s="3"/>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A325" s="1"/>
-      <c r="B325" s="4"/>
+      <c r="B325" s="3"/>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A326" s="1"/>
-      <c r="B326" s="4"/>
+      <c r="B326" s="3"/>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A327" s="1"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="3"/>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A328" s="1"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="3"/>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A329" s="1"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="3"/>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A330" s="1"/>
-      <c r="B330" s="4"/>
+      <c r="B330" s="3"/>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A331" s="1"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="3"/>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A332" s="1"/>
-      <c r="B332" s="4"/>
+      <c r="B332" s="3"/>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A333" s="1"/>
-      <c r="B333" s="4"/>
+      <c r="B333" s="3"/>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
-      <c r="B334" s="4"/>
+      <c r="B334" s="3"/>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
-      <c r="B335" s="4"/>
+      <c r="B335" s="3"/>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A336" s="1"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="3"/>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A337" s="1"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="3"/>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A338" s="1"/>
-      <c r="B338" s="4"/>
+      <c r="B338" s="3"/>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A339" s="1"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="3"/>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A340" s="1"/>
-      <c r="B340" s="4"/>
+      <c r="B340" s="3"/>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A341" s="1"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="3"/>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A342" s="1"/>
-      <c r="B342" s="4"/>
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A343" s="1"/>
-      <c r="B343" s="4"/>
+      <c r="B343" s="3"/>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A344" s="1"/>
-      <c r="B344" s="4"/>
+      <c r="B344" s="3"/>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A345" s="1"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="3"/>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A346" s="1"/>
-      <c r="B346" s="4"/>
+      <c r="B346" s="3"/>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A347" s="1"/>
-      <c r="B347" s="4"/>
+      <c r="B347" s="3"/>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A348" s="1"/>
-      <c r="B348" s="4"/>
+      <c r="B348" s="3"/>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A349" s="1"/>
-      <c r="B349" s="4"/>
+      <c r="B349" s="3"/>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A350" s="1"/>
-      <c r="B350" s="4"/>
+      <c r="B350" s="3"/>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A351" s="1"/>
-      <c r="B351" s="4"/>
+      <c r="B351" s="3"/>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A352" s="1"/>
-      <c r="B352" s="4"/>
+      <c r="B352" s="3"/>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A353" s="1"/>
-      <c r="B353" s="4"/>
+      <c r="B353" s="3"/>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
-      <c r="B354" s="4"/>
+      <c r="B354" s="3"/>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
-      <c r="B355" s="4"/>
+      <c r="B355" s="3"/>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A356" s="1"/>
-      <c r="B356" s="4"/>
+      <c r="B356" s="3"/>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A357" s="1"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="3"/>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A358" s="1"/>
-      <c r="B358" s="4"/>
+      <c r="B358" s="3"/>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A359" s="1"/>
-      <c r="B359" s="4"/>
+      <c r="B359" s="3"/>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A360" s="1"/>
-      <c r="B360" s="4"/>
+      <c r="B360" s="3"/>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A361" s="1"/>
-      <c r="B361" s="4"/>
+      <c r="B361" s="3"/>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A362" s="1"/>
-      <c r="B362" s="4"/>
+      <c r="B362" s="3"/>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A363" s="1"/>
-      <c r="B363" s="4"/>
+      <c r="B363" s="3"/>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A364" s="1"/>
-      <c r="B364" s="4"/>
+      <c r="B364" s="3"/>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A365" s="1"/>
-      <c r="B365" s="4"/>
+      <c r="B365" s="3"/>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A366" s="1"/>
-      <c r="B366" s="4"/>
+      <c r="B366" s="3"/>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A367" s="1"/>
-      <c r="B367" s="4"/>
+      <c r="B367" s="3"/>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A368" s="1"/>
-      <c r="B368" s="4"/>
+      <c r="B368" s="3"/>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A369" s="1"/>
-      <c r="B369" s="4"/>
+      <c r="B369" s="3"/>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A370" s="1"/>
-      <c r="B370" s="4"/>
+      <c r="B370" s="3"/>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A371" s="1"/>
-      <c r="B371" s="4"/>
+      <c r="B371" s="3"/>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A372" s="1"/>
-      <c r="B372" s="4"/>
+      <c r="B372" s="3"/>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A373" s="1"/>
-      <c r="B373" s="4"/>
+      <c r="B373" s="3"/>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A374" s="1"/>
-      <c r="B374" s="4"/>
+      <c r="B374" s="3"/>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A375" s="1"/>
-      <c r="B375" s="4"/>
+      <c r="B375" s="3"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A376" s="1"/>
-      <c r="B376" s="4"/>
+      <c r="B376" s="3"/>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A377" s="1"/>
-      <c r="B377" s="4"/>
+      <c r="B377" s="3"/>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A378" s="1"/>
-      <c r="B378" s="4"/>
+      <c r="B378" s="3"/>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A379" s="1"/>
-      <c r="B379" s="4"/>
+      <c r="B379" s="3"/>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A380" s="1"/>
-      <c r="B380" s="4"/>
+      <c r="B380" s="3"/>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A381" s="1"/>
-      <c r="B381" s="4"/>
+      <c r="B381" s="3"/>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A382" s="1"/>
-      <c r="B382" s="4"/>
+      <c r="B382" s="3"/>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A383" s="1"/>
-      <c r="B383" s="4"/>
+      <c r="B383" s="3"/>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A384" s="1"/>
-      <c r="B384" s="4"/>
+      <c r="B384" s="3"/>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A385" s="1"/>
-      <c r="B385" s="4"/>
+      <c r="B385" s="3"/>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A386" s="1"/>
-      <c r="B386" s="4"/>
+      <c r="B386" s="3"/>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A387" s="1"/>
-      <c r="B387" s="4"/>
+      <c r="B387" s="3"/>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A388" s="1"/>
-      <c r="B388" s="4"/>
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A389" s="1"/>
-      <c r="B389" s="4"/>
+      <c r="B389" s="3"/>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A390" s="1"/>
-      <c r="B390" s="4"/>
+      <c r="B390" s="3"/>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A391" s="1"/>
-      <c r="B391" s="4"/>
+      <c r="B391" s="3"/>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A392" s="1"/>
-      <c r="B392" s="4"/>
+      <c r="B392" s="3"/>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A393" s="1"/>
-      <c r="B393" s="4"/>
+      <c r="B393" s="3"/>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A394" s="1"/>
-      <c r="B394" s="4"/>
+      <c r="B394" s="3"/>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A395" s="1"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="3"/>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A396" s="1"/>
-      <c r="B396" s="4"/>
+      <c r="B396" s="3"/>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A397" s="1"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="3"/>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A398" s="1"/>
-      <c r="B398" s="4"/>
+      <c r="B398" s="3"/>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A399" s="1"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="3"/>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
-      <c r="B400" s="4"/>
+      <c r="B400" s="3"/>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
-      <c r="B401" s="4"/>
+      <c r="B401" s="3"/>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A402" s="1"/>
-      <c r="B402" s="4"/>
+      <c r="B402" s="3"/>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A403" s="1"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="3"/>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A404" s="1"/>
-      <c r="B404" s="4"/>
+      <c r="B404" s="3"/>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A405" s="1"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="3"/>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A406" s="1"/>
-      <c r="B406" s="4"/>
+      <c r="B406" s="3"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A407" s="1"/>
-      <c r="B407" s="4"/>
+      <c r="B407" s="3"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
-      <c r="B408" s="4"/>
+      <c r="B408" s="3"/>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
-      <c r="B409" s="4"/>
+      <c r="B409" s="3"/>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A410" s="1"/>
-      <c r="B410" s="4"/>
+      <c r="B410" s="3"/>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A411" s="1"/>
-      <c r="B411" s="4"/>
+      <c r="B411" s="3"/>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A412" s="1"/>
-      <c r="B412" s="4"/>
+      <c r="B412" s="3"/>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A413" s="1"/>
-      <c r="B413" s="4"/>
+      <c r="B413" s="3"/>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A414" s="1"/>
-      <c r="B414" s="4"/>
+      <c r="B414" s="3"/>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A415" s="1"/>
-      <c r="B415" s="4"/>
+      <c r="B415" s="3"/>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A416" s="1"/>
-      <c r="B416" s="4"/>
+      <c r="B416" s="3"/>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A417" s="1"/>
-      <c r="B417" s="4"/>
+      <c r="B417" s="3"/>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A418" s="1"/>
-      <c r="B418" s="4"/>
+      <c r="B418" s="3"/>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A419" s="1"/>
-      <c r="B419" s="4"/>
+      <c r="B419" s="3"/>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A420" s="1"/>
-      <c r="B420" s="4"/>
+      <c r="B420" s="3"/>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A421" s="1"/>
-      <c r="B421" s="4"/>
+      <c r="B421" s="3"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A422" s="1"/>
-      <c r="B422" s="4"/>
+      <c r="B422" s="3"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A423" s="1"/>
-      <c r="B423" s="4"/>
+      <c r="B423" s="3"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A424" s="1"/>
-      <c r="B424" s="4"/>
+      <c r="B424" s="3"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A425" s="1"/>
-      <c r="B425" s="4"/>
+      <c r="B425" s="3"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A426" s="1"/>
-      <c r="B426" s="4"/>
+      <c r="B426" s="3"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A427" s="1"/>
-      <c r="B427" s="4"/>
+      <c r="B427" s="3"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A428" s="1"/>
-      <c r="B428" s="4"/>
+      <c r="B428" s="3"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A429" s="1"/>
-      <c r="B429" s="4"/>
+      <c r="B429" s="3"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A430" s="1"/>
-      <c r="B430" s="4"/>
+      <c r="B430" s="3"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A431" s="1"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="3"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A432" s="1"/>
-      <c r="B432" s="4"/>
+      <c r="B432" s="3"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A433" s="1"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="3"/>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A434" s="1"/>
-      <c r="B434" s="4"/>
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A435" s="1"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="3"/>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A436" s="1"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="3"/>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A437" s="1"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="3"/>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A438" s="1"/>
-      <c r="B438" s="4"/>
+      <c r="B438" s="3"/>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A439" s="1"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="3"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A440" s="1"/>
-      <c r="B440" s="4"/>
+      <c r="B440" s="3"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A441" s="1"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="3"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A442" s="1"/>
-      <c r="B442" s="4"/>
+      <c r="B442" s="3"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A443" s="1"/>
-      <c r="B443" s="4"/>
+      <c r="B443" s="3"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A444" s="1"/>
-      <c r="B444" s="4"/>
+      <c r="B444" s="3"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A445" s="1"/>
-      <c r="B445" s="4"/>
+      <c r="B445" s="3"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A446" s="1"/>
-      <c r="B446" s="4"/>
+      <c r="B446" s="3"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A447" s="1"/>
-      <c r="B447" s="4"/>
+      <c r="B447" s="3"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A448" s="1"/>
-      <c r="B448" s="4"/>
+      <c r="B448" s="3"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A449" s="1"/>
-      <c r="B449" s="4"/>
+      <c r="B449" s="3"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A450" s="1"/>
-      <c r="B450" s="4"/>
+      <c r="B450" s="3"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A451" s="1"/>
-      <c r="B451" s="4"/>
+      <c r="B451" s="3"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A452" s="1"/>
-      <c r="B452" s="4"/>
+      <c r="B452" s="3"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A453" s="1"/>
-      <c r="B453" s="4"/>
+      <c r="B453" s="3"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A454" s="1"/>
-      <c r="B454" s="4"/>
+      <c r="B454" s="3"/>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A455" s="1"/>
-      <c r="B455" s="4"/>
+      <c r="B455" s="3"/>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A456" s="1"/>
-      <c r="B456" s="4"/>
+      <c r="B456" s="3"/>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A457" s="1"/>
-      <c r="B457" s="4"/>
+      <c r="B457" s="3"/>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A458" s="1"/>
-      <c r="B458" s="4"/>
+      <c r="B458" s="3"/>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A459" s="1"/>
-      <c r="B459" s="4"/>
+      <c r="B459" s="3"/>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A460" s="1"/>
-      <c r="B460" s="4"/>
+      <c r="B460" s="3"/>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A461" s="1"/>
-      <c r="B461" s="4"/>
+      <c r="B461" s="3"/>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A462" s="1"/>
-      <c r="B462" s="4"/>
+      <c r="B462" s="3"/>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A463" s="1"/>
-      <c r="B463" s="4"/>
+      <c r="B463" s="3"/>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A464" s="1"/>
-      <c r="B464" s="4"/>
+      <c r="B464" s="3"/>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A465" s="1"/>
-      <c r="B465" s="4"/>
+      <c r="B465" s="3"/>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A466" s="1"/>
-      <c r="B466" s="4"/>
+      <c r="B466" s="3"/>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A467" s="1"/>
-      <c r="B467" s="4"/>
+      <c r="B467" s="3"/>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A468" s="1"/>
-      <c r="B468" s="4"/>
+      <c r="B468" s="3"/>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A469" s="1"/>
-      <c r="B469" s="4"/>
+      <c r="B469" s="3"/>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
-      <c r="B470" s="4"/>
+      <c r="B470" s="3"/>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A471" s="1"/>
-      <c r="B471" s="4"/>
+      <c r="B471" s="3"/>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A472" s="1"/>
-      <c r="B472" s="4"/>
+      <c r="B472" s="3"/>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A473" s="1"/>
-      <c r="B473" s="4"/>
+      <c r="B473" s="3"/>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A474" s="1"/>
-      <c r="B474" s="4"/>
+      <c r="B474" s="3"/>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A475" s="1"/>
-      <c r="B475" s="4"/>
+      <c r="B475" s="3"/>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A476" s="1"/>
-      <c r="B476" s="4"/>
+      <c r="B476" s="3"/>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A477" s="1"/>
-      <c r="B477" s="4"/>
+      <c r="B477" s="3"/>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A478" s="1"/>
-      <c r="B478" s="4"/>
+      <c r="B478" s="3"/>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A479" s="1"/>
-      <c r="B479" s="4"/>
+      <c r="B479" s="3"/>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A480" s="1"/>
-      <c r="B480" s="4"/>
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A481" s="1"/>
-      <c r="B481" s="4"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A482" s="1"/>
-      <c r="B482" s="4"/>
+      <c r="B482" s="3"/>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A483" s="1"/>
-      <c r="B483" s="4"/>
+      <c r="B483" s="3"/>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A484" s="1"/>
-      <c r="B484" s="4"/>
+      <c r="B484" s="3"/>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A485" s="1"/>
-      <c r="B485" s="4"/>
+      <c r="B485" s="3"/>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A486" s="1"/>
-      <c r="B486" s="4"/>
+      <c r="B486" s="3"/>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A487" s="1"/>
-      <c r="B487" s="4"/>
+      <c r="B487" s="3"/>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A488" s="1"/>
-      <c r="B488" s="4"/>
+      <c r="B488" s="3"/>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A489" s="1"/>
-      <c r="B489" s="4"/>
+      <c r="B489" s="3"/>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A490" s="1"/>
-      <c r="B490" s="4"/>
+      <c r="B490" s="3"/>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A491" s="1"/>
-      <c r="B491" s="4"/>
+      <c r="B491" s="3"/>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A492" s="1"/>
-      <c r="B492" s="4"/>
+      <c r="B492" s="3"/>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A493" s="1"/>
-      <c r="B493" s="4"/>
+      <c r="B493" s="3"/>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A494" s="1"/>
-      <c r="B494" s="4"/>
+      <c r="B494" s="3"/>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A495" s="1"/>
-      <c r="B495" s="4"/>
+      <c r="B495" s="3"/>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A496" s="1"/>
-      <c r="B496" s="4"/>
+      <c r="B496" s="3"/>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A497" s="1"/>
-      <c r="B497" s="4"/>
+      <c r="B497" s="3"/>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A498" s="1"/>
-      <c r="B498" s="4"/>
+      <c r="B498" s="3"/>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A499" s="1"/>
-      <c r="B499" s="4"/>
+      <c r="B499" s="3"/>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A500" s="1"/>
-      <c r="B500" s="4"/>
+      <c r="B500" s="3"/>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A501" s="1"/>
-      <c r="B501" s="4"/>
+      <c r="B501" s="3"/>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A502" s="1"/>
-      <c r="B502" s="4"/>
+      <c r="B502" s="3"/>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A503" s="1"/>
-      <c r="B503" s="4"/>
+      <c r="B503" s="3"/>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A504" s="1"/>
-      <c r="B504" s="4"/>
+      <c r="B504" s="3"/>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A505" s="1"/>
-      <c r="B505" s="4"/>
+      <c r="B505" s="3"/>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A506" s="1"/>
-      <c r="B506" s="4"/>
+      <c r="B506" s="3"/>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A507" s="1"/>
-      <c r="B507" s="4"/>
+      <c r="B507" s="3"/>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A508" s="1"/>
-      <c r="B508" s="4"/>
+      <c r="B508" s="3"/>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A509" s="1"/>
-      <c r="B509" s="4"/>
+      <c r="B509" s="3"/>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A510" s="1"/>
-      <c r="B510" s="4"/>
+      <c r="B510" s="3"/>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A511" s="1"/>
-      <c r="B511" s="4"/>
+      <c r="B511" s="3"/>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A512" s="1"/>
-      <c r="B512" s="4"/>
+      <c r="B512" s="3"/>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A513" s="1"/>
-      <c r="B513" s="4"/>
+      <c r="B513" s="3"/>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A514" s="1"/>
-      <c r="B514" s="4"/>
+      <c r="B514" s="3"/>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A515" s="1"/>
-      <c r="B515" s="4"/>
+      <c r="B515" s="3"/>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A516" s="1"/>
-      <c r="B516" s="4"/>
+      <c r="B516" s="3"/>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A517" s="1"/>
-      <c r="B517" s="4"/>
+      <c r="B517" s="3"/>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A518" s="1"/>
-      <c r="B518" s="4"/>
+      <c r="B518" s="3"/>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A519" s="1"/>
-      <c r="B519" s="4"/>
+      <c r="B519" s="3"/>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A520" s="1"/>
-      <c r="B520" s="4"/>
+      <c r="B520" s="3"/>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A521" s="1"/>
-      <c r="B521" s="4"/>
+      <c r="B521" s="3"/>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A522" s="1"/>
-      <c r="B522" s="4"/>
+      <c r="B522" s="3"/>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A523" s="1"/>
-      <c r="B523" s="4"/>
+      <c r="B523" s="3"/>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A524" s="1"/>
-      <c r="B524" s="4"/>
+      <c r="B524" s="3"/>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A525" s="1"/>
-      <c r="B525" s="4"/>
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A526" s="1"/>
-      <c r="B526" s="4"/>
+      <c r="B526" s="3"/>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A527" s="1"/>
-      <c r="B527" s="4"/>
+      <c r="B527" s="3"/>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A528" s="1"/>
-      <c r="B528" s="4"/>
+      <c r="B528" s="3"/>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A529" s="1"/>
-      <c r="B529" s="4"/>
+      <c r="B529" s="3"/>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A530" s="1"/>
-      <c r="B530" s="4"/>
+      <c r="B530" s="3"/>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A531" s="1"/>
-      <c r="B531" s="4"/>
+      <c r="B531" s="3"/>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A532" s="1"/>
-      <c r="B532" s="4"/>
+      <c r="B532" s="3"/>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A533" s="1"/>
-      <c r="B533" s="4"/>
+      <c r="B533" s="3"/>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A534" s="1"/>
-      <c r="B534" s="4"/>
+      <c r="B534" s="3"/>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A535" s="1"/>
-      <c r="B535" s="4"/>
+      <c r="B535" s="3"/>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A536" s="1"/>
-      <c r="B536" s="4"/>
+      <c r="B536" s="3"/>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A537" s="1"/>
-      <c r="B537" s="4"/>
+      <c r="B537" s="3"/>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A538" s="1"/>
-      <c r="B538" s="4"/>
+      <c r="B538" s="3"/>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A539" s="1"/>
-      <c r="B539" s="4"/>
+      <c r="B539" s="3"/>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A540" s="1"/>
-      <c r="B540" s="4"/>
+      <c r="B540" s="3"/>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A541" s="1"/>
-      <c r="B541" s="4"/>
+      <c r="B541" s="3"/>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A542" s="1"/>
-      <c r="B542" s="4"/>
+      <c r="B542" s="3"/>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A543" s="1"/>
-      <c r="B543" s="4"/>
+      <c r="B543" s="3"/>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A544" s="1"/>
-      <c r="B544" s="4"/>
+      <c r="B544" s="3"/>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A545" s="1"/>
-      <c r="B545" s="4"/>
+      <c r="B545" s="3"/>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A546" s="1"/>
-      <c r="B546" s="4"/>
+      <c r="B546" s="3"/>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A547" s="1"/>
-      <c r="B547" s="4"/>
+      <c r="B547" s="3"/>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A548" s="1"/>
-      <c r="B548" s="4"/>
+      <c r="B548" s="3"/>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A549" s="1"/>
-      <c r="B549" s="4"/>
+      <c r="B549" s="3"/>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A550" s="1"/>
-      <c r="B550" s="4"/>
+      <c r="B550" s="3"/>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A551" s="1"/>
-      <c r="B551" s="4"/>
+      <c r="B551" s="3"/>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A552" s="1"/>
-      <c r="B552" s="4"/>
+      <c r="B552" s="3"/>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A553" s="1"/>
-      <c r="B553" s="4"/>
+      <c r="B553" s="3"/>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A554" s="1"/>
-      <c r="B554" s="4"/>
+      <c r="B554" s="3"/>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A555" s="1"/>
-      <c r="B555" s="4"/>
+      <c r="B555" s="3"/>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A556" s="1"/>
-      <c r="B556" s="4"/>
+      <c r="B556" s="3"/>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A557" s="1"/>
-      <c r="B557" s="4"/>
+      <c r="B557" s="3"/>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A558" s="1"/>
-      <c r="B558" s="4"/>
+      <c r="B558" s="3"/>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A559" s="1"/>
-      <c r="B559" s="4"/>
+      <c r="B559" s="3"/>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A560" s="1"/>
-      <c r="B560" s="4"/>
+      <c r="B560" s="3"/>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A561" s="1"/>
-      <c r="B561" s="4"/>
+      <c r="B561" s="3"/>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A562" s="1"/>
-      <c r="B562" s="4"/>
+      <c r="B562" s="3"/>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A563" s="1"/>
-      <c r="B563" s="4"/>
+      <c r="B563" s="3"/>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A564" s="1"/>
-      <c r="B564" s="4"/>
+      <c r="B564" s="3"/>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A565" s="1"/>
-      <c r="B565" s="4"/>
+      <c r="B565" s="3"/>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A566" s="1"/>
-      <c r="B566" s="4"/>
+      <c r="B566" s="3"/>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A567" s="1"/>
-      <c r="B567" s="4"/>
+      <c r="B567" s="3"/>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A568" s="1"/>
-      <c r="B568" s="4"/>
+      <c r="B568" s="3"/>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A569" s="1"/>
-      <c r="B569" s="4"/>
+      <c r="B569" s="3"/>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A570" s="1"/>
-      <c r="B570" s="4"/>
+      <c r="B570" s="3"/>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A571" s="1"/>
-      <c r="B571" s="4"/>
+      <c r="B571" s="3"/>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A572" s="1"/>
-      <c r="B572" s="4"/>
+      <c r="B572" s="3"/>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A573" s="1"/>
-      <c r="B573" s="4"/>
+      <c r="B573" s="3"/>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A574" s="1"/>
-      <c r="B574" s="4"/>
+      <c r="B574" s="3"/>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A575" s="1"/>
-      <c r="B575" s="4"/>
+      <c r="B575" s="3"/>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A576" s="1"/>
-      <c r="B576" s="4"/>
+      <c r="B576" s="3"/>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A577" s="1"/>
-      <c r="B577" s="4"/>
+      <c r="B577" s="3"/>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A578" s="1"/>
-      <c r="B578" s="4"/>
+      <c r="B578" s="3"/>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A579" s="1"/>
-      <c r="B579" s="4"/>
+      <c r="B579" s="3"/>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A580" s="1"/>
-      <c r="B580" s="4"/>
+      <c r="B580" s="3"/>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A581" s="1"/>
-      <c r="B581" s="4"/>
+      <c r="B581" s="3"/>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A582" s="1"/>
-      <c r="B582" s="4"/>
+      <c r="B582" s="3"/>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A583" s="1"/>
-      <c r="B583" s="4"/>
+      <c r="B583" s="3"/>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A584" s="1"/>
-      <c r="B584" s="4"/>
+      <c r="B584" s="3"/>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A585" s="1"/>
-      <c r="B585" s="4"/>
+      <c r="B585" s="3"/>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A586" s="1"/>
-      <c r="B586" s="4"/>
+      <c r="B586" s="3"/>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A587" s="1"/>
-      <c r="B587" s="4"/>
+      <c r="B587" s="3"/>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A588" s="1"/>
-      <c r="B588" s="4"/>
+      <c r="B588" s="3"/>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A589" s="1"/>
-      <c r="B589" s="4"/>
+      <c r="B589" s="3"/>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A590" s="1"/>
-      <c r="B590" s="4"/>
+      <c r="B590" s="3"/>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A591" s="1"/>
-      <c r="B591" s="4"/>
+      <c r="B591" s="3"/>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A592" s="1"/>
-      <c r="B592" s="4"/>
+      <c r="B592" s="3"/>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A593" s="1"/>
-      <c r="B593" s="4"/>
+      <c r="B593" s="3"/>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A594" s="1"/>
-      <c r="B594" s="4"/>
+      <c r="B594" s="3"/>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A595" s="1"/>
-      <c r="B595" s="4"/>
+      <c r="B595" s="3"/>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A596" s="1"/>
-      <c r="B596" s="4"/>
+      <c r="B596" s="3"/>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A597" s="1"/>
-      <c r="B597" s="4"/>
+      <c r="B597" s="3"/>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A598" s="1"/>
-      <c r="B598" s="4"/>
+      <c r="B598" s="3"/>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A599" s="1"/>
-      <c r="B599" s="4"/>
+      <c r="B599" s="3"/>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A600" s="1"/>
-      <c r="B600" s="4"/>
+      <c r="B600" s="3"/>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A601" s="1"/>
-      <c r="B601" s="4"/>
+      <c r="B601" s="3"/>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A602" s="1"/>
-      <c r="B602" s="4"/>
+      <c r="B602" s="3"/>
     </row>
     <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A603" s="1"/>
-      <c r="B603" s="4"/>
+      <c r="B603" s="3"/>
     </row>
     <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A604" s="1"/>
-      <c r="B604" s="4"/>
+      <c r="B604" s="3"/>
     </row>
     <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A605" s="1"/>
-      <c r="B605" s="4"/>
+      <c r="B605" s="3"/>
     </row>
     <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A606" s="1"/>
-      <c r="B606" s="4"/>
+      <c r="B606" s="3"/>
     </row>
     <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A607" s="1"/>
-      <c r="B607" s="4"/>
+      <c r="B607" s="3"/>
     </row>
     <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A608" s="1"/>
-      <c r="B608" s="4"/>
+      <c r="B608" s="3"/>
     </row>
     <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A609" s="1"/>
-      <c r="B609" s="4"/>
+      <c r="B609" s="3"/>
     </row>
     <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A610" s="1"/>
-      <c r="B610" s="4"/>
+      <c r="B610" s="3"/>
     </row>
     <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A611" s="1"/>
-      <c r="B611" s="4"/>
+      <c r="B611" s="3"/>
     </row>
     <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A612" s="1"/>
-      <c r="B612" s="4"/>
+      <c r="B612" s="3"/>
     </row>
     <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A613" s="1"/>
-      <c r="B613" s="4"/>
+      <c r="B613" s="3"/>
     </row>
     <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A614" s="1"/>
-      <c r="B614" s="4"/>
+      <c r="B614" s="3"/>
     </row>
     <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A615" s="1"/>
-      <c r="B615" s="4"/>
+      <c r="B615" s="3"/>
     </row>
     <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A616" s="1"/>
-      <c r="B616" s="4"/>
+      <c r="B616" s="3"/>
     </row>
     <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A617" s="1"/>
-      <c r="B617" s="4"/>
+      <c r="B617" s="3"/>
     </row>
     <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A618" s="1"/>
-      <c r="B618" s="4"/>
+      <c r="B618" s="3"/>
     </row>
     <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A619" s="1"/>
-      <c r="B619" s="4"/>
+      <c r="B619" s="3"/>
     </row>
     <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A620" s="1"/>
-      <c r="B620" s="4"/>
+      <c r="B620" s="3"/>
     </row>
     <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A621" s="1"/>
-      <c r="B621" s="4"/>
+      <c r="B621" s="3"/>
     </row>
     <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A622" s="1"/>
-      <c r="B622" s="4"/>
+      <c r="B622" s="3"/>
     </row>
     <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A623" s="1"/>
-      <c r="B623" s="4"/>
+      <c r="B623" s="3"/>
     </row>
     <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A624" s="1"/>
-      <c r="B624" s="4"/>
+      <c r="B624" s="3"/>
     </row>
     <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A625" s="1"/>
-      <c r="B625" s="4"/>
+      <c r="B625" s="3"/>
     </row>
     <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A626" s="1"/>
-      <c r="B626" s="4"/>
+      <c r="B626" s="3"/>
     </row>
     <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A627" s="1"/>
-      <c r="B627" s="4"/>
+      <c r="B627" s="3"/>
     </row>
     <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A628" s="1"/>
-      <c r="B628" s="4"/>
+      <c r="B628" s="3"/>
     </row>
     <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A629" s="1"/>
-      <c r="B629" s="4"/>
+      <c r="B629" s="3"/>
     </row>
     <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A630" s="1"/>
-      <c r="B630" s="4"/>
+      <c r="B630" s="3"/>
     </row>
     <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A631" s="1"/>
-      <c r="B631" s="4"/>
+      <c r="B631" s="3"/>
     </row>
     <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A632" s="1"/>
-      <c r="B632" s="4"/>
+      <c r="B632" s="3"/>
     </row>
     <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A633" s="1"/>
-      <c r="B633" s="4"/>
+      <c r="B633" s="3"/>
     </row>
     <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A634" s="1"/>
-      <c r="B634" s="4"/>
+      <c r="B634" s="3"/>
     </row>
     <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A635" s="1"/>
-      <c r="B635" s="4"/>
+      <c r="B635" s="3"/>
     </row>
     <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A636" s="1"/>
-      <c r="B636" s="4"/>
+      <c r="B636" s="3"/>
     </row>
     <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A637" s="1"/>
-      <c r="B637" s="4"/>
+      <c r="B637" s="3"/>
     </row>
     <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A638" s="1"/>
-      <c r="B638" s="4"/>
+      <c r="B638" s="3"/>
     </row>
     <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A639" s="1"/>
-      <c r="B639" s="4"/>
+      <c r="B639" s="3"/>
     </row>
     <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A640" s="1"/>
-      <c r="B640" s="4"/>
+      <c r="B640" s="3"/>
     </row>
     <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A641" s="1"/>
-      <c r="B641" s="4"/>
+      <c r="B641" s="3"/>
     </row>
     <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A642" s="1"/>
-      <c r="B642" s="4"/>
+      <c r="B642" s="3"/>
     </row>
     <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A643" s="1"/>
-      <c r="B643" s="4"/>
+      <c r="B643" s="3"/>
     </row>
     <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A644" s="1"/>
-      <c r="B644" s="4"/>
+      <c r="B644" s="3"/>
     </row>
     <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A645" s="1"/>
-      <c r="B645" s="4"/>
+      <c r="B645" s="3"/>
     </row>
     <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A646" s="1"/>
-      <c r="B646" s="4"/>
+      <c r="B646" s="3"/>
     </row>
     <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A647" s="1"/>
-      <c r="B647" s="4"/>
+      <c r="B647" s="3"/>
     </row>
     <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A648" s="1"/>
-      <c r="B648" s="4"/>
+      <c r="B648" s="3"/>
     </row>
     <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A649" s="1"/>
-      <c r="B649" s="4"/>
+      <c r="B649" s="3"/>
     </row>
     <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A650" s="1"/>
-      <c r="B650" s="4"/>
+      <c r="B650" s="3"/>
     </row>
     <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A651" s="1"/>
-      <c r="B651" s="4"/>
+      <c r="B651" s="3"/>
     </row>
     <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A652" s="1"/>
-      <c r="B652" s="4"/>
+      <c r="B652" s="3"/>
     </row>
     <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A653" s="1"/>
-      <c r="B653" s="4"/>
+      <c r="B653" s="3"/>
     </row>
     <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A654" s="1"/>
-      <c r="B654" s="4"/>
+      <c r="B654" s="3"/>
     </row>
     <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A655" s="1"/>
-      <c r="B655" s="4"/>
+      <c r="B655" s="3"/>
     </row>
     <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A656" s="1"/>
-      <c r="B656" s="4"/>
+      <c r="B656" s="3"/>
     </row>
     <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A657" s="1"/>
-      <c r="B657" s="4"/>
+      <c r="B657" s="3"/>
     </row>
     <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A658" s="1"/>
-      <c r="B658" s="4"/>
+      <c r="B658" s="3"/>
     </row>
     <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A659" s="1"/>
-      <c r="B659" s="4"/>
+      <c r="B659" s="3"/>
     </row>
     <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A660" s="1"/>
-      <c r="B660" s="4"/>
+      <c r="B660" s="3"/>
     </row>
     <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A661" s="1"/>
-      <c r="B661" s="4"/>
+      <c r="B661" s="3"/>
     </row>
     <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A662" s="1"/>
-      <c r="B662" s="4"/>
+      <c r="B662" s="3"/>
     </row>
     <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A663" s="1"/>
-      <c r="B663" s="4"/>
+      <c r="B663" s="3"/>
     </row>
     <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A664" s="1"/>
-      <c r="B664" s="4"/>
+      <c r="B664" s="3"/>
     </row>
     <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A665" s="1"/>
-      <c r="B665" s="4"/>
+      <c r="B665" s="3"/>
     </row>
     <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A666" s="1"/>
-      <c r="B666" s="4"/>
+      <c r="B666" s="3"/>
     </row>
     <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A667" s="1"/>
-      <c r="B667" s="4"/>
+      <c r="B667" s="3"/>
     </row>
     <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A668" s="1"/>
-      <c r="B668" s="4"/>
+      <c r="B668" s="3"/>
     </row>
     <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A669" s="1"/>
-      <c r="B669" s="4"/>
+      <c r="B669" s="3"/>
     </row>
     <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A670" s="1"/>
-      <c r="B670" s="4"/>
+      <c r="B670" s="3"/>
     </row>
     <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A671" s="1"/>
-      <c r="B671" s="4"/>
+      <c r="B671" s="3"/>
     </row>
     <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A672" s="1"/>
-      <c r="B672" s="4"/>
+      <c r="B672" s="3"/>
     </row>
     <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A673" s="1"/>
-      <c r="B673" s="4"/>
+      <c r="B673" s="3"/>
     </row>
     <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A674" s="1"/>
-      <c r="B674" s="4"/>
+      <c r="B674" s="3"/>
     </row>
     <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A675" s="1"/>
-      <c r="B675" s="4"/>
+      <c r="B675" s="3"/>
     </row>
     <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A676" s="1"/>
-      <c r="B676" s="4"/>
+      <c r="B676" s="3"/>
     </row>
     <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A677" s="1"/>
-      <c r="B677" s="4"/>
+      <c r="B677" s="3"/>
     </row>
     <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A678" s="1"/>
-      <c r="B678" s="4"/>
+      <c r="B678" s="3"/>
     </row>
     <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A679" s="1"/>
-      <c r="B679" s="4"/>
+      <c r="B679" s="3"/>
     </row>
     <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A680" s="1"/>
-      <c r="B680" s="4"/>
+      <c r="B680" s="3"/>
     </row>
     <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A681" s="1"/>
-      <c r="B681" s="4"/>
+      <c r="B681" s="3"/>
     </row>
     <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A682" s="1"/>
-      <c r="B682" s="4"/>
+      <c r="B682" s="3"/>
     </row>
     <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A683" s="1"/>
-      <c r="B683" s="4"/>
+      <c r="B683" s="3"/>
     </row>
     <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A684" s="1"/>
-      <c r="B684" s="4"/>
+      <c r="B684" s="3"/>
     </row>
     <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A685" s="1"/>
-      <c r="B685" s="4"/>
+      <c r="B685" s="3"/>
     </row>
     <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A686" s="1"/>
-      <c r="B686" s="4"/>
+      <c r="B686" s="3"/>
     </row>
     <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A687" s="1"/>
-      <c r="B687" s="4"/>
+      <c r="B687" s="3"/>
     </row>
     <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A688" s="1"/>
-      <c r="B688" s="4"/>
+      <c r="B688" s="3"/>
     </row>
     <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A689" s="1"/>
-      <c r="B689" s="4"/>
+      <c r="B689" s="3"/>
     </row>
     <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A690" s="1"/>
-      <c r="B690" s="4"/>
+      <c r="B690" s="3"/>
     </row>
     <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A691" s="1"/>
-      <c r="B691" s="4"/>
+      <c r="B691" s="3"/>
     </row>
     <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A692" s="1"/>
-      <c r="B692" s="4"/>
+      <c r="B692" s="3"/>
     </row>
     <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A693" s="1"/>
-      <c r="B693" s="4"/>
+      <c r="B693" s="3"/>
     </row>
     <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A694" s="1"/>
-      <c r="B694" s="4"/>
+      <c r="B694" s="3"/>
     </row>
     <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A695" s="1"/>
-      <c r="B695" s="4"/>
+      <c r="B695" s="3"/>
     </row>
     <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A696" s="1"/>
-      <c r="B696" s="4"/>
+      <c r="B696" s="3"/>
     </row>
     <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A697" s="1"/>
-      <c r="B697" s="4"/>
+      <c r="B697" s="3"/>
     </row>
     <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A698" s="1"/>
-      <c r="B698" s="4"/>
+      <c r="B698" s="3"/>
     </row>
     <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A699" s="1"/>
-      <c r="B699" s="4"/>
+      <c r="B699" s="3"/>
     </row>
     <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A700" s="1"/>
-      <c r="B700" s="4"/>
+      <c r="B700" s="3"/>
     </row>
     <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A701" s="1"/>
-      <c r="B701" s="4"/>
+      <c r="B701" s="3"/>
     </row>
     <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A702" s="1"/>
-      <c r="B702" s="4"/>
+      <c r="B702" s="3"/>
     </row>
     <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A703" s="1"/>
-      <c r="B703" s="4"/>
+      <c r="B703" s="3"/>
     </row>
     <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A704" s="1"/>
-      <c r="B704" s="4"/>
+      <c r="B704" s="3"/>
     </row>
     <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A705" s="1"/>
-      <c r="B705" s="4"/>
+      <c r="B705" s="3"/>
     </row>
     <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A706" s="1"/>
-      <c r="B706" s="4"/>
+      <c r="B706" s="3"/>
     </row>
     <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A707" s="1"/>
-      <c r="B707" s="4"/>
+      <c r="B707" s="3"/>
     </row>
     <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A708" s="1"/>
-      <c r="B708" s="4"/>
+      <c r="B708" s="3"/>
     </row>
     <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A709" s="1"/>
-      <c r="B709" s="4"/>
+      <c r="B709" s="3"/>
     </row>
     <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A710" s="1"/>
-      <c r="B710" s="4"/>
+      <c r="B710" s="3"/>
     </row>
     <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A711" s="1"/>
-      <c r="B711" s="4"/>
+      <c r="B711" s="3"/>
     </row>
     <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A712" s="1"/>
-      <c r="B712" s="4"/>
+      <c r="B712" s="3"/>
     </row>
     <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A713" s="1"/>
-      <c r="B713" s="4"/>
+      <c r="B713" s="3"/>
     </row>
     <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A714" s="1"/>
-      <c r="B714" s="4"/>
+      <c r="B714" s="3"/>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A715" s="1"/>
-      <c r="B715" s="4"/>
+      <c r="B715" s="3"/>
     </row>
     <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A716" s="1"/>
-      <c r="B716" s="4"/>
+      <c r="B716" s="3"/>
     </row>
     <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A717" s="1"/>
-      <c r="B717" s="4"/>
+      <c r="B717" s="3"/>
     </row>
     <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A718" s="1"/>
-      <c r="B718" s="4"/>
+      <c r="B718" s="3"/>
     </row>
     <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A719" s="1"/>
-      <c r="B719" s="4"/>
+      <c r="B719" s="3"/>
     </row>
     <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A720" s="1"/>
-      <c r="B720" s="4"/>
+      <c r="B720" s="3"/>
     </row>
     <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A721" s="1"/>
-      <c r="B721" s="4"/>
+      <c r="B721" s="3"/>
     </row>
     <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A722" s="1"/>
-      <c r="B722" s="4"/>
+      <c r="B722" s="3"/>
     </row>
     <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A723" s="1"/>
-      <c r="B723" s="4"/>
+      <c r="B723" s="3"/>
     </row>
     <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A724" s="1"/>
-      <c r="B724" s="4"/>
+      <c r="B724" s="3"/>
     </row>
     <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A725" s="1"/>
-      <c r="B725" s="4"/>
+      <c r="B725" s="3"/>
     </row>
     <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A726" s="1"/>
-      <c r="B726" s="4"/>
+      <c r="B726" s="3"/>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A727" s="1"/>
-      <c r="B727" s="4"/>
+      <c r="B727" s="3"/>
     </row>
     <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A728" s="1"/>
-      <c r="B728" s="4"/>
+      <c r="B728" s="3"/>
     </row>
     <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A729" s="1"/>
-      <c r="B729" s="4"/>
+      <c r="B729" s="3"/>
     </row>
     <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A730" s="1"/>
-      <c r="B730" s="4"/>
+      <c r="B730" s="3"/>
     </row>
     <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A731" s="1"/>
-      <c r="B731" s="4"/>
+      <c r="B731" s="3"/>
     </row>
     <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A732" s="1"/>
-      <c r="B732" s="4"/>
+      <c r="B732" s="3"/>
     </row>
     <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A733" s="1"/>
-      <c r="B733" s="4"/>
+      <c r="B733" s="3"/>
     </row>
     <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A734" s="1"/>
-      <c r="B734" s="4"/>
+      <c r="B734" s="3"/>
     </row>
     <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A735" s="1"/>
-      <c r="B735" s="4"/>
+      <c r="B735" s="3"/>
     </row>
     <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A736" s="1"/>
-      <c r="B736" s="4"/>
+      <c r="B736" s="3"/>
     </row>
     <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A737" s="1"/>
-      <c r="B737" s="4"/>
+      <c r="B737" s="3"/>
     </row>
     <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A738" s="1"/>
-      <c r="B738" s="4"/>
+      <c r="B738" s="3"/>
     </row>
     <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A739" s="1"/>
-      <c r="B739" s="4"/>
+      <c r="B739" s="3"/>
     </row>
     <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A740" s="1"/>
-      <c r="B740" s="4"/>
+      <c r="B740" s="3"/>
     </row>
     <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A741" s="1"/>
-      <c r="B741" s="4"/>
+      <c r="B741" s="3"/>
     </row>
     <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A742" s="1"/>
-      <c r="B742" s="4"/>
+      <c r="B742" s="3"/>
     </row>
     <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A743" s="1"/>
-      <c r="B743" s="4"/>
+      <c r="B743" s="3"/>
     </row>
     <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A744" s="1"/>
-      <c r="B744" s="4"/>
+      <c r="B744" s="3"/>
     </row>
     <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A745" s="1"/>
-      <c r="B745" s="4"/>
+      <c r="B745" s="3"/>
     </row>
     <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A746" s="1"/>
-      <c r="B746" s="4"/>
+      <c r="B746" s="3"/>
     </row>
     <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A747" s="1"/>
-      <c r="B747" s="4"/>
+      <c r="B747" s="3"/>
     </row>
     <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A748" s="1"/>
-      <c r="B748" s="4"/>
+      <c r="B748" s="3"/>
     </row>
     <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A749" s="1"/>
-      <c r="B749" s="4"/>
+      <c r="B749" s="3"/>
     </row>
     <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A750" s="1"/>
-      <c r="B750" s="4"/>
+      <c r="B750" s="3"/>
     </row>
     <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A751" s="1"/>
-      <c r="B751" s="4"/>
+      <c r="B751" s="3"/>
     </row>
     <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A752" s="1"/>
-      <c r="B752" s="4"/>
+      <c r="B752" s="3"/>
     </row>
     <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A753" s="1"/>
-      <c r="B753" s="4"/>
+      <c r="B753" s="3"/>
     </row>
     <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A754" s="1"/>
-      <c r="B754" s="4"/>
+      <c r="B754" s="3"/>
     </row>
     <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A755" s="1"/>
-      <c r="B755" s="4"/>
+      <c r="B755" s="3"/>
     </row>
     <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A756" s="1"/>
-      <c r="B756" s="4"/>
+      <c r="B756" s="3"/>
     </row>
     <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A757" s="1"/>
-      <c r="B757" s="4"/>
+      <c r="B757" s="3"/>
     </row>
     <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A758" s="1"/>
-      <c r="B758" s="4"/>
+      <c r="B758" s="3"/>
     </row>
     <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A759" s="1"/>
-      <c r="B759" s="4"/>
+      <c r="B759" s="3"/>
     </row>
     <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A760" s="1"/>
-      <c r="B760" s="4"/>
+      <c r="B760" s="3"/>
     </row>
     <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A761" s="1"/>
-      <c r="B761" s="4"/>
+      <c r="B761" s="3"/>
     </row>
     <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A762" s="1"/>
-      <c r="B762" s="4"/>
+      <c r="B762" s="3"/>
     </row>
     <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A763" s="1"/>
-      <c r="B763" s="4"/>
+      <c r="B763" s="3"/>
     </row>
     <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A764" s="1"/>
-      <c r="B764" s="4"/>
+      <c r="B764" s="3"/>
     </row>
     <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A765" s="1"/>
-      <c r="B765" s="4"/>
+      <c r="B765" s="3"/>
     </row>
     <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A766" s="1"/>
-      <c r="B766" s="4"/>
+      <c r="B766" s="3"/>
     </row>
     <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A767" s="1"/>
-      <c r="B767" s="4"/>
+      <c r="B767" s="3"/>
     </row>
     <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A768" s="1"/>
-      <c r="B768" s="4"/>
+      <c r="B768" s="3"/>
     </row>
     <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A769" s="1"/>
-      <c r="B769" s="4"/>
+      <c r="B769" s="3"/>
     </row>
     <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A770" s="1"/>
-      <c r="B770" s="4"/>
+      <c r="B770" s="3"/>
     </row>
     <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A771" s="1"/>
-      <c r="B771" s="4"/>
+      <c r="B771" s="3"/>
     </row>
     <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A772" s="1"/>
-      <c r="B772" s="4"/>
+      <c r="B772" s="3"/>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A773" s="1"/>
-      <c r="B773" s="4"/>
+      <c r="B773" s="3"/>
     </row>
     <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A774" s="1"/>
-      <c r="B774" s="4"/>
+      <c r="B774" s="3"/>
     </row>
     <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A775" s="1"/>
-      <c r="B775" s="4"/>
+      <c r="B775" s="3"/>
     </row>
     <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A776" s="1"/>
-      <c r="B776" s="4"/>
+      <c r="B776" s="3"/>
     </row>
     <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A777" s="1"/>
-      <c r="B777" s="4"/>
+      <c r="B777" s="3"/>
     </row>
     <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A778" s="1"/>
-      <c r="B778" s="4"/>
+      <c r="B778" s="3"/>
     </row>
     <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A779" s="1"/>
-      <c r="B779" s="4"/>
+      <c r="B779" s="3"/>
     </row>
     <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A780" s="1"/>
-      <c r="B780" s="4"/>
+      <c r="B780" s="3"/>
     </row>
     <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A781" s="1"/>
-      <c r="B781" s="4"/>
+      <c r="B781" s="3"/>
     </row>
     <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A782" s="1"/>
-      <c r="B782" s="4"/>
+      <c r="B782" s="3"/>
     </row>
     <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A783" s="1"/>
-      <c r="B783" s="4"/>
+      <c r="B783" s="3"/>
     </row>
     <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A784" s="1"/>
-      <c r="B784" s="4"/>
+      <c r="B784" s="3"/>
     </row>
     <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A785" s="1"/>
-      <c r="B785" s="4"/>
+      <c r="B785" s="3"/>
     </row>
     <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A786" s="1"/>
-      <c r="B786" s="4"/>
+      <c r="B786" s="3"/>
     </row>
     <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A787" s="1"/>
-      <c r="B787" s="4"/>
+      <c r="B787" s="3"/>
     </row>
     <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A788" s="1"/>
-      <c r="B788" s="4"/>
+      <c r="B788" s="3"/>
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A789" s="1"/>
-      <c r="B789" s="4"/>
+      <c r="B789" s="3"/>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A790" s="1"/>
-      <c r="B790" s="4"/>
+      <c r="B790" s="3"/>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A791" s="1"/>
-      <c r="B791" s="4"/>
+      <c r="B791" s="3"/>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A792" s="1"/>
-      <c r="B792" s="4"/>
+      <c r="B792" s="3"/>
     </row>
     <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A793" s="1"/>
-      <c r="B793" s="4"/>
+      <c r="B793" s="3"/>
     </row>
     <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A794" s="1"/>
-      <c r="B794" s="4"/>
+      <c r="B794" s="3"/>
     </row>
     <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A795" s="1"/>
-      <c r="B795" s="4"/>
+      <c r="B795" s="3"/>
     </row>
     <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A796" s="1"/>
-      <c r="B796" s="4"/>
+      <c r="B796" s="3"/>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A797" s="1"/>
-      <c r="B797" s="4"/>
+      <c r="B797" s="3"/>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A798" s="1"/>
-      <c r="B798" s="4"/>
+      <c r="B798" s="3"/>
     </row>
     <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A799" s="1"/>
-      <c r="B799" s="4"/>
+      <c r="B799" s="3"/>
     </row>
     <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A800" s="1"/>
-      <c r="B800" s="4"/>
+      <c r="B800" s="3"/>
     </row>
     <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A801" s="1"/>
-      <c r="B801" s="4"/>
+      <c r="B801" s="3"/>
     </row>
     <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A802" s="1"/>
-      <c r="B802" s="4"/>
+      <c r="B802" s="3"/>
     </row>
     <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A803" s="1"/>
-      <c r="B803" s="4"/>
+      <c r="B803" s="3"/>
     </row>
     <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A804" s="1"/>
-      <c r="B804" s="4"/>
+      <c r="B804" s="3"/>
     </row>
     <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A805" s="1"/>
-      <c r="B805" s="4"/>
+      <c r="B805" s="3"/>
     </row>
     <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A806" s="1"/>
-      <c r="B806" s="4"/>
+      <c r="B806" s="3"/>
     </row>
     <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A807" s="1"/>
-      <c r="B807" s="4"/>
+      <c r="B807" s="3"/>
     </row>
     <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A808" s="1"/>
-      <c r="B808" s="4"/>
+      <c r="B808" s="3"/>
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A809" s="1"/>
-      <c r="B809" s="4"/>
+      <c r="B809" s="3"/>
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A810" s="1"/>
-      <c r="B810" s="4"/>
+      <c r="B810" s="3"/>
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A811" s="1"/>
-      <c r="B811" s="4"/>
+      <c r="B811" s="3"/>
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A812" s="1"/>
-      <c r="B812" s="4"/>
+      <c r="B812" s="3"/>
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A813" s="1"/>
-      <c r="B813" s="4"/>
+      <c r="B813" s="3"/>
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A814" s="1"/>
-      <c r="B814" s="4"/>
+      <c r="B814" s="3"/>
     </row>
     <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A815" s="1"/>
-      <c r="B815" s="4"/>
+      <c r="B815" s="3"/>
     </row>
     <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A816" s="1"/>
-      <c r="B816" s="4"/>
+      <c r="B816" s="3"/>
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A817" s="1"/>
-      <c r="B817" s="4"/>
+      <c r="B817" s="3"/>
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A818" s="1"/>
-      <c r="B818" s="4"/>
+      <c r="B818" s="3"/>
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A819" s="1"/>
-      <c r="B819" s="4"/>
+      <c r="B819" s="3"/>
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A820" s="1"/>
-      <c r="B820" s="4"/>
+      <c r="B820" s="3"/>
     </row>
     <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A821" s="1"/>
-      <c r="B821" s="4"/>
+      <c r="B821" s="3"/>
     </row>
     <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A822" s="1"/>
-      <c r="B822" s="4"/>
+      <c r="B822" s="3"/>
     </row>
     <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A823" s="1"/>
-      <c r="B823" s="4"/>
+      <c r="B823" s="3"/>
     </row>
     <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A824" s="1"/>
-      <c r="B824" s="4"/>
+      <c r="B824" s="3"/>
     </row>
     <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A825" s="1"/>
-      <c r="B825" s="4"/>
+      <c r="B825" s="3"/>
     </row>
     <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A826" s="1"/>
-      <c r="B826" s="4"/>
+      <c r="B826" s="3"/>
     </row>
     <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A827" s="1"/>
-      <c r="B827" s="4"/>
+      <c r="B827" s="3"/>
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A828" s="1"/>
-      <c r="B828" s="4"/>
+      <c r="B828" s="3"/>
     </row>
     <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A829" s="1"/>
-      <c r="B829" s="4"/>
+      <c r="B829" s="3"/>
     </row>
     <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A830" s="1"/>
-      <c r="B830" s="4"/>
+      <c r="B830" s="3"/>
     </row>
     <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A831" s="1"/>
-      <c r="B831" s="4"/>
+      <c r="B831" s="3"/>
     </row>
     <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A832" s="1"/>
-      <c r="B832" s="4"/>
+      <c r="B832" s="3"/>
     </row>
     <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A833" s="1"/>
-      <c r="B833" s="4"/>
+      <c r="B833" s="3"/>
     </row>
     <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A834" s="1"/>
-      <c r="B834" s="4"/>
+      <c r="B834" s="3"/>
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A835" s="1"/>
-      <c r="B835" s="4"/>
+      <c r="B835" s="3"/>
     </row>
     <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A836" s="1"/>
-      <c r="B836" s="4"/>
+      <c r="B836" s="3"/>
     </row>
     <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A837" s="1"/>
-      <c r="B837" s="4"/>
+      <c r="B837" s="3"/>
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A838" s="1"/>
-      <c r="B838" s="4"/>
+      <c r="B838" s="3"/>
     </row>
     <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A839" s="1"/>
-      <c r="B839" s="4"/>
+      <c r="B839" s="3"/>
     </row>
     <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A840" s="1"/>
-      <c r="B840" s="4"/>
+      <c r="B840" s="3"/>
     </row>
     <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A841" s="1"/>
-      <c r="B841" s="4"/>
+      <c r="B841" s="3"/>
     </row>
     <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A842" s="1"/>
-      <c r="B842" s="4"/>
+      <c r="B842" s="3"/>
     </row>
     <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A843" s="1"/>
-      <c r="B843" s="4"/>
+      <c r="B843" s="3"/>
     </row>
     <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A844" s="1"/>
-      <c r="B844" s="4"/>
+      <c r="B844" s="3"/>
     </row>
     <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A845" s="1"/>
-      <c r="B845" s="4"/>
+      <c r="B845" s="3"/>
     </row>
     <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A846" s="1"/>
-      <c r="B846" s="4"/>
+      <c r="B846" s="3"/>
     </row>
     <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A847" s="1"/>
-      <c r="B847" s="4"/>
+      <c r="B847" s="3"/>
     </row>
     <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A848" s="1"/>
-      <c r="B848" s="4"/>
+      <c r="B848" s="3"/>
     </row>
     <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A849" s="1"/>
-      <c r="B849" s="4"/>
+      <c r="B849" s="3"/>
     </row>
     <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A850" s="1"/>
-      <c r="B850" s="4"/>
+      <c r="B850" s="3"/>
     </row>
     <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A851" s="1"/>
-      <c r="B851" s="4"/>
+      <c r="B851" s="3"/>
     </row>
     <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A852" s="1"/>
-      <c r="B852" s="4"/>
+      <c r="B852" s="3"/>
     </row>
     <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A853" s="1"/>
-      <c r="B853" s="4"/>
+      <c r="B853" s="3"/>
     </row>
     <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A854" s="1"/>
-      <c r="B854" s="4"/>
+      <c r="B854" s="3"/>
     </row>
     <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A855" s="1"/>
-      <c r="B855" s="4"/>
+      <c r="B855" s="3"/>
     </row>
     <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A856" s="1"/>
-      <c r="B856" s="4"/>
+      <c r="B856" s="3"/>
     </row>
     <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A857" s="1"/>
-      <c r="B857" s="4"/>
+      <c r="B857" s="3"/>
     </row>
     <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A858" s="1"/>
-      <c r="B858" s="4"/>
+      <c r="B858" s="3"/>
     </row>
     <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A859" s="1"/>
-      <c r="B859" s="4"/>
+      <c r="B859" s="3"/>
     </row>
     <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A860" s="1"/>
-      <c r="B860" s="4"/>
+      <c r="B860" s="3"/>
     </row>
     <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A861" s="1"/>
-      <c r="B861" s="4"/>
+      <c r="B861" s="3"/>
     </row>
     <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A862" s="1"/>
-      <c r="B862" s="4"/>
+      <c r="B862" s="3"/>
     </row>
     <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A863" s="1"/>
-      <c r="B863" s="4"/>
+      <c r="B863" s="3"/>
     </row>
     <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A864" s="1"/>
-      <c r="B864" s="4"/>
+      <c r="B864" s="3"/>
     </row>
     <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A865" s="1"/>
-      <c r="B865" s="4"/>
+      <c r="B865" s="3"/>
     </row>
     <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A866" s="1"/>
-      <c r="B866" s="4"/>
+      <c r="B866" s="3"/>
     </row>
     <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A867" s="1"/>
-      <c r="B867" s="4"/>
+      <c r="B867" s="3"/>
     </row>
     <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A868" s="1"/>
-      <c r="B868" s="4"/>
+      <c r="B868" s="3"/>
     </row>
     <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A869" s="1"/>
-      <c r="B869" s="4"/>
+      <c r="B869" s="3"/>
     </row>
     <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A870" s="1"/>
-      <c r="B870" s="4"/>
+      <c r="B870" s="3"/>
     </row>
     <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A871" s="1"/>
-      <c r="B871" s="4"/>
+      <c r="B871" s="3"/>
     </row>
     <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A872" s="1"/>
-      <c r="B872" s="4"/>
+      <c r="B872" s="3"/>
     </row>
     <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A873" s="1"/>
-      <c r="B873" s="4"/>
+      <c r="B873" s="3"/>
     </row>
     <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A874" s="1"/>
-      <c r="B874" s="4"/>
+      <c r="B874" s="3"/>
     </row>
     <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A875" s="1"/>
-      <c r="B875" s="4"/>
+      <c r="B875" s="3"/>
     </row>
     <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A876" s="1"/>
-      <c r="B876" s="4"/>
+      <c r="B876" s="3"/>
     </row>
     <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A877" s="1"/>
-      <c r="B877" s="4"/>
+      <c r="B877" s="3"/>
     </row>
     <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A878" s="1"/>
-      <c r="B878" s="4"/>
+      <c r="B878" s="3"/>
     </row>
     <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A879" s="1"/>
-      <c r="B879" s="4"/>
+      <c r="B879" s="3"/>
     </row>
     <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A880" s="1"/>
-      <c r="B880" s="4"/>
+      <c r="B880" s="3"/>
     </row>
     <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A881" s="1"/>
-      <c r="B881" s="4"/>
+      <c r="B881" s="3"/>
     </row>
     <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A882" s="1"/>
-      <c r="B882" s="4"/>
+      <c r="B882" s="3"/>
     </row>
     <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A883" s="1"/>
-      <c r="B883" s="4"/>
+      <c r="B883" s="3"/>
     </row>
     <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A884" s="1"/>
-      <c r="B884" s="4"/>
+      <c r="B884" s="3"/>
     </row>
     <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A885" s="1"/>
-      <c r="B885" s="4"/>
+      <c r="B885" s="3"/>
     </row>
     <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A886" s="1"/>
-      <c r="B886" s="4"/>
+      <c r="B886" s="3"/>
     </row>
     <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A887" s="1"/>
-      <c r="B887" s="4"/>
+      <c r="B887" s="3"/>
     </row>
     <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A888" s="1"/>
-      <c r="B888" s="4"/>
+      <c r="B888" s="3"/>
     </row>
     <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A889" s="1"/>
-      <c r="B889" s="4"/>
+      <c r="B889" s="3"/>
     </row>
     <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A890" s="1"/>
-      <c r="B890" s="4"/>
+      <c r="B890" s="3"/>
     </row>
     <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A891" s="1"/>
-      <c r="B891" s="4"/>
+      <c r="B891" s="3"/>
     </row>
     <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A892" s="1"/>
-      <c r="B892" s="4"/>
+      <c r="B892" s="3"/>
     </row>
     <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A893" s="1"/>
-      <c r="B893" s="4"/>
+      <c r="B893" s="3"/>
     </row>
     <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A894" s="1"/>
-      <c r="B894" s="4"/>
+      <c r="B894" s="3"/>
     </row>
     <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A895" s="1"/>
-      <c r="B895" s="4"/>
+      <c r="B895" s="3"/>
     </row>
     <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A896" s="1"/>
-      <c r="B896" s="4"/>
+      <c r="B896" s="3"/>
     </row>
     <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A897" s="1"/>
-      <c r="B897" s="4"/>
+      <c r="B897" s="3"/>
     </row>
     <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A898" s="1"/>
-      <c r="B898" s="4"/>
+      <c r="B898" s="3"/>
     </row>
     <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A899" s="1"/>
-      <c r="B899" s="4"/>
+      <c r="B899" s="3"/>
     </row>
     <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A900" s="1"/>
-      <c r="B900" s="4"/>
+      <c r="B900" s="3"/>
     </row>
     <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A901" s="1"/>
-      <c r="B901" s="4"/>
+      <c r="B901" s="3"/>
     </row>
     <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A902" s="1"/>
-      <c r="B902" s="4"/>
+      <c r="B902" s="3"/>
     </row>
     <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A903" s="1"/>
-      <c r="B903" s="4"/>
+      <c r="B903" s="3"/>
     </row>
     <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A904" s="1"/>
-      <c r="B904" s="4"/>
+      <c r="B904" s="3"/>
     </row>
     <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A905" s="1"/>
-      <c r="B905" s="4"/>
+      <c r="B905" s="3"/>
     </row>
     <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A906" s="1"/>
-      <c r="B906" s="4"/>
+      <c r="B906" s="3"/>
     </row>
     <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A907" s="1"/>
-      <c r="B907" s="4"/>
+      <c r="B907" s="3"/>
     </row>
     <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A908" s="1"/>
-      <c r="B908" s="4"/>
+      <c r="B908" s="3"/>
     </row>
     <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A909" s="1"/>
-      <c r="B909" s="4"/>
+      <c r="B909" s="3"/>
     </row>
     <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A910" s="1"/>
-      <c r="B910" s="4"/>
+      <c r="B910" s="3"/>
     </row>
     <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A911" s="1"/>
-      <c r="B911" s="4"/>
+      <c r="B911" s="3"/>
     </row>
     <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A912" s="1"/>
-      <c r="B912" s="4"/>
+      <c r="B912" s="3"/>
     </row>
     <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A913" s="1"/>
-      <c r="B913" s="4"/>
+      <c r="B913" s="3"/>
     </row>
     <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A914" s="1"/>
-      <c r="B914" s="4"/>
+      <c r="B914" s="3"/>
     </row>
     <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A915" s="1"/>
-      <c r="B915" s="4"/>
+      <c r="B915" s="3"/>
     </row>
     <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A916" s="1"/>
-      <c r="B916" s="4"/>
+      <c r="B916" s="3"/>
     </row>
     <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A917" s="1"/>
-      <c r="B917" s="4"/>
+      <c r="B917" s="3"/>
     </row>
     <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A918" s="1"/>
-      <c r="B918" s="4"/>
+      <c r="B918" s="3"/>
     </row>
     <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A919" s="1"/>
-      <c r="B919" s="4"/>
+      <c r="B919" s="3"/>
     </row>
     <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A920" s="1"/>
-      <c r="B920" s="4"/>
+      <c r="B920" s="3"/>
     </row>
     <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A921" s="1"/>
-      <c r="B921" s="4"/>
+      <c r="B921" s="3"/>
     </row>
     <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A922" s="1"/>
-      <c r="B922" s="4"/>
+      <c r="B922" s="3"/>
     </row>
     <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A923" s="1"/>
-      <c r="B923" s="4"/>
+      <c r="B923" s="3"/>
     </row>
     <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A924" s="1"/>
-      <c r="B924" s="4"/>
+      <c r="B924" s="3"/>
     </row>
     <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A925" s="1"/>
-      <c r="B925" s="4"/>
+      <c r="B925" s="3"/>
     </row>
     <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A926" s="1"/>
-      <c r="B926" s="4"/>
+      <c r="B926" s="3"/>
     </row>
     <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A927" s="1"/>
-      <c r="B927" s="4"/>
+      <c r="B927" s="3"/>
     </row>
     <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A928" s="1"/>
-      <c r="B928" s="4"/>
+      <c r="B928" s="3"/>
     </row>
     <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A929" s="1"/>
-      <c r="B929" s="4"/>
+      <c r="B929" s="3"/>
     </row>
     <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A930" s="1"/>
-      <c r="B930" s="4"/>
+      <c r="B930" s="3"/>
     </row>
     <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A931" s="1"/>
-      <c r="B931" s="4"/>
+      <c r="B931" s="3"/>
     </row>
     <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A932" s="1"/>
-      <c r="B932" s="4"/>
+      <c r="B932" s="3"/>
     </row>
     <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A933" s="1"/>
-      <c r="B933" s="4"/>
+      <c r="B933" s="3"/>
     </row>
     <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A934" s="1"/>
-      <c r="B934" s="4"/>
+      <c r="B934" s="3"/>
     </row>
     <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A935" s="1"/>
-      <c r="B935" s="4"/>
+      <c r="B935" s="3"/>
     </row>
     <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A936" s="1"/>
-      <c r="B936" s="4"/>
+      <c r="B936" s="3"/>
     </row>
     <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A937" s="1"/>
-      <c r="B937" s="4"/>
+      <c r="B937" s="3"/>
     </row>
     <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A938" s="1"/>
-      <c r="B938" s="4"/>
+      <c r="B938" s="3"/>
     </row>
     <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A939" s="1"/>
-      <c r="B939" s="4"/>
+      <c r="B939" s="3"/>
     </row>
     <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A940" s="1"/>
-      <c r="B940" s="4"/>
+      <c r="B940" s="3"/>
     </row>
     <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A941" s="1"/>
-      <c r="B941" s="4"/>
+      <c r="B941" s="3"/>
     </row>
     <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A942" s="1"/>
-      <c r="B942" s="4"/>
+      <c r="B942" s="3"/>
     </row>
     <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A943" s="1"/>
-      <c r="B943" s="4"/>
+      <c r="B943" s="3"/>
     </row>
     <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A944" s="1"/>
-      <c r="B944" s="4"/>
+      <c r="B944" s="3"/>
     </row>
     <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A945" s="1"/>
-      <c r="B945" s="4"/>
+      <c r="B945" s="3"/>
     </row>
     <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A946" s="1"/>
-      <c r="B946" s="4"/>
+      <c r="B946" s="3"/>
     </row>
     <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A947" s="1"/>
-      <c r="B947" s="4"/>
+      <c r="B947" s="3"/>
     </row>
     <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A948" s="1"/>
-      <c r="B948" s="4"/>
+      <c r="B948" s="3"/>
     </row>
     <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A949" s="1"/>
-      <c r="B949" s="4"/>
+      <c r="B949" s="3"/>
     </row>
     <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A950" s="1"/>
-      <c r="B950" s="4"/>
+      <c r="B950" s="3"/>
     </row>
     <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A951" s="1"/>
-      <c r="B951" s="4"/>
+      <c r="B951" s="3"/>
     </row>
     <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A952" s="1"/>
-      <c r="B952" s="4"/>
+      <c r="B952" s="3"/>
     </row>
     <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A953" s="1"/>
-      <c r="B953" s="4"/>
+      <c r="B953" s="3"/>
     </row>
     <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A954" s="1"/>
-      <c r="B954" s="4"/>
+      <c r="B954" s="3"/>
     </row>
     <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A955" s="1"/>
-      <c r="B955" s="4"/>
+      <c r="B955" s="3"/>
     </row>
     <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A956" s="1"/>
-      <c r="B956" s="4"/>
+      <c r="B956" s="3"/>
     </row>
     <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A957" s="1"/>
-      <c r="B957" s="4"/>
+      <c r="B957" s="3"/>
     </row>
     <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A958" s="1"/>
-      <c r="B958" s="4"/>
+      <c r="B958" s="3"/>
     </row>
     <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A959" s="1"/>
-      <c r="B959" s="4"/>
+      <c r="B959" s="3"/>
     </row>
     <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A960" s="1"/>
-      <c r="B960" s="4"/>
+      <c r="B960" s="3"/>
     </row>
     <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A961" s="1"/>
-      <c r="B961" s="4"/>
+      <c r="B961" s="3"/>
     </row>
     <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A962" s="1"/>
-      <c r="B962" s="4"/>
+      <c r="B962" s="3"/>
     </row>
     <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A963" s="1"/>
-      <c r="B963" s="4"/>
+      <c r="B963" s="3"/>
     </row>
     <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A964" s="1"/>
-      <c r="B964" s="4"/>
+      <c r="B964" s="3"/>
     </row>
     <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A965" s="1"/>
-      <c r="B965" s="4"/>
+      <c r="B965" s="3"/>
     </row>
     <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A966" s="1"/>
-      <c r="B966" s="4"/>
+      <c r="B966" s="3"/>
     </row>
     <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A967" s="1"/>
-      <c r="B967" s="4"/>
+      <c r="B967" s="3"/>
     </row>
     <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A968" s="1"/>
-      <c r="B968" s="4"/>
+      <c r="B968" s="3"/>
     </row>
     <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A969" s="1"/>
-      <c r="B969" s="4"/>
+      <c r="B969" s="3"/>
     </row>
     <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A970" s="1"/>
-      <c r="B970" s="4"/>
+      <c r="B970" s="3"/>
     </row>
     <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A971" s="1"/>
-      <c r="B971" s="4"/>
+      <c r="B971" s="3"/>
     </row>
     <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A972" s="1"/>
-      <c r="B972" s="4"/>
+      <c r="B972" s="3"/>
     </row>
     <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A973" s="1"/>
-      <c r="B973" s="4"/>
+      <c r="B973" s="3"/>
     </row>
     <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A974" s="1"/>
-      <c r="B974" s="4"/>
+      <c r="B974" s="3"/>
     </row>
     <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A975" s="1"/>
-      <c r="B975" s="4"/>
+      <c r="B975" s="3"/>
     </row>
     <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A976" s="1"/>
-      <c r="B976" s="4"/>
+      <c r="B976" s="3"/>
     </row>
     <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A977" s="1"/>
-      <c r="B977" s="4"/>
+      <c r="B977" s="3"/>
     </row>
     <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A978" s="1"/>
-      <c r="B978" s="4"/>
+      <c r="B978" s="3"/>
     </row>
     <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A979" s="1"/>
-      <c r="B979" s="4"/>
+      <c r="B979" s="3"/>
     </row>
     <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A980" s="1"/>
-      <c r="B980" s="4"/>
+      <c r="B980" s="3"/>
     </row>
     <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A981" s="1"/>
-      <c r="B981" s="4"/>
+      <c r="B981" s="3"/>
     </row>
     <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A982" s="1"/>
-      <c r="B982" s="4"/>
+      <c r="B982" s="3"/>
     </row>
     <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A983" s="1"/>
-      <c r="B983" s="4"/>
+      <c r="B983" s="3"/>
     </row>
     <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A984" s="1"/>
-      <c r="B984" s="4"/>
+      <c r="B984" s="3"/>
     </row>
     <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A985" s="1"/>
-      <c r="B985" s="4"/>
+      <c r="B985" s="3"/>
     </row>
     <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A986" s="1"/>
-      <c r="B986" s="4"/>
+      <c r="B986" s="3"/>
     </row>
     <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A987" s="1"/>
-      <c r="B987" s="4"/>
+      <c r="B987" s="3"/>
     </row>
     <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A988" s="1"/>
-      <c r="B988" s="4"/>
+      <c r="B988" s="3"/>
     </row>
     <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A989" s="1"/>
-      <c r="B989" s="4"/>
+      <c r="B989" s="3"/>
     </row>
     <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A990" s="1"/>
-      <c r="B990" s="4"/>
+      <c r="B990" s="3"/>
     </row>
     <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A991" s="1"/>
-      <c r="B991" s="4"/>
+      <c r="B991" s="3"/>
     </row>
     <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A992" s="1"/>
-      <c r="B992" s="4"/>
+      <c r="B992" s="3"/>
     </row>
     <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A993" s="1"/>
-      <c r="B993" s="4"/>
+      <c r="B993" s="3"/>
     </row>
     <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A994" s="1"/>
-      <c r="B994" s="4"/>
+      <c r="B994" s="3"/>
     </row>
     <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A995" s="1"/>
-      <c r="B995" s="4"/>
+      <c r="B995" s="3"/>
     </row>
     <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A996" s="1"/>
-      <c r="B996" s="4"/>
+      <c r="B996" s="3"/>
     </row>
     <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A997" s="1"/>
-      <c r="B997" s="4"/>
+      <c r="B997" s="3"/>
     </row>
     <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A998" s="1"/>
-      <c r="B998" s="4"/>
+      <c r="B998" s="3"/>
     </row>
     <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A999" s="1"/>
-      <c r="B999" s="4"/>
+      <c r="B999" s="3"/>
     </row>
     <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1000" s="1"/>
-      <c r="B1000" s="4"/>
+      <c r="B1000" s="3"/>
     </row>
     <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1001" s="1"/>
-      <c r="B1001" s="4"/>
+      <c r="B1001" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="T1:Z1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
@@ -5701,16 +5814,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1D29BE-81A9-4580-A4C1-2F02968C23EF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11D9B8-1C84-48A5-AD19-21146DDFB2AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA0F45-A031-47E9-8CD2-6A5A0B11BD47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -343,6 +343,27 @@
   </si>
   <si>
     <t>Week 5: 30 September to 6 October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet to discuss iterations and prep for PM review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prep for Pm review </t>
+  </si>
+  <si>
+    <t>Validations for bootstrap. Test and debugged validations.</t>
+  </si>
+  <si>
+    <t>Code delete.php, deleteDAO and delete processing</t>
+  </si>
+  <si>
+    <t>Revise PM Review presentation slides</t>
+  </si>
+  <si>
+    <t>Meet to discuss slides and prepare for PM review</t>
+  </si>
+  <si>
+    <t>Bug metrics</t>
   </si>
 </sst>
 </file>
@@ -439,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,6 +478,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -470,20 +506,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,9 +794,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+      <selection pane="topRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -793,21 +817,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
@@ -816,23 +840,23 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -884,1040 +908,1085 @@
       <c r="S2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="12" t="s">
+      <c r="P3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="14" t="s">
-        <v>19</v>
+      <c r="U3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="12" t="s">
+      <c r="R4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="14" t="s">
+      <c r="T4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="V4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="13" t="s">
+      <c r="N5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="14" t="s">
+      <c r="Q5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="14" t="s">
+      <c r="S6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="14" t="s">
-        <v>19</v>
+      <c r="U6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="12" t="s">
+      <c r="R7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="V7" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="O8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="V8" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="13" t="s">
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="14" t="s">
+      <c r="S9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="V9" s="17" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="J10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="O10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="12" t="s">
+      <c r="R10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="14" t="s">
+      <c r="T10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="V10" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="13" t="s">
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="L12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="12" t="s">
+      <c r="P12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="14" t="s">
+      <c r="S12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>19</v>
+      <c r="U12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="12" t="s">
+      <c r="R13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="13" t="s">
+      <c r="T13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>98</v>
       </c>
+      <c r="V13" s="17" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="13" t="s">
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="Q14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="12" t="s">
+      <c r="I15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="U15" s="14" t="s">
+      <c r="U15" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="V15" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="12" t="s">
+      <c r="P16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="12" t="s">
+      <c r="R16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="U16" s="14" t="s">
+      <c r="U16" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
+      <c r="V16" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="12" t="s">
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="14" t="s">
+      <c r="P17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+      <c r="V17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="3"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA0F45-A031-47E9-8CD2-6A5A0B11BD47}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04AA3E-BEC8-411C-ABEB-B4F61D1AC148}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="119">
   <si>
     <t>Question</t>
   </si>
@@ -364,13 +364,34 @@
   </si>
   <si>
     <t>Bug metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with Casper for delete . Minor slides editing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM review with team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with celine for delete. </t>
+  </si>
+  <si>
+    <t>Deploy to AWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix deployment issues and PM review with team </t>
+  </si>
+  <si>
+    <t>Include milestones on presentations slides</t>
+  </si>
+  <si>
+    <t>Deploying to AWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,12 +422,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -460,12 +475,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -484,13 +496,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -499,16 +508,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,5077 +804,5169 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V16" sqref="V16"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31" style="4" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" style="4" customWidth="1"/>
-    <col min="7" max="9" width="29.1328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="29.1328125" style="3" customWidth="1"/>
     <col min="10" max="16" width="26.33203125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
     <col min="19" max="19" width="23.1328125" customWidth="1"/>
     <col min="20" max="20" width="20.06640625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="6" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="11" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="L3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>100</v>
       </c>
+      <c r="W3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="V4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="9" t="s">
+      <c r="S6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="17" t="s">
+      <c r="U6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="15" t="s">
         <v>105</v>
       </c>
+      <c r="W6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="7" t="s">
+      <c r="R7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="W7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="9" t="s">
+      <c r="O8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="V8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="L9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="9" t="s">
+      <c r="S9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="15" t="s">
         <v>107</v>
       </c>
+      <c r="W9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="J10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="7" t="s">
+      <c r="O10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="7" t="s">
+      <c r="R10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="9" t="s">
+      <c r="T10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="15" t="s">
         <v>108</v>
       </c>
+      <c r="W10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="L12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="9" t="s">
+      <c r="S12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="U12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="4" t="s">
+      <c r="U12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="15" t="s">
         <v>107</v>
       </c>
+      <c r="W12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="J13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="7" t="s">
+      <c r="R13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="8" t="s">
+      <c r="T13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="W13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="8" t="s">
+      <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="15" t="s">
         <v>110</v>
       </c>
+      <c r="W15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="R16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="7" t="s">
+      <c r="R16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="T16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="17" t="s">
+      <c r="V16" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3" t="s">
+      <c r="W16" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+    </row>
+    <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="G17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="K17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="9" t="s">
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="V17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+    </row>
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="1"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
-      <c r="B208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
-      <c r="B211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
-      <c r="B214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
-      <c r="B217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
-      <c r="B220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
-      <c r="B223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
-      <c r="B226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
-      <c r="B229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="1"/>
-      <c r="B232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="1"/>
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="1"/>
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
-      <c r="B235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
-      <c r="B238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
-      <c r="B241" s="3"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
-      <c r="B244" s="3"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
-      <c r="B247" s="3"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
-      <c r="B250" s="3"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
-      <c r="B252" s="3"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
-      <c r="B253" s="3"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
-      <c r="B254" s="3"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
-      <c r="B255" s="3"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
-      <c r="B256" s="3"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
-      <c r="B257" s="3"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
-      <c r="B258" s="3"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
-      <c r="B259" s="3"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
-      <c r="B260" s="3"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A261" s="1"/>
-      <c r="B261" s="3"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A262" s="1"/>
-      <c r="B262" s="3"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A263" s="1"/>
-      <c r="B263" s="3"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
-      <c r="B264" s="3"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
-      <c r="B265" s="3"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
-      <c r="B266" s="3"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
-      <c r="B267" s="3"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
-      <c r="B268" s="3"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
-      <c r="B269" s="3"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
-      <c r="B270" s="3"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
-      <c r="B271" s="3"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
-      <c r="B272" s="3"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
-      <c r="B273" s="3"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
-      <c r="B274" s="3"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
-      <c r="B275" s="3"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
-      <c r="B276" s="3"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
-      <c r="B277" s="3"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
-      <c r="B278" s="3"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
-      <c r="B279" s="3"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
-      <c r="B280" s="3"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
-      <c r="B281" s="3"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
-      <c r="B282" s="3"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
-      <c r="B283" s="3"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
-      <c r="B284" s="3"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
-      <c r="B285" s="3"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
-      <c r="B286" s="3"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
-      <c r="B287" s="3"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
-      <c r="B288" s="3"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
-      <c r="B289" s="3"/>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A290" s="1"/>
-      <c r="B290" s="3"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A291" s="1"/>
-      <c r="B291" s="3"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A292" s="1"/>
-      <c r="B292" s="3"/>
+      <c r="B292" s="2"/>
     </row>
     <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A293" s="1"/>
-      <c r="B293" s="3"/>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
-      <c r="B294" s="3"/>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
-      <c r="B295" s="3"/>
+      <c r="B295" s="2"/>
     </row>
     <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A296" s="1"/>
-      <c r="B296" s="3"/>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
-      <c r="B297" s="3"/>
+      <c r="B297" s="2"/>
     </row>
     <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A298" s="1"/>
-      <c r="B298" s="3"/>
+      <c r="B298" s="2"/>
     </row>
     <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A299" s="1"/>
-      <c r="B299" s="3"/>
+      <c r="B299" s="2"/>
     </row>
     <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A300" s="1"/>
-      <c r="B300" s="3"/>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A301" s="1"/>
-      <c r="B301" s="3"/>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
-      <c r="B302" s="3"/>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
-      <c r="B303" s="3"/>
+      <c r="B303" s="2"/>
     </row>
     <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
-      <c r="B304" s="3"/>
+      <c r="B304" s="2"/>
     </row>
     <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
-      <c r="B305" s="3"/>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
-      <c r="B306" s="3"/>
+      <c r="B306" s="2"/>
     </row>
     <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
-      <c r="B307" s="3"/>
+      <c r="B307" s="2"/>
     </row>
     <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
-      <c r="B308" s="3"/>
+      <c r="B308" s="2"/>
     </row>
     <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
-      <c r="B309" s="3"/>
+      <c r="B309" s="2"/>
     </row>
     <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
-      <c r="B310" s="3"/>
+      <c r="B310" s="2"/>
     </row>
     <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
-      <c r="B311" s="3"/>
+      <c r="B311" s="2"/>
     </row>
     <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
-      <c r="B312" s="3"/>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
-      <c r="B313" s="3"/>
+      <c r="B313" s="2"/>
     </row>
     <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
-      <c r="B314" s="3"/>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
-      <c r="B315" s="3"/>
+      <c r="B315" s="2"/>
     </row>
     <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
-      <c r="B316" s="3"/>
+      <c r="B316" s="2"/>
     </row>
     <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
-      <c r="B317" s="3"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
-      <c r="B318" s="3"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A319" s="1"/>
-      <c r="B319" s="3"/>
+      <c r="B319" s="2"/>
     </row>
     <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A320" s="1"/>
-      <c r="B320" s="3"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A321" s="1"/>
-      <c r="B321" s="3"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A322" s="1"/>
-      <c r="B322" s="3"/>
+      <c r="B322" s="2"/>
     </row>
     <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A323" s="1"/>
-      <c r="B323" s="3"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A324" s="1"/>
-      <c r="B324" s="3"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A325" s="1"/>
-      <c r="B325" s="3"/>
+      <c r="B325" s="2"/>
     </row>
     <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A326" s="1"/>
-      <c r="B326" s="3"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A327" s="1"/>
-      <c r="B327" s="3"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A328" s="1"/>
-      <c r="B328" s="3"/>
+      <c r="B328" s="2"/>
     </row>
     <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A329" s="1"/>
-      <c r="B329" s="3"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A330" s="1"/>
-      <c r="B330" s="3"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A331" s="1"/>
-      <c r="B331" s="3"/>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A332" s="1"/>
-      <c r="B332" s="3"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A333" s="1"/>
-      <c r="B333" s="3"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
-      <c r="B334" s="3"/>
+      <c r="B334" s="2"/>
     </row>
     <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
-      <c r="B335" s="3"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A336" s="1"/>
-      <c r="B336" s="3"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A337" s="1"/>
-      <c r="B337" s="3"/>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A338" s="1"/>
-      <c r="B338" s="3"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A339" s="1"/>
-      <c r="B339" s="3"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A340" s="1"/>
-      <c r="B340" s="3"/>
+      <c r="B340" s="2"/>
     </row>
     <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A341" s="1"/>
-      <c r="B341" s="3"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A342" s="1"/>
-      <c r="B342" s="3"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A343" s="1"/>
-      <c r="B343" s="3"/>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A344" s="1"/>
-      <c r="B344" s="3"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A345" s="1"/>
-      <c r="B345" s="3"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A346" s="1"/>
-      <c r="B346" s="3"/>
+      <c r="B346" s="2"/>
     </row>
     <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A347" s="1"/>
-      <c r="B347" s="3"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A348" s="1"/>
-      <c r="B348" s="3"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A349" s="1"/>
-      <c r="B349" s="3"/>
+      <c r="B349" s="2"/>
     </row>
     <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A350" s="1"/>
-      <c r="B350" s="3"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A351" s="1"/>
-      <c r="B351" s="3"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A352" s="1"/>
-      <c r="B352" s="3"/>
+      <c r="B352" s="2"/>
     </row>
     <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A353" s="1"/>
-      <c r="B353" s="3"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
-      <c r="B354" s="3"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
-      <c r="B355" s="3"/>
+      <c r="B355" s="2"/>
     </row>
     <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A356" s="1"/>
-      <c r="B356" s="3"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A357" s="1"/>
-      <c r="B357" s="3"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A358" s="1"/>
-      <c r="B358" s="3"/>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A359" s="1"/>
-      <c r="B359" s="3"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A360" s="1"/>
-      <c r="B360" s="3"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A361" s="1"/>
-      <c r="B361" s="3"/>
+      <c r="B361" s="2"/>
     </row>
     <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A362" s="1"/>
-      <c r="B362" s="3"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A363" s="1"/>
-      <c r="B363" s="3"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A364" s="1"/>
-      <c r="B364" s="3"/>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A365" s="1"/>
-      <c r="B365" s="3"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A366" s="1"/>
-      <c r="B366" s="3"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A367" s="1"/>
-      <c r="B367" s="3"/>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A368" s="1"/>
-      <c r="B368" s="3"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A369" s="1"/>
-      <c r="B369" s="3"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A370" s="1"/>
-      <c r="B370" s="3"/>
+      <c r="B370" s="2"/>
     </row>
     <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A371" s="1"/>
-      <c r="B371" s="3"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A372" s="1"/>
-      <c r="B372" s="3"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A373" s="1"/>
-      <c r="B373" s="3"/>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A374" s="1"/>
-      <c r="B374" s="3"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A375" s="1"/>
-      <c r="B375" s="3"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A376" s="1"/>
-      <c r="B376" s="3"/>
+      <c r="B376" s="2"/>
     </row>
     <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A377" s="1"/>
-      <c r="B377" s="3"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A378" s="1"/>
-      <c r="B378" s="3"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A379" s="1"/>
-      <c r="B379" s="3"/>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A380" s="1"/>
-      <c r="B380" s="3"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A381" s="1"/>
-      <c r="B381" s="3"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A382" s="1"/>
-      <c r="B382" s="3"/>
+      <c r="B382" s="2"/>
     </row>
     <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A383" s="1"/>
-      <c r="B383" s="3"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A384" s="1"/>
-      <c r="B384" s="3"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A385" s="1"/>
-      <c r="B385" s="3"/>
+      <c r="B385" s="2"/>
     </row>
     <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A386" s="1"/>
-      <c r="B386" s="3"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A387" s="1"/>
-      <c r="B387" s="3"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A388" s="1"/>
-      <c r="B388" s="3"/>
+      <c r="B388" s="2"/>
     </row>
     <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A389" s="1"/>
-      <c r="B389" s="3"/>
+      <c r="B389" s="2"/>
     </row>
     <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A390" s="1"/>
-      <c r="B390" s="3"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A391" s="1"/>
-      <c r="B391" s="3"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A392" s="1"/>
-      <c r="B392" s="3"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A393" s="1"/>
-      <c r="B393" s="3"/>
+      <c r="B393" s="2"/>
     </row>
     <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A394" s="1"/>
-      <c r="B394" s="3"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A395" s="1"/>
-      <c r="B395" s="3"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A396" s="1"/>
-      <c r="B396" s="3"/>
+      <c r="B396" s="2"/>
     </row>
     <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A397" s="1"/>
-      <c r="B397" s="3"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A398" s="1"/>
-      <c r="B398" s="3"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A399" s="1"/>
-      <c r="B399" s="3"/>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
-      <c r="B400" s="3"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
-      <c r="B401" s="3"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A402" s="1"/>
-      <c r="B402" s="3"/>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A403" s="1"/>
-      <c r="B403" s="3"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A404" s="1"/>
-      <c r="B404" s="3"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A405" s="1"/>
-      <c r="B405" s="3"/>
+      <c r="B405" s="2"/>
     </row>
     <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A406" s="1"/>
-      <c r="B406" s="3"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A407" s="1"/>
-      <c r="B407" s="3"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
-      <c r="B408" s="3"/>
+      <c r="B408" s="2"/>
     </row>
     <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
-      <c r="B409" s="3"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A410" s="1"/>
-      <c r="B410" s="3"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A411" s="1"/>
-      <c r="B411" s="3"/>
+      <c r="B411" s="2"/>
     </row>
     <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A412" s="1"/>
-      <c r="B412" s="3"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A413" s="1"/>
-      <c r="B413" s="3"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A414" s="1"/>
-      <c r="B414" s="3"/>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A415" s="1"/>
-      <c r="B415" s="3"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A416" s="1"/>
-      <c r="B416" s="3"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A417" s="1"/>
-      <c r="B417" s="3"/>
+      <c r="B417" s="2"/>
     </row>
     <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A418" s="1"/>
-      <c r="B418" s="3"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A419" s="1"/>
-      <c r="B419" s="3"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A420" s="1"/>
-      <c r="B420" s="3"/>
+      <c r="B420" s="2"/>
     </row>
     <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A421" s="1"/>
-      <c r="B421" s="3"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A422" s="1"/>
-      <c r="B422" s="3"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A423" s="1"/>
-      <c r="B423" s="3"/>
+      <c r="B423" s="2"/>
     </row>
     <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A424" s="1"/>
-      <c r="B424" s="3"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A425" s="1"/>
-      <c r="B425" s="3"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A426" s="1"/>
-      <c r="B426" s="3"/>
+      <c r="B426" s="2"/>
     </row>
     <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A427" s="1"/>
-      <c r="B427" s="3"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A428" s="1"/>
-      <c r="B428" s="3"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A429" s="1"/>
-      <c r="B429" s="3"/>
+      <c r="B429" s="2"/>
     </row>
     <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A430" s="1"/>
-      <c r="B430" s="3"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A431" s="1"/>
-      <c r="B431" s="3"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A432" s="1"/>
-      <c r="B432" s="3"/>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A433" s="1"/>
-      <c r="B433" s="3"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A434" s="1"/>
-      <c r="B434" s="3"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A435" s="1"/>
-      <c r="B435" s="3"/>
+      <c r="B435" s="2"/>
     </row>
     <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A436" s="1"/>
-      <c r="B436" s="3"/>
+      <c r="B436" s="2"/>
     </row>
     <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A437" s="1"/>
-      <c r="B437" s="3"/>
+      <c r="B437" s="2"/>
     </row>
     <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A438" s="1"/>
-      <c r="B438" s="3"/>
+      <c r="B438" s="2"/>
     </row>
     <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A439" s="1"/>
-      <c r="B439" s="3"/>
+      <c r="B439" s="2"/>
     </row>
     <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A440" s="1"/>
-      <c r="B440" s="3"/>
+      <c r="B440" s="2"/>
     </row>
     <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A441" s="1"/>
-      <c r="B441" s="3"/>
+      <c r="B441" s="2"/>
     </row>
     <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A442" s="1"/>
-      <c r="B442" s="3"/>
+      <c r="B442" s="2"/>
     </row>
     <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A443" s="1"/>
-      <c r="B443" s="3"/>
+      <c r="B443" s="2"/>
     </row>
     <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A444" s="1"/>
-      <c r="B444" s="3"/>
+      <c r="B444" s="2"/>
     </row>
     <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A445" s="1"/>
-      <c r="B445" s="3"/>
+      <c r="B445" s="2"/>
     </row>
     <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A446" s="1"/>
-      <c r="B446" s="3"/>
+      <c r="B446" s="2"/>
     </row>
     <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A447" s="1"/>
-      <c r="B447" s="3"/>
+      <c r="B447" s="2"/>
     </row>
     <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A448" s="1"/>
-      <c r="B448" s="3"/>
+      <c r="B448" s="2"/>
     </row>
     <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A449" s="1"/>
-      <c r="B449" s="3"/>
+      <c r="B449" s="2"/>
     </row>
     <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A450" s="1"/>
-      <c r="B450" s="3"/>
+      <c r="B450" s="2"/>
     </row>
     <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A451" s="1"/>
-      <c r="B451" s="3"/>
+      <c r="B451" s="2"/>
     </row>
     <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A452" s="1"/>
-      <c r="B452" s="3"/>
+      <c r="B452" s="2"/>
     </row>
     <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A453" s="1"/>
-      <c r="B453" s="3"/>
+      <c r="B453" s="2"/>
     </row>
     <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A454" s="1"/>
-      <c r="B454" s="3"/>
+      <c r="B454" s="2"/>
     </row>
     <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A455" s="1"/>
-      <c r="B455" s="3"/>
+      <c r="B455" s="2"/>
     </row>
     <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A456" s="1"/>
-      <c r="B456" s="3"/>
+      <c r="B456" s="2"/>
     </row>
     <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A457" s="1"/>
-      <c r="B457" s="3"/>
+      <c r="B457" s="2"/>
     </row>
     <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A458" s="1"/>
-      <c r="B458" s="3"/>
+      <c r="B458" s="2"/>
     </row>
     <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A459" s="1"/>
-      <c r="B459" s="3"/>
+      <c r="B459" s="2"/>
     </row>
     <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A460" s="1"/>
-      <c r="B460" s="3"/>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A461" s="1"/>
-      <c r="B461" s="3"/>
+      <c r="B461" s="2"/>
     </row>
     <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A462" s="1"/>
-      <c r="B462" s="3"/>
+      <c r="B462" s="2"/>
     </row>
     <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A463" s="1"/>
-      <c r="B463" s="3"/>
+      <c r="B463" s="2"/>
     </row>
     <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A464" s="1"/>
-      <c r="B464" s="3"/>
+      <c r="B464" s="2"/>
     </row>
     <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A465" s="1"/>
-      <c r="B465" s="3"/>
+      <c r="B465" s="2"/>
     </row>
     <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A466" s="1"/>
-      <c r="B466" s="3"/>
+      <c r="B466" s="2"/>
     </row>
     <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A467" s="1"/>
-      <c r="B467" s="3"/>
+      <c r="B467" s="2"/>
     </row>
     <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A468" s="1"/>
-      <c r="B468" s="3"/>
+      <c r="B468" s="2"/>
     </row>
     <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A469" s="1"/>
-      <c r="B469" s="3"/>
+      <c r="B469" s="2"/>
     </row>
     <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
-      <c r="B470" s="3"/>
+      <c r="B470" s="2"/>
     </row>
     <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A471" s="1"/>
-      <c r="B471" s="3"/>
+      <c r="B471" s="2"/>
     </row>
     <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A472" s="1"/>
-      <c r="B472" s="3"/>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A473" s="1"/>
-      <c r="B473" s="3"/>
+      <c r="B473" s="2"/>
     </row>
     <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A474" s="1"/>
-      <c r="B474" s="3"/>
+      <c r="B474" s="2"/>
     </row>
     <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A475" s="1"/>
-      <c r="B475" s="3"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A476" s="1"/>
-      <c r="B476" s="3"/>
+      <c r="B476" s="2"/>
     </row>
     <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A477" s="1"/>
-      <c r="B477" s="3"/>
+      <c r="B477" s="2"/>
     </row>
     <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A478" s="1"/>
-      <c r="B478" s="3"/>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A479" s="1"/>
-      <c r="B479" s="3"/>
+      <c r="B479" s="2"/>
     </row>
     <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A480" s="1"/>
-      <c r="B480" s="3"/>
+      <c r="B480" s="2"/>
     </row>
     <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A481" s="1"/>
-      <c r="B481" s="3"/>
+      <c r="B481" s="2"/>
     </row>
     <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A482" s="1"/>
-      <c r="B482" s="3"/>
+      <c r="B482" s="2"/>
     </row>
     <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A483" s="1"/>
-      <c r="B483" s="3"/>
+      <c r="B483" s="2"/>
     </row>
     <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A484" s="1"/>
-      <c r="B484" s="3"/>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A485" s="1"/>
-      <c r="B485" s="3"/>
+      <c r="B485" s="2"/>
     </row>
     <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A486" s="1"/>
-      <c r="B486" s="3"/>
+      <c r="B486" s="2"/>
     </row>
     <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A487" s="1"/>
-      <c r="B487" s="3"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A488" s="1"/>
-      <c r="B488" s="3"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A489" s="1"/>
-      <c r="B489" s="3"/>
+      <c r="B489" s="2"/>
     </row>
     <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A490" s="1"/>
-      <c r="B490" s="3"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A491" s="1"/>
-      <c r="B491" s="3"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A492" s="1"/>
-      <c r="B492" s="3"/>
+      <c r="B492" s="2"/>
     </row>
     <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A493" s="1"/>
-      <c r="B493" s="3"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A494" s="1"/>
-      <c r="B494" s="3"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A495" s="1"/>
-      <c r="B495" s="3"/>
+      <c r="B495" s="2"/>
     </row>
     <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A496" s="1"/>
-      <c r="B496" s="3"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A497" s="1"/>
-      <c r="B497" s="3"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A498" s="1"/>
-      <c r="B498" s="3"/>
+      <c r="B498" s="2"/>
     </row>
     <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A499" s="1"/>
-      <c r="B499" s="3"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A500" s="1"/>
-      <c r="B500" s="3"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A501" s="1"/>
-      <c r="B501" s="3"/>
+      <c r="B501" s="2"/>
     </row>
     <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A502" s="1"/>
-      <c r="B502" s="3"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A503" s="1"/>
-      <c r="B503" s="3"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A504" s="1"/>
-      <c r="B504" s="3"/>
+      <c r="B504" s="2"/>
     </row>
     <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A505" s="1"/>
-      <c r="B505" s="3"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A506" s="1"/>
-      <c r="B506" s="3"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A507" s="1"/>
-      <c r="B507" s="3"/>
+      <c r="B507" s="2"/>
     </row>
     <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A508" s="1"/>
-      <c r="B508" s="3"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A509" s="1"/>
-      <c r="B509" s="3"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A510" s="1"/>
-      <c r="B510" s="3"/>
+      <c r="B510" s="2"/>
     </row>
     <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A511" s="1"/>
-      <c r="B511" s="3"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A512" s="1"/>
-      <c r="B512" s="3"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A513" s="1"/>
-      <c r="B513" s="3"/>
+      <c r="B513" s="2"/>
     </row>
     <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A514" s="1"/>
-      <c r="B514" s="3"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A515" s="1"/>
-      <c r="B515" s="3"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A516" s="1"/>
-      <c r="B516" s="3"/>
+      <c r="B516" s="2"/>
     </row>
     <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A517" s="1"/>
-      <c r="B517" s="3"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A518" s="1"/>
-      <c r="B518" s="3"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A519" s="1"/>
-      <c r="B519" s="3"/>
+      <c r="B519" s="2"/>
     </row>
     <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A520" s="1"/>
-      <c r="B520" s="3"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A521" s="1"/>
-      <c r="B521" s="3"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A522" s="1"/>
-      <c r="B522" s="3"/>
+      <c r="B522" s="2"/>
     </row>
     <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A523" s="1"/>
-      <c r="B523" s="3"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A524" s="1"/>
-      <c r="B524" s="3"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A525" s="1"/>
-      <c r="B525" s="3"/>
+      <c r="B525" s="2"/>
     </row>
     <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A526" s="1"/>
-      <c r="B526" s="3"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A527" s="1"/>
-      <c r="B527" s="3"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A528" s="1"/>
-      <c r="B528" s="3"/>
+      <c r="B528" s="2"/>
     </row>
     <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A529" s="1"/>
-      <c r="B529" s="3"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A530" s="1"/>
-      <c r="B530" s="3"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A531" s="1"/>
-      <c r="B531" s="3"/>
+      <c r="B531" s="2"/>
     </row>
     <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A532" s="1"/>
-      <c r="B532" s="3"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A533" s="1"/>
-      <c r="B533" s="3"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A534" s="1"/>
-      <c r="B534" s="3"/>
+      <c r="B534" s="2"/>
     </row>
     <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A535" s="1"/>
-      <c r="B535" s="3"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A536" s="1"/>
-      <c r="B536" s="3"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A537" s="1"/>
-      <c r="B537" s="3"/>
+      <c r="B537" s="2"/>
     </row>
     <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A538" s="1"/>
-      <c r="B538" s="3"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A539" s="1"/>
-      <c r="B539" s="3"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A540" s="1"/>
-      <c r="B540" s="3"/>
+      <c r="B540" s="2"/>
     </row>
     <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A541" s="1"/>
-      <c r="B541" s="3"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A542" s="1"/>
-      <c r="B542" s="3"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A543" s="1"/>
-      <c r="B543" s="3"/>
+      <c r="B543" s="2"/>
     </row>
     <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A544" s="1"/>
-      <c r="B544" s="3"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A545" s="1"/>
-      <c r="B545" s="3"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A546" s="1"/>
-      <c r="B546" s="3"/>
+      <c r="B546" s="2"/>
     </row>
     <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A547" s="1"/>
-      <c r="B547" s="3"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A548" s="1"/>
-      <c r="B548" s="3"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A549" s="1"/>
-      <c r="B549" s="3"/>
+      <c r="B549" s="2"/>
     </row>
     <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A550" s="1"/>
-      <c r="B550" s="3"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A551" s="1"/>
-      <c r="B551" s="3"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A552" s="1"/>
-      <c r="B552" s="3"/>
+      <c r="B552" s="2"/>
     </row>
     <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A553" s="1"/>
-      <c r="B553" s="3"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A554" s="1"/>
-      <c r="B554" s="3"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A555" s="1"/>
-      <c r="B555" s="3"/>
+      <c r="B555" s="2"/>
     </row>
     <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A556" s="1"/>
-      <c r="B556" s="3"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A557" s="1"/>
-      <c r="B557" s="3"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A558" s="1"/>
-      <c r="B558" s="3"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A559" s="1"/>
-      <c r="B559" s="3"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A560" s="1"/>
-      <c r="B560" s="3"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A561" s="1"/>
-      <c r="B561" s="3"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A562" s="1"/>
-      <c r="B562" s="3"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A563" s="1"/>
-      <c r="B563" s="3"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A564" s="1"/>
-      <c r="B564" s="3"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A565" s="1"/>
-      <c r="B565" s="3"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A566" s="1"/>
-      <c r="B566" s="3"/>
+      <c r="B566" s="2"/>
     </row>
     <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A567" s="1"/>
-      <c r="B567" s="3"/>
+      <c r="B567" s="2"/>
     </row>
     <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A568" s="1"/>
-      <c r="B568" s="3"/>
+      <c r="B568" s="2"/>
     </row>
     <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A569" s="1"/>
-      <c r="B569" s="3"/>
+      <c r="B569" s="2"/>
     </row>
     <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A570" s="1"/>
-      <c r="B570" s="3"/>
+      <c r="B570" s="2"/>
     </row>
     <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A571" s="1"/>
-      <c r="B571" s="3"/>
+      <c r="B571" s="2"/>
     </row>
     <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A572" s="1"/>
-      <c r="B572" s="3"/>
+      <c r="B572" s="2"/>
     </row>
     <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A573" s="1"/>
-      <c r="B573" s="3"/>
+      <c r="B573" s="2"/>
     </row>
     <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A574" s="1"/>
-      <c r="B574" s="3"/>
+      <c r="B574" s="2"/>
     </row>
     <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A575" s="1"/>
-      <c r="B575" s="3"/>
+      <c r="B575" s="2"/>
     </row>
     <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A576" s="1"/>
-      <c r="B576" s="3"/>
+      <c r="B576" s="2"/>
     </row>
     <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A577" s="1"/>
-      <c r="B577" s="3"/>
+      <c r="B577" s="2"/>
     </row>
     <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A578" s="1"/>
-      <c r="B578" s="3"/>
+      <c r="B578" s="2"/>
     </row>
     <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A579" s="1"/>
-      <c r="B579" s="3"/>
+      <c r="B579" s="2"/>
     </row>
     <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A580" s="1"/>
-      <c r="B580" s="3"/>
+      <c r="B580" s="2"/>
     </row>
     <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A581" s="1"/>
-      <c r="B581" s="3"/>
+      <c r="B581" s="2"/>
     </row>
     <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A582" s="1"/>
-      <c r="B582" s="3"/>
+      <c r="B582" s="2"/>
     </row>
     <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A583" s="1"/>
-      <c r="B583" s="3"/>
+      <c r="B583" s="2"/>
     </row>
     <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A584" s="1"/>
-      <c r="B584" s="3"/>
+      <c r="B584" s="2"/>
     </row>
     <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A585" s="1"/>
-      <c r="B585" s="3"/>
+      <c r="B585" s="2"/>
     </row>
     <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A586" s="1"/>
-      <c r="B586" s="3"/>
+      <c r="B586" s="2"/>
     </row>
     <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A587" s="1"/>
-      <c r="B587" s="3"/>
+      <c r="B587" s="2"/>
     </row>
     <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A588" s="1"/>
-      <c r="B588" s="3"/>
+      <c r="B588" s="2"/>
     </row>
     <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A589" s="1"/>
-      <c r="B589" s="3"/>
+      <c r="B589" s="2"/>
     </row>
     <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A590" s="1"/>
-      <c r="B590" s="3"/>
+      <c r="B590" s="2"/>
     </row>
     <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A591" s="1"/>
-      <c r="B591" s="3"/>
+      <c r="B591" s="2"/>
     </row>
     <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A592" s="1"/>
-      <c r="B592" s="3"/>
+      <c r="B592" s="2"/>
     </row>
     <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A593" s="1"/>
-      <c r="B593" s="3"/>
+      <c r="B593" s="2"/>
     </row>
     <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A594" s="1"/>
-      <c r="B594" s="3"/>
+      <c r="B594" s="2"/>
     </row>
     <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A595" s="1"/>
-      <c r="B595" s="3"/>
+      <c r="B595" s="2"/>
     </row>
     <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A596" s="1"/>
-      <c r="B596" s="3"/>
+      <c r="B596" s="2"/>
     </row>
     <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A597" s="1"/>
-      <c r="B597" s="3"/>
+      <c r="B597" s="2"/>
     </row>
     <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A598" s="1"/>
-      <c r="B598" s="3"/>
+      <c r="B598" s="2"/>
     </row>
     <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A599" s="1"/>
-      <c r="B599" s="3"/>
+      <c r="B599" s="2"/>
     </row>
     <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A600" s="1"/>
-      <c r="B600" s="3"/>
+      <c r="B600" s="2"/>
     </row>
     <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A601" s="1"/>
-      <c r="B601" s="3"/>
+      <c r="B601" s="2"/>
     </row>
     <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A602" s="1"/>
-      <c r="B602" s="3"/>
+      <c r="B602" s="2"/>
     </row>
     <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A603" s="1"/>
-      <c r="B603" s="3"/>
+      <c r="B603" s="2"/>
     </row>
     <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A604" s="1"/>
-      <c r="B604" s="3"/>
+      <c r="B604" s="2"/>
     </row>
     <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A605" s="1"/>
-      <c r="B605" s="3"/>
+      <c r="B605" s="2"/>
     </row>
     <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A606" s="1"/>
-      <c r="B606" s="3"/>
+      <c r="B606" s="2"/>
     </row>
     <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A607" s="1"/>
-      <c r="B607" s="3"/>
+      <c r="B607" s="2"/>
     </row>
     <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A608" s="1"/>
-      <c r="B608" s="3"/>
+      <c r="B608" s="2"/>
     </row>
     <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A609" s="1"/>
-      <c r="B609" s="3"/>
+      <c r="B609" s="2"/>
     </row>
     <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A610" s="1"/>
-      <c r="B610" s="3"/>
+      <c r="B610" s="2"/>
     </row>
     <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A611" s="1"/>
-      <c r="B611" s="3"/>
+      <c r="B611" s="2"/>
     </row>
     <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A612" s="1"/>
-      <c r="B612" s="3"/>
+      <c r="B612" s="2"/>
     </row>
     <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A613" s="1"/>
-      <c r="B613" s="3"/>
+      <c r="B613" s="2"/>
     </row>
     <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A614" s="1"/>
-      <c r="B614" s="3"/>
+      <c r="B614" s="2"/>
     </row>
     <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A615" s="1"/>
-      <c r="B615" s="3"/>
+      <c r="B615" s="2"/>
     </row>
     <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A616" s="1"/>
-      <c r="B616" s="3"/>
+      <c r="B616" s="2"/>
     </row>
     <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A617" s="1"/>
-      <c r="B617" s="3"/>
+      <c r="B617" s="2"/>
     </row>
     <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A618" s="1"/>
-      <c r="B618" s="3"/>
+      <c r="B618" s="2"/>
     </row>
     <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A619" s="1"/>
-      <c r="B619" s="3"/>
+      <c r="B619" s="2"/>
     </row>
     <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A620" s="1"/>
-      <c r="B620" s="3"/>
+      <c r="B620" s="2"/>
     </row>
     <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A621" s="1"/>
-      <c r="B621" s="3"/>
+      <c r="B621" s="2"/>
     </row>
     <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A622" s="1"/>
-      <c r="B622" s="3"/>
+      <c r="B622" s="2"/>
     </row>
     <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A623" s="1"/>
-      <c r="B623" s="3"/>
+      <c r="B623" s="2"/>
     </row>
     <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A624" s="1"/>
-      <c r="B624" s="3"/>
+      <c r="B624" s="2"/>
     </row>
     <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A625" s="1"/>
-      <c r="B625" s="3"/>
+      <c r="B625" s="2"/>
     </row>
     <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A626" s="1"/>
-      <c r="B626" s="3"/>
+      <c r="B626" s="2"/>
     </row>
     <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A627" s="1"/>
-      <c r="B627" s="3"/>
+      <c r="B627" s="2"/>
     </row>
     <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A628" s="1"/>
-      <c r="B628" s="3"/>
+      <c r="B628" s="2"/>
     </row>
     <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A629" s="1"/>
-      <c r="B629" s="3"/>
+      <c r="B629" s="2"/>
     </row>
     <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A630" s="1"/>
-      <c r="B630" s="3"/>
+      <c r="B630" s="2"/>
     </row>
     <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A631" s="1"/>
-      <c r="B631" s="3"/>
+      <c r="B631" s="2"/>
     </row>
     <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A632" s="1"/>
-      <c r="B632" s="3"/>
+      <c r="B632" s="2"/>
     </row>
     <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A633" s="1"/>
-      <c r="B633" s="3"/>
+      <c r="B633" s="2"/>
     </row>
     <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A634" s="1"/>
-      <c r="B634" s="3"/>
+      <c r="B634" s="2"/>
     </row>
     <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A635" s="1"/>
-      <c r="B635" s="3"/>
+      <c r="B635" s="2"/>
     </row>
     <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A636" s="1"/>
-      <c r="B636" s="3"/>
+      <c r="B636" s="2"/>
     </row>
     <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A637" s="1"/>
-      <c r="B637" s="3"/>
+      <c r="B637" s="2"/>
     </row>
     <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A638" s="1"/>
-      <c r="B638" s="3"/>
+      <c r="B638" s="2"/>
     </row>
     <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A639" s="1"/>
-      <c r="B639" s="3"/>
+      <c r="B639" s="2"/>
     </row>
     <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A640" s="1"/>
-      <c r="B640" s="3"/>
+      <c r="B640" s="2"/>
     </row>
     <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A641" s="1"/>
-      <c r="B641" s="3"/>
+      <c r="B641" s="2"/>
     </row>
     <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A642" s="1"/>
-      <c r="B642" s="3"/>
+      <c r="B642" s="2"/>
     </row>
     <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A643" s="1"/>
-      <c r="B643" s="3"/>
+      <c r="B643" s="2"/>
     </row>
     <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A644" s="1"/>
-      <c r="B644" s="3"/>
+      <c r="B644" s="2"/>
     </row>
     <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A645" s="1"/>
-      <c r="B645" s="3"/>
+      <c r="B645" s="2"/>
     </row>
     <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A646" s="1"/>
-      <c r="B646" s="3"/>
+      <c r="B646" s="2"/>
     </row>
     <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A647" s="1"/>
-      <c r="B647" s="3"/>
+      <c r="B647" s="2"/>
     </row>
     <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A648" s="1"/>
-      <c r="B648" s="3"/>
+      <c r="B648" s="2"/>
     </row>
     <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A649" s="1"/>
-      <c r="B649" s="3"/>
+      <c r="B649" s="2"/>
     </row>
     <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A650" s="1"/>
-      <c r="B650" s="3"/>
+      <c r="B650" s="2"/>
     </row>
     <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A651" s="1"/>
-      <c r="B651" s="3"/>
+      <c r="B651" s="2"/>
     </row>
     <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A652" s="1"/>
-      <c r="B652" s="3"/>
+      <c r="B652" s="2"/>
     </row>
     <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A653" s="1"/>
-      <c r="B653" s="3"/>
+      <c r="B653" s="2"/>
     </row>
     <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A654" s="1"/>
-      <c r="B654" s="3"/>
+      <c r="B654" s="2"/>
     </row>
     <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A655" s="1"/>
-      <c r="B655" s="3"/>
+      <c r="B655" s="2"/>
     </row>
     <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A656" s="1"/>
-      <c r="B656" s="3"/>
+      <c r="B656" s="2"/>
     </row>
     <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A657" s="1"/>
-      <c r="B657" s="3"/>
+      <c r="B657" s="2"/>
     </row>
     <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A658" s="1"/>
-      <c r="B658" s="3"/>
+      <c r="B658" s="2"/>
     </row>
     <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A659" s="1"/>
-      <c r="B659" s="3"/>
+      <c r="B659" s="2"/>
     </row>
     <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A660" s="1"/>
-      <c r="B660" s="3"/>
+      <c r="B660" s="2"/>
     </row>
     <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A661" s="1"/>
-      <c r="B661" s="3"/>
+      <c r="B661" s="2"/>
     </row>
     <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A662" s="1"/>
-      <c r="B662" s="3"/>
+      <c r="B662" s="2"/>
     </row>
     <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A663" s="1"/>
-      <c r="B663" s="3"/>
+      <c r="B663" s="2"/>
     </row>
     <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A664" s="1"/>
-      <c r="B664" s="3"/>
+      <c r="B664" s="2"/>
     </row>
     <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A665" s="1"/>
-      <c r="B665" s="3"/>
+      <c r="B665" s="2"/>
     </row>
     <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A666" s="1"/>
-      <c r="B666" s="3"/>
+      <c r="B666" s="2"/>
     </row>
     <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A667" s="1"/>
-      <c r="B667" s="3"/>
+      <c r="B667" s="2"/>
     </row>
     <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A668" s="1"/>
-      <c r="B668" s="3"/>
+      <c r="B668" s="2"/>
     </row>
     <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A669" s="1"/>
-      <c r="B669" s="3"/>
+      <c r="B669" s="2"/>
     </row>
     <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A670" s="1"/>
-      <c r="B670" s="3"/>
+      <c r="B670" s="2"/>
     </row>
     <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A671" s="1"/>
-      <c r="B671" s="3"/>
+      <c r="B671" s="2"/>
     </row>
     <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A672" s="1"/>
-      <c r="B672" s="3"/>
+      <c r="B672" s="2"/>
     </row>
     <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A673" s="1"/>
-      <c r="B673" s="3"/>
+      <c r="B673" s="2"/>
     </row>
     <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A674" s="1"/>
-      <c r="B674" s="3"/>
+      <c r="B674" s="2"/>
     </row>
     <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A675" s="1"/>
-      <c r="B675" s="3"/>
+      <c r="B675" s="2"/>
     </row>
     <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A676" s="1"/>
-      <c r="B676" s="3"/>
+      <c r="B676" s="2"/>
     </row>
     <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A677" s="1"/>
-      <c r="B677" s="3"/>
+      <c r="B677" s="2"/>
     </row>
     <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A678" s="1"/>
-      <c r="B678" s="3"/>
+      <c r="B678" s="2"/>
     </row>
     <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A679" s="1"/>
-      <c r="B679" s="3"/>
+      <c r="B679" s="2"/>
     </row>
     <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A680" s="1"/>
-      <c r="B680" s="3"/>
+      <c r="B680" s="2"/>
     </row>
     <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A681" s="1"/>
-      <c r="B681" s="3"/>
+      <c r="B681" s="2"/>
     </row>
     <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A682" s="1"/>
-      <c r="B682" s="3"/>
+      <c r="B682" s="2"/>
     </row>
     <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A683" s="1"/>
-      <c r="B683" s="3"/>
+      <c r="B683" s="2"/>
     </row>
     <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A684" s="1"/>
-      <c r="B684" s="3"/>
+      <c r="B684" s="2"/>
     </row>
     <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A685" s="1"/>
-      <c r="B685" s="3"/>
+      <c r="B685" s="2"/>
     </row>
     <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A686" s="1"/>
-      <c r="B686" s="3"/>
+      <c r="B686" s="2"/>
     </row>
     <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A687" s="1"/>
-      <c r="B687" s="3"/>
+      <c r="B687" s="2"/>
     </row>
     <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A688" s="1"/>
-      <c r="B688" s="3"/>
+      <c r="B688" s="2"/>
     </row>
     <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A689" s="1"/>
-      <c r="B689" s="3"/>
+      <c r="B689" s="2"/>
     </row>
     <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A690" s="1"/>
-      <c r="B690" s="3"/>
+      <c r="B690" s="2"/>
     </row>
     <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A691" s="1"/>
-      <c r="B691" s="3"/>
+      <c r="B691" s="2"/>
     </row>
     <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A692" s="1"/>
-      <c r="B692" s="3"/>
+      <c r="B692" s="2"/>
     </row>
     <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A693" s="1"/>
-      <c r="B693" s="3"/>
+      <c r="B693" s="2"/>
     </row>
     <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A694" s="1"/>
-      <c r="B694" s="3"/>
+      <c r="B694" s="2"/>
     </row>
     <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A695" s="1"/>
-      <c r="B695" s="3"/>
+      <c r="B695" s="2"/>
     </row>
     <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A696" s="1"/>
-      <c r="B696" s="3"/>
+      <c r="B696" s="2"/>
     </row>
     <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A697" s="1"/>
-      <c r="B697" s="3"/>
+      <c r="B697" s="2"/>
     </row>
     <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A698" s="1"/>
-      <c r="B698" s="3"/>
+      <c r="B698" s="2"/>
     </row>
     <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A699" s="1"/>
-      <c r="B699" s="3"/>
+      <c r="B699" s="2"/>
     </row>
     <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A700" s="1"/>
-      <c r="B700" s="3"/>
+      <c r="B700" s="2"/>
     </row>
     <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A701" s="1"/>
-      <c r="B701" s="3"/>
+      <c r="B701" s="2"/>
     </row>
     <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A702" s="1"/>
-      <c r="B702" s="3"/>
+      <c r="B702" s="2"/>
     </row>
     <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A703" s="1"/>
-      <c r="B703" s="3"/>
+      <c r="B703" s="2"/>
     </row>
     <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A704" s="1"/>
-      <c r="B704" s="3"/>
+      <c r="B704" s="2"/>
     </row>
     <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A705" s="1"/>
-      <c r="B705" s="3"/>
+      <c r="B705" s="2"/>
     </row>
     <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A706" s="1"/>
-      <c r="B706" s="3"/>
+      <c r="B706" s="2"/>
     </row>
     <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A707" s="1"/>
-      <c r="B707" s="3"/>
+      <c r="B707" s="2"/>
     </row>
     <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A708" s="1"/>
-      <c r="B708" s="3"/>
+      <c r="B708" s="2"/>
     </row>
     <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A709" s="1"/>
-      <c r="B709" s="3"/>
+      <c r="B709" s="2"/>
     </row>
     <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A710" s="1"/>
-      <c r="B710" s="3"/>
+      <c r="B710" s="2"/>
     </row>
     <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A711" s="1"/>
-      <c r="B711" s="3"/>
+      <c r="B711" s="2"/>
     </row>
     <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A712" s="1"/>
-      <c r="B712" s="3"/>
+      <c r="B712" s="2"/>
     </row>
     <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A713" s="1"/>
-      <c r="B713" s="3"/>
+      <c r="B713" s="2"/>
     </row>
     <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A714" s="1"/>
-      <c r="B714" s="3"/>
+      <c r="B714" s="2"/>
     </row>
     <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A715" s="1"/>
-      <c r="B715" s="3"/>
+      <c r="B715" s="2"/>
     </row>
     <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A716" s="1"/>
-      <c r="B716" s="3"/>
+      <c r="B716" s="2"/>
     </row>
     <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A717" s="1"/>
-      <c r="B717" s="3"/>
+      <c r="B717" s="2"/>
     </row>
     <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A718" s="1"/>
-      <c r="B718" s="3"/>
+      <c r="B718" s="2"/>
     </row>
     <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A719" s="1"/>
-      <c r="B719" s="3"/>
+      <c r="B719" s="2"/>
     </row>
     <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A720" s="1"/>
-      <c r="B720" s="3"/>
+      <c r="B720" s="2"/>
     </row>
     <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A721" s="1"/>
-      <c r="B721" s="3"/>
+      <c r="B721" s="2"/>
     </row>
     <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A722" s="1"/>
-      <c r="B722" s="3"/>
+      <c r="B722" s="2"/>
     </row>
     <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A723" s="1"/>
-      <c r="B723" s="3"/>
+      <c r="B723" s="2"/>
     </row>
     <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A724" s="1"/>
-      <c r="B724" s="3"/>
+      <c r="B724" s="2"/>
     </row>
     <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A725" s="1"/>
-      <c r="B725" s="3"/>
+      <c r="B725" s="2"/>
     </row>
     <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A726" s="1"/>
-      <c r="B726" s="3"/>
+      <c r="B726" s="2"/>
     </row>
     <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A727" s="1"/>
-      <c r="B727" s="3"/>
+      <c r="B727" s="2"/>
     </row>
     <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A728" s="1"/>
-      <c r="B728" s="3"/>
+      <c r="B728" s="2"/>
     </row>
     <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A729" s="1"/>
-      <c r="B729" s="3"/>
+      <c r="B729" s="2"/>
     </row>
     <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A730" s="1"/>
-      <c r="B730" s="3"/>
+      <c r="B730" s="2"/>
     </row>
     <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A731" s="1"/>
-      <c r="B731" s="3"/>
+      <c r="B731" s="2"/>
     </row>
     <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A732" s="1"/>
-      <c r="B732" s="3"/>
+      <c r="B732" s="2"/>
     </row>
     <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A733" s="1"/>
-      <c r="B733" s="3"/>
+      <c r="B733" s="2"/>
     </row>
     <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A734" s="1"/>
-      <c r="B734" s="3"/>
+      <c r="B734" s="2"/>
     </row>
     <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A735" s="1"/>
-      <c r="B735" s="3"/>
+      <c r="B735" s="2"/>
     </row>
     <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A736" s="1"/>
-      <c r="B736" s="3"/>
+      <c r="B736" s="2"/>
     </row>
     <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A737" s="1"/>
-      <c r="B737" s="3"/>
+      <c r="B737" s="2"/>
     </row>
     <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A738" s="1"/>
-      <c r="B738" s="3"/>
+      <c r="B738" s="2"/>
     </row>
     <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A739" s="1"/>
-      <c r="B739" s="3"/>
+      <c r="B739" s="2"/>
     </row>
     <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A740" s="1"/>
-      <c r="B740" s="3"/>
+      <c r="B740" s="2"/>
     </row>
     <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A741" s="1"/>
-      <c r="B741" s="3"/>
+      <c r="B741" s="2"/>
     </row>
     <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A742" s="1"/>
-      <c r="B742" s="3"/>
+      <c r="B742" s="2"/>
     </row>
     <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A743" s="1"/>
-      <c r="B743" s="3"/>
+      <c r="B743" s="2"/>
     </row>
     <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A744" s="1"/>
-      <c r="B744" s="3"/>
+      <c r="B744" s="2"/>
     </row>
     <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A745" s="1"/>
-      <c r="B745" s="3"/>
+      <c r="B745" s="2"/>
     </row>
     <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A746" s="1"/>
-      <c r="B746" s="3"/>
+      <c r="B746" s="2"/>
     </row>
     <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A747" s="1"/>
-      <c r="B747" s="3"/>
+      <c r="B747" s="2"/>
     </row>
     <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A748" s="1"/>
-      <c r="B748" s="3"/>
+      <c r="B748" s="2"/>
     </row>
     <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A749" s="1"/>
-      <c r="B749" s="3"/>
+      <c r="B749" s="2"/>
     </row>
     <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A750" s="1"/>
-      <c r="B750" s="3"/>
+      <c r="B750" s="2"/>
     </row>
     <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A751" s="1"/>
-      <c r="B751" s="3"/>
+      <c r="B751" s="2"/>
     </row>
     <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A752" s="1"/>
-      <c r="B752" s="3"/>
+      <c r="B752" s="2"/>
     </row>
     <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A753" s="1"/>
-      <c r="B753" s="3"/>
+      <c r="B753" s="2"/>
     </row>
     <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A754" s="1"/>
-      <c r="B754" s="3"/>
+      <c r="B754" s="2"/>
     </row>
     <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A755" s="1"/>
-      <c r="B755" s="3"/>
+      <c r="B755" s="2"/>
     </row>
     <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A756" s="1"/>
-      <c r="B756" s="3"/>
+      <c r="B756" s="2"/>
     </row>
     <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A757" s="1"/>
-      <c r="B757" s="3"/>
+      <c r="B757" s="2"/>
     </row>
     <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A758" s="1"/>
-      <c r="B758" s="3"/>
+      <c r="B758" s="2"/>
     </row>
     <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A759" s="1"/>
-      <c r="B759" s="3"/>
+      <c r="B759" s="2"/>
     </row>
     <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A760" s="1"/>
-      <c r="B760" s="3"/>
+      <c r="B760" s="2"/>
     </row>
     <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A761" s="1"/>
-      <c r="B761" s="3"/>
+      <c r="B761" s="2"/>
     </row>
     <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A762" s="1"/>
-      <c r="B762" s="3"/>
+      <c r="B762" s="2"/>
     </row>
     <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A763" s="1"/>
-      <c r="B763" s="3"/>
+      <c r="B763" s="2"/>
     </row>
     <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A764" s="1"/>
-      <c r="B764" s="3"/>
+      <c r="B764" s="2"/>
     </row>
     <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A765" s="1"/>
-      <c r="B765" s="3"/>
+      <c r="B765" s="2"/>
     </row>
     <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A766" s="1"/>
-      <c r="B766" s="3"/>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A767" s="1"/>
-      <c r="B767" s="3"/>
+      <c r="B767" s="2"/>
     </row>
     <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A768" s="1"/>
-      <c r="B768" s="3"/>
+      <c r="B768" s="2"/>
     </row>
     <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A769" s="1"/>
-      <c r="B769" s="3"/>
+      <c r="B769" s="2"/>
     </row>
     <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A770" s="1"/>
-      <c r="B770" s="3"/>
+      <c r="B770" s="2"/>
     </row>
     <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A771" s="1"/>
-      <c r="B771" s="3"/>
+      <c r="B771" s="2"/>
     </row>
     <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A772" s="1"/>
-      <c r="B772" s="3"/>
+      <c r="B772" s="2"/>
     </row>
     <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A773" s="1"/>
-      <c r="B773" s="3"/>
+      <c r="B773" s="2"/>
     </row>
     <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A774" s="1"/>
-      <c r="B774" s="3"/>
+      <c r="B774" s="2"/>
     </row>
     <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A775" s="1"/>
-      <c r="B775" s="3"/>
+      <c r="B775" s="2"/>
     </row>
     <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A776" s="1"/>
-      <c r="B776" s="3"/>
+      <c r="B776" s="2"/>
     </row>
     <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A777" s="1"/>
-      <c r="B777" s="3"/>
+      <c r="B777" s="2"/>
     </row>
     <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A778" s="1"/>
-      <c r="B778" s="3"/>
+      <c r="B778" s="2"/>
     </row>
     <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A779" s="1"/>
-      <c r="B779" s="3"/>
+      <c r="B779" s="2"/>
     </row>
     <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A780" s="1"/>
-      <c r="B780" s="3"/>
+      <c r="B780" s="2"/>
     </row>
     <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A781" s="1"/>
-      <c r="B781" s="3"/>
+      <c r="B781" s="2"/>
     </row>
     <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A782" s="1"/>
-      <c r="B782" s="3"/>
+      <c r="B782" s="2"/>
     </row>
     <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A783" s="1"/>
-      <c r="B783" s="3"/>
+      <c r="B783" s="2"/>
     </row>
     <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A784" s="1"/>
-      <c r="B784" s="3"/>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A785" s="1"/>
-      <c r="B785" s="3"/>
+      <c r="B785" s="2"/>
     </row>
     <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A786" s="1"/>
-      <c r="B786" s="3"/>
+      <c r="B786" s="2"/>
     </row>
     <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A787" s="1"/>
-      <c r="B787" s="3"/>
+      <c r="B787" s="2"/>
     </row>
     <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A788" s="1"/>
-      <c r="B788" s="3"/>
+      <c r="B788" s="2"/>
     </row>
     <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A789" s="1"/>
-      <c r="B789" s="3"/>
+      <c r="B789" s="2"/>
     </row>
     <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A790" s="1"/>
-      <c r="B790" s="3"/>
+      <c r="B790" s="2"/>
     </row>
     <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A791" s="1"/>
-      <c r="B791" s="3"/>
+      <c r="B791" s="2"/>
     </row>
     <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A792" s="1"/>
-      <c r="B792" s="3"/>
+      <c r="B792" s="2"/>
     </row>
     <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A793" s="1"/>
-      <c r="B793" s="3"/>
+      <c r="B793" s="2"/>
     </row>
     <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A794" s="1"/>
-      <c r="B794" s="3"/>
+      <c r="B794" s="2"/>
     </row>
     <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A795" s="1"/>
-      <c r="B795" s="3"/>
+      <c r="B795" s="2"/>
     </row>
     <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A796" s="1"/>
-      <c r="B796" s="3"/>
+      <c r="B796" s="2"/>
     </row>
     <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A797" s="1"/>
-      <c r="B797" s="3"/>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A798" s="1"/>
-      <c r="B798" s="3"/>
+      <c r="B798" s="2"/>
     </row>
     <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A799" s="1"/>
-      <c r="B799" s="3"/>
+      <c r="B799" s="2"/>
     </row>
     <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A800" s="1"/>
-      <c r="B800" s="3"/>
+      <c r="B800" s="2"/>
     </row>
     <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A801" s="1"/>
-      <c r="B801" s="3"/>
+      <c r="B801" s="2"/>
     </row>
     <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A802" s="1"/>
-      <c r="B802" s="3"/>
+      <c r="B802" s="2"/>
     </row>
     <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A803" s="1"/>
-      <c r="B803" s="3"/>
+      <c r="B803" s="2"/>
     </row>
     <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A804" s="1"/>
-      <c r="B804" s="3"/>
+      <c r="B804" s="2"/>
     </row>
     <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A805" s="1"/>
-      <c r="B805" s="3"/>
+      <c r="B805" s="2"/>
     </row>
     <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A806" s="1"/>
-      <c r="B806" s="3"/>
+      <c r="B806" s="2"/>
     </row>
     <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A807" s="1"/>
-      <c r="B807" s="3"/>
+      <c r="B807" s="2"/>
     </row>
     <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A808" s="1"/>
-      <c r="B808" s="3"/>
+      <c r="B808" s="2"/>
     </row>
     <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A809" s="1"/>
-      <c r="B809" s="3"/>
+      <c r="B809" s="2"/>
     </row>
     <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A810" s="1"/>
-      <c r="B810" s="3"/>
+      <c r="B810" s="2"/>
     </row>
     <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A811" s="1"/>
-      <c r="B811" s="3"/>
+      <c r="B811" s="2"/>
     </row>
     <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A812" s="1"/>
-      <c r="B812" s="3"/>
+      <c r="B812" s="2"/>
     </row>
     <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A813" s="1"/>
-      <c r="B813" s="3"/>
+      <c r="B813" s="2"/>
     </row>
     <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A814" s="1"/>
-      <c r="B814" s="3"/>
+      <c r="B814" s="2"/>
     </row>
     <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A815" s="1"/>
-      <c r="B815" s="3"/>
+      <c r="B815" s="2"/>
     </row>
     <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A816" s="1"/>
-      <c r="B816" s="3"/>
+      <c r="B816" s="2"/>
     </row>
     <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A817" s="1"/>
-      <c r="B817" s="3"/>
+      <c r="B817" s="2"/>
     </row>
     <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A818" s="1"/>
-      <c r="B818" s="3"/>
+      <c r="B818" s="2"/>
     </row>
     <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A819" s="1"/>
-      <c r="B819" s="3"/>
+      <c r="B819" s="2"/>
     </row>
     <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A820" s="1"/>
-      <c r="B820" s="3"/>
+      <c r="B820" s="2"/>
     </row>
     <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A821" s="1"/>
-      <c r="B821" s="3"/>
+      <c r="B821" s="2"/>
     </row>
     <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A822" s="1"/>
-      <c r="B822" s="3"/>
+      <c r="B822" s="2"/>
     </row>
     <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A823" s="1"/>
-      <c r="B823" s="3"/>
+      <c r="B823" s="2"/>
     </row>
     <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A824" s="1"/>
-      <c r="B824" s="3"/>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A825" s="1"/>
-      <c r="B825" s="3"/>
+      <c r="B825" s="2"/>
     </row>
     <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A826" s="1"/>
-      <c r="B826" s="3"/>
+      <c r="B826" s="2"/>
     </row>
     <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A827" s="1"/>
-      <c r="B827" s="3"/>
+      <c r="B827" s="2"/>
     </row>
     <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A828" s="1"/>
-      <c r="B828" s="3"/>
+      <c r="B828" s="2"/>
     </row>
     <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A829" s="1"/>
-      <c r="B829" s="3"/>
+      <c r="B829" s="2"/>
     </row>
     <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A830" s="1"/>
-      <c r="B830" s="3"/>
+      <c r="B830" s="2"/>
     </row>
     <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A831" s="1"/>
-      <c r="B831" s="3"/>
+      <c r="B831" s="2"/>
     </row>
     <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A832" s="1"/>
-      <c r="B832" s="3"/>
+      <c r="B832" s="2"/>
     </row>
     <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A833" s="1"/>
-      <c r="B833" s="3"/>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A834" s="1"/>
-      <c r="B834" s="3"/>
+      <c r="B834" s="2"/>
     </row>
     <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A835" s="1"/>
-      <c r="B835" s="3"/>
+      <c r="B835" s="2"/>
     </row>
     <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A836" s="1"/>
-      <c r="B836" s="3"/>
+      <c r="B836" s="2"/>
     </row>
     <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A837" s="1"/>
-      <c r="B837" s="3"/>
+      <c r="B837" s="2"/>
     </row>
     <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A838" s="1"/>
-      <c r="B838" s="3"/>
+      <c r="B838" s="2"/>
     </row>
     <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A839" s="1"/>
-      <c r="B839" s="3"/>
+      <c r="B839" s="2"/>
     </row>
     <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A840" s="1"/>
-      <c r="B840" s="3"/>
+      <c r="B840" s="2"/>
     </row>
     <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A841" s="1"/>
-      <c r="B841" s="3"/>
+      <c r="B841" s="2"/>
     </row>
     <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A842" s="1"/>
-      <c r="B842" s="3"/>
+      <c r="B842" s="2"/>
     </row>
     <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A843" s="1"/>
-      <c r="B843" s="3"/>
+      <c r="B843" s="2"/>
     </row>
     <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A844" s="1"/>
-      <c r="B844" s="3"/>
+      <c r="B844" s="2"/>
     </row>
     <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A845" s="1"/>
-      <c r="B845" s="3"/>
+      <c r="B845" s="2"/>
     </row>
     <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A846" s="1"/>
-      <c r="B846" s="3"/>
+      <c r="B846" s="2"/>
     </row>
     <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A847" s="1"/>
-      <c r="B847" s="3"/>
+      <c r="B847" s="2"/>
     </row>
     <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A848" s="1"/>
-      <c r="B848" s="3"/>
+      <c r="B848" s="2"/>
     </row>
     <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A849" s="1"/>
-      <c r="B849" s="3"/>
+      <c r="B849" s="2"/>
     </row>
     <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A850" s="1"/>
-      <c r="B850" s="3"/>
+      <c r="B850" s="2"/>
     </row>
     <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A851" s="1"/>
-      <c r="B851" s="3"/>
+      <c r="B851" s="2"/>
     </row>
     <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A852" s="1"/>
-      <c r="B852" s="3"/>
+      <c r="B852" s="2"/>
     </row>
     <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A853" s="1"/>
-      <c r="B853" s="3"/>
+      <c r="B853" s="2"/>
     </row>
     <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A854" s="1"/>
-      <c r="B854" s="3"/>
+      <c r="B854" s="2"/>
     </row>
     <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A855" s="1"/>
-      <c r="B855" s="3"/>
+      <c r="B855" s="2"/>
     </row>
     <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A856" s="1"/>
-      <c r="B856" s="3"/>
+      <c r="B856" s="2"/>
     </row>
     <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A857" s="1"/>
-      <c r="B857" s="3"/>
+      <c r="B857" s="2"/>
     </row>
     <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A858" s="1"/>
-      <c r="B858" s="3"/>
+      <c r="B858" s="2"/>
     </row>
     <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A859" s="1"/>
-      <c r="B859" s="3"/>
+      <c r="B859" s="2"/>
     </row>
     <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A860" s="1"/>
-      <c r="B860" s="3"/>
+      <c r="B860" s="2"/>
     </row>
     <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A861" s="1"/>
-      <c r="B861" s="3"/>
+      <c r="B861" s="2"/>
     </row>
     <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A862" s="1"/>
-      <c r="B862" s="3"/>
+      <c r="B862" s="2"/>
     </row>
     <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A863" s="1"/>
-      <c r="B863" s="3"/>
+      <c r="B863" s="2"/>
     </row>
     <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A864" s="1"/>
-      <c r="B864" s="3"/>
+      <c r="B864" s="2"/>
     </row>
     <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A865" s="1"/>
-      <c r="B865" s="3"/>
+      <c r="B865" s="2"/>
     </row>
     <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A866" s="1"/>
-      <c r="B866" s="3"/>
+      <c r="B866" s="2"/>
     </row>
     <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A867" s="1"/>
-      <c r="B867" s="3"/>
+      <c r="B867" s="2"/>
     </row>
     <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A868" s="1"/>
-      <c r="B868" s="3"/>
+      <c r="B868" s="2"/>
     </row>
     <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A869" s="1"/>
-      <c r="B869" s="3"/>
+      <c r="B869" s="2"/>
     </row>
     <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A870" s="1"/>
-      <c r="B870" s="3"/>
+      <c r="B870" s="2"/>
     </row>
     <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A871" s="1"/>
-      <c r="B871" s="3"/>
+      <c r="B871" s="2"/>
     </row>
     <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A872" s="1"/>
-      <c r="B872" s="3"/>
+      <c r="B872" s="2"/>
     </row>
     <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A873" s="1"/>
-      <c r="B873" s="3"/>
+      <c r="B873" s="2"/>
     </row>
     <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A874" s="1"/>
-      <c r="B874" s="3"/>
+      <c r="B874" s="2"/>
     </row>
     <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A875" s="1"/>
-      <c r="B875" s="3"/>
+      <c r="B875" s="2"/>
     </row>
     <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A876" s="1"/>
-      <c r="B876" s="3"/>
+      <c r="B876" s="2"/>
     </row>
     <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A877" s="1"/>
-      <c r="B877" s="3"/>
+      <c r="B877" s="2"/>
     </row>
     <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A878" s="1"/>
-      <c r="B878" s="3"/>
+      <c r="B878" s="2"/>
     </row>
     <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A879" s="1"/>
-      <c r="B879" s="3"/>
+      <c r="B879" s="2"/>
     </row>
     <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A880" s="1"/>
-      <c r="B880" s="3"/>
+      <c r="B880" s="2"/>
     </row>
     <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A881" s="1"/>
-      <c r="B881" s="3"/>
+      <c r="B881" s="2"/>
     </row>
     <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A882" s="1"/>
-      <c r="B882" s="3"/>
+      <c r="B882" s="2"/>
     </row>
     <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A883" s="1"/>
-      <c r="B883" s="3"/>
+      <c r="B883" s="2"/>
     </row>
     <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A884" s="1"/>
-      <c r="B884" s="3"/>
+      <c r="B884" s="2"/>
     </row>
     <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A885" s="1"/>
-      <c r="B885" s="3"/>
+      <c r="B885" s="2"/>
     </row>
     <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A886" s="1"/>
-      <c r="B886" s="3"/>
+      <c r="B886" s="2"/>
     </row>
     <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A887" s="1"/>
-      <c r="B887" s="3"/>
+      <c r="B887" s="2"/>
     </row>
     <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A888" s="1"/>
-      <c r="B888" s="3"/>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A889" s="1"/>
-      <c r="B889" s="3"/>
+      <c r="B889" s="2"/>
     </row>
     <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A890" s="1"/>
-      <c r="B890" s="3"/>
+      <c r="B890" s="2"/>
     </row>
     <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A891" s="1"/>
-      <c r="B891" s="3"/>
+      <c r="B891" s="2"/>
     </row>
     <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A892" s="1"/>
-      <c r="B892" s="3"/>
+      <c r="B892" s="2"/>
     </row>
     <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A893" s="1"/>
-      <c r="B893" s="3"/>
+      <c r="B893" s="2"/>
     </row>
     <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A894" s="1"/>
-      <c r="B894" s="3"/>
+      <c r="B894" s="2"/>
     </row>
     <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A895" s="1"/>
-      <c r="B895" s="3"/>
+      <c r="B895" s="2"/>
     </row>
     <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A896" s="1"/>
-      <c r="B896" s="3"/>
+      <c r="B896" s="2"/>
     </row>
     <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A897" s="1"/>
-      <c r="B897" s="3"/>
+      <c r="B897" s="2"/>
     </row>
     <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A898" s="1"/>
-      <c r="B898" s="3"/>
+      <c r="B898" s="2"/>
     </row>
     <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A899" s="1"/>
-      <c r="B899" s="3"/>
+      <c r="B899" s="2"/>
     </row>
     <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A900" s="1"/>
-      <c r="B900" s="3"/>
+      <c r="B900" s="2"/>
     </row>
     <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A901" s="1"/>
-      <c r="B901" s="3"/>
+      <c r="B901" s="2"/>
     </row>
     <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A902" s="1"/>
-      <c r="B902" s="3"/>
+      <c r="B902" s="2"/>
     </row>
     <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A903" s="1"/>
-      <c r="B903" s="3"/>
+      <c r="B903" s="2"/>
     </row>
     <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A904" s="1"/>
-      <c r="B904" s="3"/>
+      <c r="B904" s="2"/>
     </row>
     <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A905" s="1"/>
-      <c r="B905" s="3"/>
+      <c r="B905" s="2"/>
     </row>
     <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A906" s="1"/>
-      <c r="B906" s="3"/>
+      <c r="B906" s="2"/>
     </row>
     <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A907" s="1"/>
-      <c r="B907" s="3"/>
+      <c r="B907" s="2"/>
     </row>
     <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A908" s="1"/>
-      <c r="B908" s="3"/>
+      <c r="B908" s="2"/>
     </row>
     <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A909" s="1"/>
-      <c r="B909" s="3"/>
+      <c r="B909" s="2"/>
     </row>
     <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A910" s="1"/>
-      <c r="B910" s="3"/>
+      <c r="B910" s="2"/>
     </row>
     <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A911" s="1"/>
-      <c r="B911" s="3"/>
+      <c r="B911" s="2"/>
     </row>
     <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A912" s="1"/>
-      <c r="B912" s="3"/>
+      <c r="B912" s="2"/>
     </row>
     <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A913" s="1"/>
-      <c r="B913" s="3"/>
+      <c r="B913" s="2"/>
     </row>
     <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A914" s="1"/>
-      <c r="B914" s="3"/>
+      <c r="B914" s="2"/>
     </row>
     <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A915" s="1"/>
-      <c r="B915" s="3"/>
+      <c r="B915" s="2"/>
     </row>
     <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A916" s="1"/>
-      <c r="B916" s="3"/>
+      <c r="B916" s="2"/>
     </row>
     <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A917" s="1"/>
-      <c r="B917" s="3"/>
+      <c r="B917" s="2"/>
     </row>
     <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A918" s="1"/>
-      <c r="B918" s="3"/>
+      <c r="B918" s="2"/>
     </row>
     <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A919" s="1"/>
-      <c r="B919" s="3"/>
+      <c r="B919" s="2"/>
     </row>
     <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A920" s="1"/>
-      <c r="B920" s="3"/>
+      <c r="B920" s="2"/>
     </row>
     <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A921" s="1"/>
-      <c r="B921" s="3"/>
+      <c r="B921" s="2"/>
     </row>
     <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A922" s="1"/>
-      <c r="B922" s="3"/>
+      <c r="B922" s="2"/>
     </row>
     <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A923" s="1"/>
-      <c r="B923" s="3"/>
+      <c r="B923" s="2"/>
     </row>
     <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A924" s="1"/>
-      <c r="B924" s="3"/>
+      <c r="B924" s="2"/>
     </row>
     <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A925" s="1"/>
-      <c r="B925" s="3"/>
+      <c r="B925" s="2"/>
     </row>
     <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A926" s="1"/>
-      <c r="B926" s="3"/>
+      <c r="B926" s="2"/>
     </row>
     <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A927" s="1"/>
-      <c r="B927" s="3"/>
+      <c r="B927" s="2"/>
     </row>
     <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A928" s="1"/>
-      <c r="B928" s="3"/>
+      <c r="B928" s="2"/>
     </row>
     <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A929" s="1"/>
-      <c r="B929" s="3"/>
+      <c r="B929" s="2"/>
     </row>
     <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A930" s="1"/>
-      <c r="B930" s="3"/>
+      <c r="B930" s="2"/>
     </row>
     <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A931" s="1"/>
-      <c r="B931" s="3"/>
+      <c r="B931" s="2"/>
     </row>
     <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A932" s="1"/>
-      <c r="B932" s="3"/>
+      <c r="B932" s="2"/>
     </row>
     <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A933" s="1"/>
-      <c r="B933" s="3"/>
+      <c r="B933" s="2"/>
     </row>
     <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A934" s="1"/>
-      <c r="B934" s="3"/>
+      <c r="B934" s="2"/>
     </row>
     <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A935" s="1"/>
-      <c r="B935" s="3"/>
+      <c r="B935" s="2"/>
     </row>
     <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A936" s="1"/>
-      <c r="B936" s="3"/>
+      <c r="B936" s="2"/>
     </row>
     <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A937" s="1"/>
-      <c r="B937" s="3"/>
+      <c r="B937" s="2"/>
     </row>
     <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A938" s="1"/>
-      <c r="B938" s="3"/>
+      <c r="B938" s="2"/>
     </row>
     <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A939" s="1"/>
-      <c r="B939" s="3"/>
+      <c r="B939" s="2"/>
     </row>
     <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A940" s="1"/>
-      <c r="B940" s="3"/>
+      <c r="B940" s="2"/>
     </row>
     <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A941" s="1"/>
-      <c r="B941" s="3"/>
+      <c r="B941" s="2"/>
     </row>
     <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A942" s="1"/>
-      <c r="B942" s="3"/>
+      <c r="B942" s="2"/>
     </row>
     <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A943" s="1"/>
-      <c r="B943" s="3"/>
+      <c r="B943" s="2"/>
     </row>
     <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A944" s="1"/>
-      <c r="B944" s="3"/>
+      <c r="B944" s="2"/>
     </row>
     <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A945" s="1"/>
-      <c r="B945" s="3"/>
+      <c r="B945" s="2"/>
     </row>
     <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A946" s="1"/>
-      <c r="B946" s="3"/>
+      <c r="B946" s="2"/>
     </row>
     <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A947" s="1"/>
-      <c r="B947" s="3"/>
+      <c r="B947" s="2"/>
     </row>
     <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A948" s="1"/>
-      <c r="B948" s="3"/>
+      <c r="B948" s="2"/>
     </row>
     <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A949" s="1"/>
-      <c r="B949" s="3"/>
+      <c r="B949" s="2"/>
     </row>
     <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A950" s="1"/>
-      <c r="B950" s="3"/>
+      <c r="B950" s="2"/>
     </row>
     <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A951" s="1"/>
-      <c r="B951" s="3"/>
+      <c r="B951" s="2"/>
     </row>
     <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A952" s="1"/>
-      <c r="B952" s="3"/>
+      <c r="B952" s="2"/>
     </row>
     <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A953" s="1"/>
-      <c r="B953" s="3"/>
+      <c r="B953" s="2"/>
     </row>
     <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A954" s="1"/>
-      <c r="B954" s="3"/>
+      <c r="B954" s="2"/>
     </row>
     <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A955" s="1"/>
-      <c r="B955" s="3"/>
+      <c r="B955" s="2"/>
     </row>
     <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A956" s="1"/>
-      <c r="B956" s="3"/>
+      <c r="B956" s="2"/>
     </row>
     <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A957" s="1"/>
-      <c r="B957" s="3"/>
+      <c r="B957" s="2"/>
     </row>
     <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A958" s="1"/>
-      <c r="B958" s="3"/>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A959" s="1"/>
-      <c r="B959" s="3"/>
+      <c r="B959" s="2"/>
     </row>
     <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A960" s="1"/>
-      <c r="B960" s="3"/>
+      <c r="B960" s="2"/>
     </row>
     <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A961" s="1"/>
-      <c r="B961" s="3"/>
+      <c r="B961" s="2"/>
     </row>
     <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A962" s="1"/>
-      <c r="B962" s="3"/>
+      <c r="B962" s="2"/>
     </row>
     <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A963" s="1"/>
-      <c r="B963" s="3"/>
+      <c r="B963" s="2"/>
     </row>
     <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A964" s="1"/>
-      <c r="B964" s="3"/>
+      <c r="B964" s="2"/>
     </row>
     <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A965" s="1"/>
-      <c r="B965" s="3"/>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A966" s="1"/>
-      <c r="B966" s="3"/>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A967" s="1"/>
-      <c r="B967" s="3"/>
+      <c r="B967" s="2"/>
     </row>
     <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A968" s="1"/>
-      <c r="B968" s="3"/>
+      <c r="B968" s="2"/>
     </row>
     <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A969" s="1"/>
-      <c r="B969" s="3"/>
+      <c r="B969" s="2"/>
     </row>
     <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A970" s="1"/>
-      <c r="B970" s="3"/>
+      <c r="B970" s="2"/>
     </row>
     <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A971" s="1"/>
-      <c r="B971" s="3"/>
+      <c r="B971" s="2"/>
     </row>
     <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A972" s="1"/>
-      <c r="B972" s="3"/>
+      <c r="B972" s="2"/>
     </row>
     <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A973" s="1"/>
-      <c r="B973" s="3"/>
+      <c r="B973" s="2"/>
     </row>
     <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A974" s="1"/>
-      <c r="B974" s="3"/>
+      <c r="B974" s="2"/>
     </row>
     <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A975" s="1"/>
-      <c r="B975" s="3"/>
+      <c r="B975" s="2"/>
     </row>
     <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A976" s="1"/>
-      <c r="B976" s="3"/>
+      <c r="B976" s="2"/>
     </row>
     <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A977" s="1"/>
-      <c r="B977" s="3"/>
+      <c r="B977" s="2"/>
     </row>
     <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A978" s="1"/>
-      <c r="B978" s="3"/>
+      <c r="B978" s="2"/>
     </row>
     <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A979" s="1"/>
-      <c r="B979" s="3"/>
+      <c r="B979" s="2"/>
     </row>
     <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A980" s="1"/>
-      <c r="B980" s="3"/>
+      <c r="B980" s="2"/>
     </row>
     <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A981" s="1"/>
-      <c r="B981" s="3"/>
+      <c r="B981" s="2"/>
     </row>
     <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A982" s="1"/>
-      <c r="B982" s="3"/>
+      <c r="B982" s="2"/>
     </row>
     <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A983" s="1"/>
-      <c r="B983" s="3"/>
+      <c r="B983" s="2"/>
     </row>
     <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A984" s="1"/>
-      <c r="B984" s="3"/>
+      <c r="B984" s="2"/>
     </row>
     <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A985" s="1"/>
-      <c r="B985" s="3"/>
+      <c r="B985" s="2"/>
     </row>
     <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A986" s="1"/>
-      <c r="B986" s="3"/>
+      <c r="B986" s="2"/>
     </row>
     <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A987" s="1"/>
-      <c r="B987" s="3"/>
+      <c r="B987" s="2"/>
     </row>
     <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A988" s="1"/>
-      <c r="B988" s="3"/>
+      <c r="B988" s="2"/>
     </row>
     <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A989" s="1"/>
-      <c r="B989" s="3"/>
+      <c r="B989" s="2"/>
     </row>
     <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A990" s="1"/>
-      <c r="B990" s="3"/>
+      <c r="B990" s="2"/>
     </row>
     <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A991" s="1"/>
-      <c r="B991" s="3"/>
+      <c r="B991" s="2"/>
     </row>
     <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A992" s="1"/>
-      <c r="B992" s="3"/>
+      <c r="B992" s="2"/>
     </row>
     <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A993" s="1"/>
-      <c r="B993" s="3"/>
+      <c r="B993" s="2"/>
     </row>
     <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A994" s="1"/>
-      <c r="B994" s="3"/>
+      <c r="B994" s="2"/>
     </row>
     <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A995" s="1"/>
-      <c r="B995" s="3"/>
+      <c r="B995" s="2"/>
     </row>
     <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A996" s="1"/>
-      <c r="B996" s="3"/>
+      <c r="B996" s="2"/>
     </row>
     <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A997" s="1"/>
-      <c r="B997" s="3"/>
+      <c r="B997" s="2"/>
     </row>
     <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A998" s="1"/>
-      <c r="B998" s="3"/>
+      <c r="B998" s="2"/>
     </row>
     <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A999" s="1"/>
-      <c r="B999" s="3"/>
+      <c r="B999" s="2"/>
     </row>
     <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1000" s="1"/>
-      <c r="B1000" s="3"/>
+      <c r="B1000" s="2"/>
     </row>
     <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1001" s="1"/>
-      <c r="B1001" s="3"/>
+      <c r="B1001" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF04AA3E-BEC8-411C-ABEB-B4F61D1AC148}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1077A-8462-448D-8EE5-E122B061357A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>Deploying to AWS</t>
+  </si>
+  <si>
+    <t>PM review with the team</t>
+  </si>
+  <si>
+    <t>PM Review with team, Scheduling</t>
+  </si>
+  <si>
+    <t>Pair programming with Casper for add bid validations</t>
+  </si>
+  <si>
+    <t>Pair programming with Tricia for add bid validations</t>
+  </si>
+  <si>
+    <t>Fixed deployment issues on AWS and PM review with team</t>
   </si>
 </sst>
 </file>
@@ -499,6 +514,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,17 +527,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +820,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -829,21 +844,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
@@ -852,23 +867,23 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -943,7 +958,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1006,18 +1021,20 @@
       <c r="U3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="X3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1078,18 +1095,20 @@
       <c r="U4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="X4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1156,12 +1175,14 @@
       <c r="W5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
+      <c r="X5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1224,18 +1245,20 @@
       <c r="U6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="X6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1296,18 +1319,20 @@
       <c r="U7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="X7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1374,12 +1399,14 @@
       <c r="W8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="X8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1442,18 +1469,20 @@
       <c r="U9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="X9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1514,18 +1543,20 @@
       <c r="U10" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
+      <c r="X10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1586,18 +1617,20 @@
       <c r="U11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="V11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1660,18 +1693,20 @@
       <c r="U12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="X12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1732,18 +1767,20 @@
       <c r="U13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
+      <c r="X13" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1804,18 +1841,20 @@
       <c r="U14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
+      <c r="V14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1878,18 +1917,20 @@
       <c r="U15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
+      <c r="X15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1950,18 +1991,20 @@
       <c r="U16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
+      <c r="X16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2025,12 +2068,14 @@
       <c r="V17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
+      <c r="W17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1077A-8462-448D-8EE5-E122B061357A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095AED03-13A4-4BE0-B77C-DE547269C940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
   <si>
     <t>Question</t>
   </si>
@@ -824,26 +824,26 @@
       <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="32" style="3" customWidth="1"/>
     <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="29.1328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="3" customWidth="1"/>
+    <col min="7" max="9" width="29.109375" style="3" customWidth="1"/>
     <col min="10" max="16" width="26.33203125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="19" width="23.1328125" customWidth="1"/>
-    <col min="20" max="20" width="20.06640625" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" customWidth="1"/>
+    <col min="20" max="20" width="20.0546875" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="23.6640625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="Y1" s="11"/>
       <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="4" t="s">
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -1030,10 +1030,12 @@
       <c r="X3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1104,10 +1106,12 @@
       <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1178,10 +1182,12 @@
       <c r="X5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1254,10 +1260,12 @@
       <c r="X6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="Y6" s="9"/>
+      <c r="Y6" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1328,10 +1336,12 @@
       <c r="X7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1402,10 +1412,12 @@
       <c r="X8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1478,10 +1490,12 @@
       <c r="X9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1552,10 +1566,12 @@
       <c r="X10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Y10" s="9"/>
+      <c r="Y10" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1626,10 +1642,12 @@
       <c r="X11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -1702,10 +1720,12 @@
       <c r="X12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1776,10 +1796,12 @@
       <c r="X13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1850,10 +1872,12 @@
       <c r="X14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
@@ -1926,10 +1950,12 @@
       <c r="X15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -2000,10 +2026,12 @@
       <c r="X16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -2074,3942 +2102,3944 @@
       <c r="X17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
     </row>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095AED03-13A4-4BE0-B77C-DE547269C940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EABDA5-465C-4F3F-842F-5E661CA80700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="128">
   <si>
     <t>Question</t>
   </si>
@@ -69,9 +69,6 @@
     <t>What will you do today?</t>
   </si>
   <si>
-    <t>Week: 13/9/2019 to 19/9/2019</t>
-  </si>
-  <si>
     <t>Tsang Bao Xian</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Learn about bug metrics and other contents in class</t>
   </si>
   <si>
-    <t>Week: 20/9/2019 to 26/9/2019</t>
-  </si>
-  <si>
     <t>Learnt about bug metrics, partially completed add bid functionality with ability to view sections available per course</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t>Waiting for iter1 critical path / whole project de????</t>
   </si>
   <si>
-    <t>Week 5: 30 September to 6 October</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meet to discuss iterations and prep for PM review </t>
   </si>
   <si>
@@ -400,6 +391,27 @@
   </si>
   <si>
     <t>Fixed deployment issues on AWS and PM review with team</t>
+  </si>
+  <si>
+    <t>Read up on json and understand it</t>
+  </si>
+  <si>
+    <t>Work on how to do the update bid function</t>
+  </si>
+  <si>
+    <t>Week 7: 30 September to 6 October</t>
+  </si>
+  <si>
+    <t>Week 6: 23 September to 29 September</t>
+  </si>
+  <si>
+    <t>Week 5: 16 September to 22 September</t>
+  </si>
+  <si>
+    <t>Week 4: 13 September to 15 September</t>
+  </si>
+  <si>
+    <t>Week 8: 7 October to 13 October</t>
   </si>
 </sst>
 </file>
@@ -490,19 +502,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,7 +520,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -527,12 +532,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,5237 +848,5404 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:AG1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="32" style="3" customWidth="1"/>
     <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.88671875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="29.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="29.1328125" style="3" customWidth="1"/>
     <col min="10" max="16" width="26.33203125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
     <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="19" width="23.109375" customWidth="1"/>
-    <col min="20" max="20" width="20.0546875" customWidth="1"/>
+    <col min="19" max="19" width="23.1328125" customWidth="1"/>
+    <col min="20" max="20" width="20.06640625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="23.6640625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+    </row>
+    <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="5" t="s">
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="11" t="s">
+      <c r="K6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="W9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="I15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="L16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2" t="s">
+      <c r="O16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="9"/>
-    </row>
-    <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="O17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="9"/>
-    </row>
-    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" s="7" t="s">
+      <c r="P17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+      <c r="V17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A5"/>
@@ -6055,6 +6253,8 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EABDA5-465C-4F3F-842F-5E661CA80700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993034C-F046-44BA-9AE2-F740D2A75733}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="131">
   <si>
     <t>Question</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>Week 8: 7 October to 13 October</t>
+  </si>
+  <si>
+    <t>Pair programming with Tricia for update bid</t>
+  </si>
+  <si>
+    <t>Pair programming with Yan Ning for updateBid function</t>
+  </si>
+  <si>
+    <t>Read up on JSON web service</t>
   </si>
 </sst>
 </file>
@@ -523,6 +532,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,8 +556,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,29 +565,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -875,106 +884,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="11" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="8" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
     </row>
     <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -1021,10 +1030,10 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1036,25 +1045,25 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1099,7 +1108,9 @@
       <c r="Z3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="5"/>
+      <c r="AA3" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
@@ -1108,8 +1119,8 @@
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1121,25 +1132,25 @@
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="J4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
@@ -1184,7 +1195,9 @@
       <c r="Z4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -1193,8 +1206,8 @@
       <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1206,25 +1219,25 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="J5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="4" t="s">
@@ -1269,7 +1282,9 @@
       <c r="Z5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1278,10 +1293,10 @@
       <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1293,25 +1308,25 @@
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1356,7 +1371,9 @@
       <c r="Z6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="5"/>
+      <c r="AA6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
@@ -1365,8 +1382,8 @@
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1378,25 +1395,25 @@
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="10" t="s">
         <v>56</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1441,7 +1458,9 @@
       <c r="Z7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
@@ -1450,8 +1469,8 @@
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1463,25 +1482,25 @@
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="19" t="s">
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1526,7 +1545,9 @@
       <c r="Z8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1535,10 +1556,10 @@
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1550,25 +1571,25 @@
       <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1613,7 +1634,9 @@
       <c r="Z9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="5"/>
+      <c r="AA9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
@@ -1622,8 +1645,8 @@
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1635,25 +1658,25 @@
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="J10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1698,7 +1721,9 @@
       <c r="Z10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="5"/>
+      <c r="AA10" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -1707,8 +1732,8 @@
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1720,25 +1745,25 @@
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="19" t="s">
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="4" t="s">
@@ -1783,7 +1808,9 @@
       <c r="Z11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="5"/>
+      <c r="AA11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
@@ -1792,10 +1819,10 @@
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1807,25 +1834,25 @@
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="4" t="s">
@@ -1870,7 +1897,9 @@
       <c r="Z12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="5"/>
+      <c r="AA12" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
@@ -1879,8 +1908,8 @@
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1892,25 +1921,25 @@
       <c r="E13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="19" t="s">
+      <c r="J13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -1955,7 +1984,9 @@
       <c r="Z13" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="5"/>
+      <c r="AA13" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
@@ -1964,8 +1995,8 @@
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1977,25 +2008,25 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="19" t="s">
+      <c r="H14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -2040,7 +2071,9 @@
       <c r="Z14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA14" s="5"/>
+      <c r="AA14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
@@ -2049,10 +2082,10 @@
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2064,25 +2097,25 @@
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -2127,7 +2160,9 @@
       <c r="Z15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
@@ -2136,8 +2171,8 @@
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2149,25 +2184,25 @@
       <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="10" t="s">
         <v>58</v>
       </c>
       <c r="M16" s="4" t="s">
@@ -2212,7 +2247,9 @@
       <c r="Z16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA16" s="5"/>
+      <c r="AA16" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
@@ -2221,8 +2258,8 @@
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2234,25 +2271,25 @@
       <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -2297,7 +2334,9 @@
       <c r="Z17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA17" s="5"/>
+      <c r="AA17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993034C-F046-44BA-9AE2-F740D2A75733}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D9507-31F4-43E6-B42E-84B116E02C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="134">
   <si>
     <t>Question</t>
   </si>
@@ -421,6 +421,15 @@
   </si>
   <si>
     <t>Read up on JSON web service</t>
+  </si>
+  <si>
+    <t>Pair programming with bao xian to create json web service for authentication</t>
+  </si>
+  <si>
+    <t>Not working day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix errors when new bidding amount is blank upon clicking </t>
   </si>
 </sst>
 </file>
@@ -859,9 +868,9 @@
   </sheetPr>
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
+      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1111,7 +1120,9 @@
       <c r="AA3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" s="5"/>
+      <c r="AB3" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
@@ -1198,7 +1209,9 @@
       <c r="AA4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -1285,7 +1298,9 @@
       <c r="AA5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -1374,7 +1389,9 @@
       <c r="AA6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
@@ -1461,7 +1478,9 @@
       <c r="AA7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB7" s="5"/>
+      <c r="AB7" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -1548,7 +1567,9 @@
       <c r="AA8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1637,7 +1658,9 @@
       <c r="AA9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="5"/>
+      <c r="AB9" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
@@ -1724,7 +1747,9 @@
       <c r="AA10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
@@ -1811,7 +1836,9 @@
       <c r="AA11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="5"/>
+      <c r="AB11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
@@ -1900,7 +1927,9 @@
       <c r="AA12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AB12" s="5"/>
+      <c r="AB12" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
@@ -1987,7 +2016,9 @@
       <c r="AA13" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AB13" s="5"/>
+      <c r="AB13" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -2074,7 +2105,9 @@
       <c r="AA14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB14" s="5"/>
+      <c r="AB14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
@@ -2163,7 +2196,9 @@
       <c r="AA15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AB15" s="5"/>
+      <c r="AB15" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
@@ -2250,7 +2285,9 @@
       <c r="AA16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AB16" s="5"/>
+      <c r="AB16" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
@@ -2337,7 +2374,9 @@
       <c r="AA17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="5"/>
+      <c r="AB17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AC17" s="4"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D9507-31F4-43E6-B42E-84B116E02C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CF4BA-5D48-4B38-BCC2-25B7F087BC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="140">
   <si>
     <t>Question</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t xml:space="preserve">Fix errors when new bidding amount is blank upon clicking </t>
+  </si>
+  <si>
+    <t>pair programming with Bao Xian to complete web service add bid and prepare json checker</t>
+  </si>
+  <si>
+    <t>pair programming with Bao Xian to do web service authenticate</t>
+  </si>
+  <si>
+    <t>Fix errors when new bidding amount is blank upon clicking</t>
+  </si>
+  <si>
+    <t>pair programming with Casper to do web service authenticate</t>
+  </si>
+  <si>
+    <t>pair programming with Casper to complete web service add bid and prepare json checker</t>
+  </si>
+  <si>
+    <t>Week 9: 14 October to 20 October</t>
   </si>
 </sst>
 </file>
@@ -866,11 +884,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG1001"/>
+  <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -890,9 +908,11 @@
     <col min="21" max="21" width="21" customWidth="1"/>
     <col min="22" max="22" width="23.6640625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="20.06640625" customWidth="1"/>
+    <col min="25" max="29" width="19.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -940,8 +960,17 @@
       <c r="AE1" s="13"/>
       <c r="AF1" s="13"/>
       <c r="AG1" s="13"/>
-    </row>
-    <row r="2" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+      <c r="AH1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="8" t="s">
@@ -1037,8 +1066,29 @@
       <c r="AG2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1123,13 +1173,15 @@
       <c r="AB3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" s="7"/>
+      <c r="AC3" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
@@ -1212,13 +1264,15 @@
       <c r="AB4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="7"/>
+      <c r="AC4" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -1301,13 +1355,15 @@
       <c r="AB5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="4"/>
+      <c r="AC5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
@@ -1392,13 +1448,15 @@
       <c r="AB6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
@@ -1481,13 +1539,15 @@
       <c r="AB7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
         <v>9</v>
@@ -1570,13 +1630,15 @@
       <c r="AB8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="4"/>
+      <c r="AC8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1661,13 +1723,15 @@
       <c r="AB9" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC9" s="7"/>
+      <c r="AC9" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
-    <row r="10" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
@@ -1750,13 +1814,15 @@
       <c r="AB10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AC10" s="7"/>
+      <c r="AC10" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
@@ -1839,13 +1905,15 @@
       <c r="AB11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="7"/>
+      <c r="AC11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -1930,13 +1998,15 @@
       <c r="AB12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
@@ -2025,7 +2095,7 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
@@ -2108,13 +2178,15 @@
       <c r="AB14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC14" s="7"/>
+      <c r="AC14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
@@ -2199,13 +2271,15 @@
       <c r="AB15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AC15" s="7"/>
+      <c r="AC15" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
-    <row r="16" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>8</v>
@@ -2288,7 +2362,9 @@
       <c r="AB16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
@@ -2377,7 +2453,9 @@
       <c r="AB17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AC17" s="4"/>
+      <c r="AC17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
@@ -6320,7 +6398,8 @@
       <c r="B1001" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="T1:Z1"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CF4BA-5D48-4B38-BCC2-25B7F087BC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE322D4-96DB-4AA1-88F5-BCDDA3F94F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="143">
   <si>
     <t>Question</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>Week 9: 14 October to 20 October</t>
+  </si>
+  <si>
+    <t>Meeting with team about json web service and json checker</t>
+  </si>
+  <si>
+    <t>Meeting with team about JSON web service, JSON checker and update bid</t>
+  </si>
+  <si>
+    <t>pair programming with casper to complete web service add bid and prepare json checker</t>
   </si>
 </sst>
 </file>
@@ -887,8 +896,8 @@
   <dimension ref="A1:AN1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK3" sqref="AK3"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -909,7 +918,7 @@
     <col min="22" max="22" width="23.6640625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
     <col min="24" max="24" width="20.06640625" customWidth="1"/>
-    <col min="25" max="29" width="19.9296875" customWidth="1"/>
+    <col min="25" max="30" width="19.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -1176,7 +1185,9 @@
       <c r="AC3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -1267,7 +1278,9 @@
       <c r="AC4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="7"/>
@@ -1358,7 +1371,9 @@
       <c r="AC5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD5" s="4"/>
+      <c r="AD5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -1451,7 +1466,9 @@
       <c r="AC6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="7"/>
+      <c r="AD6" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
@@ -1542,7 +1559,9 @@
       <c r="AC7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -1633,7 +1652,9 @@
       <c r="AC8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -1726,7 +1747,9 @@
       <c r="AC9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AD9" s="7"/>
+      <c r="AD9" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
@@ -1817,7 +1840,9 @@
       <c r="AC10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AD10" s="7"/>
+      <c r="AD10" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
@@ -1908,7 +1933,9 @@
       <c r="AC11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -2001,7 +2028,9 @@
       <c r="AC12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD12" s="7"/>
+      <c r="AD12" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
@@ -2089,8 +2118,12 @@
       <c r="AB13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="AC13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
@@ -2181,7 +2214,9 @@
       <c r="AC14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AD14" s="7"/>
+      <c r="AD14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -2274,7 +2309,9 @@
       <c r="AC15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AD15" s="7"/>
+      <c r="AD15" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
@@ -2365,7 +2402,9 @@
       <c r="AC16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD16" s="7"/>
+      <c r="AD16" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
@@ -2456,7 +2495,9 @@
       <c r="AC17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD17" s="7"/>
+      <c r="AD17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -6399,17 +6440,17 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
   </mergeCells>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE322D4-96DB-4AA1-88F5-BCDDA3F94F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455BEF1-FE5D-40E1-8053-CF8F5F9C1E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="150">
   <si>
     <t>Question</t>
   </si>
@@ -457,6 +457,27 @@
   </si>
   <si>
     <t>pair programming with casper to complete web service add bid and prepare json checker</t>
+  </si>
+  <si>
+    <t>Debugging with Bao Xian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read up on clearing logic </t>
+  </si>
+  <si>
+    <t>understanding round clearing logic</t>
+  </si>
+  <si>
+    <t>Debugging with casper</t>
+  </si>
+  <si>
+    <t>Add bid test cases</t>
+  </si>
+  <si>
+    <t>Understand round clearing logic</t>
+  </si>
+  <si>
+    <t>Difficulties in understanding round clearing logic</t>
   </si>
 </sst>
 </file>
@@ -583,12 +604,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,6 +615,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -895,9 +916,9 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -922,17 +943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="20" t="s">
         <v>125</v>
       </c>
@@ -951,37 +972,37 @@
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1119,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1188,12 +1209,14 @@
       <c r="AD3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AE3" s="7"/>
+      <c r="AE3" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1281,12 +1304,14 @@
       <c r="AD4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE4" s="7"/>
+      <c r="AE4" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="AF4" s="4"/>
       <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1374,12 +1399,14 @@
       <c r="AD5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE5" s="4"/>
+      <c r="AE5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1469,12 +1496,14 @@
       <c r="AD6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1562,12 +1591,14 @@
       <c r="AD7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
@@ -1655,12 +1686,14 @@
       <c r="AD8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE8" s="4"/>
+      <c r="AE8" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1750,12 +1783,14 @@
       <c r="AD9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1843,12 +1878,14 @@
       <c r="AD10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1936,12 +1973,14 @@
       <c r="AD11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2031,12 +2070,14 @@
       <c r="AD12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2124,12 +2165,14 @@
       <c r="AD13" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2217,12 +2260,14 @@
       <c r="AD14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2312,12 +2357,14 @@
       <c r="AD15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2405,12 +2452,14 @@
       <c r="AD16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2547,9 @@
       <c r="AD17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
     </row>
@@ -6440,12 +6491,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6453,6 +6498,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455BEF1-FE5D-40E1-8053-CF8F5F9C1E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328DA53-B180-4FD1-AE67-560A336E068E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="150">
   <si>
     <t>Question</t>
   </si>
@@ -604,23 +604,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -630,6 +624,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,9 +916,9 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="topRight" activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -943,66 +943,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="17" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1212,11 +1212,13 @@
       <c r="AE3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF3" s="7"/>
+      <c r="AF3" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1307,11 +1309,13 @@
       <c r="AE4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF4" s="4"/>
+      <c r="AF4" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG4" s="7"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1402,11 +1406,13 @@
       <c r="AE5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1499,11 +1505,13 @@
       <c r="AE6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1594,11 +1602,13 @@
       <c r="AE7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
@@ -1689,11 +1699,13 @@
       <c r="AE8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1786,11 +1798,13 @@
       <c r="AE9" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF9" s="7"/>
+      <c r="AF9" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1881,11 +1895,13 @@
       <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AF10" s="7"/>
+      <c r="AF10" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1976,11 +1992,13 @@
       <c r="AE11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF11" s="7"/>
+      <c r="AF11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2073,11 +2091,13 @@
       <c r="AE12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF12" s="7"/>
+      <c r="AF12" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2168,11 +2188,13 @@
       <c r="AE13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="7"/>
+      <c r="AF13" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2263,11 +2285,13 @@
       <c r="AE14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AF14" s="7"/>
+      <c r="AF14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2360,11 +2384,13 @@
       <c r="AE15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF15" s="7"/>
+      <c r="AF15" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2455,11 +2481,13 @@
       <c r="AE16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
@@ -2550,7 +2578,9 @@
       <c r="AE17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF17" s="7"/>
+      <c r="AF17" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="15" x14ac:dyDescent="0.4">
@@ -6491,6 +6521,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6498,12 +6534,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328DA53-B180-4FD1-AE67-560A336E068E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41FF16-C11E-429E-A155-1B0AB195D330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="157">
   <si>
     <t>Question</t>
   </si>
@@ -478,6 +478,27 @@
   </si>
   <si>
     <t>Difficulties in understanding round clearing logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with Tricia 3-5 pm </t>
+  </si>
+  <si>
+    <t>Test cases for update bid, delete bid and bootstrap part 1 (manual)</t>
+  </si>
+  <si>
+    <t>Test cases for all functions (json)</t>
+  </si>
+  <si>
+    <t>Understanding rounds logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing rounds logic with Celine/ Pari Programming </t>
+  </si>
+  <si>
+    <t>Debugging and doing dump table with casper</t>
+  </si>
+  <si>
+    <t>Debugging and doing dump table with bao xian</t>
   </si>
 </sst>
 </file>
@@ -604,17 +625,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -624,12 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,9 +937,9 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF18" sqref="AF18"/>
+      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -943,66 +964,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="17" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="13" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1140,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1215,10 +1236,12 @@
       <c r="AF3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="7"/>
+      <c r="AG3" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1312,10 +1335,12 @@
       <c r="AF4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AG4" s="7"/>
+      <c r="AG4" s="7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1409,10 +1434,12 @@
       <c r="AF5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1508,10 +1535,12 @@
       <c r="AF6" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1605,10 +1634,12 @@
       <c r="AF7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="7"/>
+      <c r="AG7" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
@@ -1702,10 +1733,12 @@
       <c r="AF8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="7"/>
+      <c r="AG8" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1801,10 +1834,12 @@
       <c r="AF9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AG9" s="7"/>
+      <c r="AG9" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1898,10 +1933,12 @@
       <c r="AF10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AG10" s="7"/>
+      <c r="AG10" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1995,10 +2032,12 @@
       <c r="AF11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2094,10 +2133,12 @@
       <c r="AF12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG12" s="7"/>
+      <c r="AG12" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2191,10 +2232,12 @@
       <c r="AF13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AG13" s="7"/>
+      <c r="AG13" s="7" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2288,10 +2331,12 @@
       <c r="AF14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG14" s="7"/>
+      <c r="AG14" s="7" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2387,10 +2432,12 @@
       <c r="AF15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AG15" s="7"/>
+      <c r="AG15" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2481,13 +2528,15 @@
       <c r="AE16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AF16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG16" s="7"/>
+      <c r="AF16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2630,9 @@
       <c r="AF17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG17" s="7"/>
+      <c r="AG17" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:33" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -6521,12 +6572,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6534,6 +6579,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41FF16-C11E-429E-A155-1B0AB195D330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD3553-2C89-4043-A20F-C89DE4EA0B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="167">
   <si>
     <t>Question</t>
   </si>
@@ -499,6 +499,36 @@
   </si>
   <si>
     <t>Debugging and doing dump table with bao xian</t>
+  </si>
+  <si>
+    <t>Dump user and debugging</t>
+  </si>
+  <si>
+    <t>Dump table requires round logic to complete so it's put on hold</t>
+  </si>
+  <si>
+    <t>Continue with round logic</t>
+  </si>
+  <si>
+    <t>Encounter errors when filtering for each courses</t>
+  </si>
+  <si>
+    <t>Bootstrap testcases (manual), Authenticate and bootstrap test cases (JSON)</t>
+  </si>
+  <si>
+    <t>Update bid and delete bid test cases (JSON)</t>
+  </si>
+  <si>
+    <t>Unsure whether the expected results is correct anot</t>
+  </si>
+  <si>
+    <t>2nd round logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue with round clearing code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pair programming with Tricia </t>
   </si>
 </sst>
 </file>
@@ -577,7 +607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -585,11 +615,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,29 +708,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,19 +726,83 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,225 +1090,212 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="29.1328125" style="3" customWidth="1"/>
-    <col min="10" max="16" width="26.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="19" width="23.1328125" customWidth="1"/>
-    <col min="20" max="20" width="20.06640625" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="20.06640625" customWidth="1"/>
-    <col min="25" max="30" width="19.9296875" customWidth="1"/>
+    <col min="3" max="9" width="30.59765625" style="3" customWidth="1"/>
+    <col min="10" max="34" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="17" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -1173,88 +1313,97 @@
       <c r="K3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="U3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="5" t="s">
+      <c r="Y3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="AH3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="14"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -1272,88 +1421,97 @@
       <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="T4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="7" t="s">
+      <c r="X4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="AA4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AA4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="11" t="s">
         <v>155</v>
       </c>
+      <c r="AH4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="14"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -1371,90 +1529,99 @@
       <c r="K5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="N5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="4" t="s">
+      <c r="Q5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="X5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="14"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1472,88 +1639,97 @@
       <c r="K6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="7" t="s">
+      <c r="U6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="5" t="s">
+      <c r="Y6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AE6" s="5" t="s">
+      <c r="AE6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="AH6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="14"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1571,88 +1747,97 @@
       <c r="K7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="P7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="4" t="s">
+      <c r="R7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB7" s="5" t="s">
+      <c r="X7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AD7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="AH7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="14"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1670,90 +1855,99 @@
       <c r="K8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="5" t="s">
+      <c r="O8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="7" t="s">
+      <c r="V8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="AF8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1771,88 +1965,97 @@
       <c r="K9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="5" t="s">
+      <c r="L9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="S9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="Y9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB9" s="5" t="s">
+      <c r="Z9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AC9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AE9" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AF9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AG9" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="AH9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="14"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -1870,88 +2073,97 @@
       <c r="K10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="L10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="4" t="s">
+      <c r="O10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="R10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="T10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Y10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB10" s="5" t="s">
+      <c r="Y10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="AC10" s="7" t="s">
+      <c r="AC10" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" s="11" t="s">
         <v>156</v>
       </c>
+      <c r="AH10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="14"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -1969,90 +2181,99 @@
       <c r="K11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="L11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="14"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -2070,88 +2291,97 @@
       <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="P12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="S12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="7" t="s">
+      <c r="U12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="Y12" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" s="5" t="s">
+      <c r="Z12" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AC12" s="7" t="s">
+      <c r="AC12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="5" t="s">
+      <c r="AE12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AF12" s="7" t="s">
+      <c r="AF12" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AG12" s="5" t="s">
+      <c r="AG12" s="11" t="s">
         <v>132</v>
       </c>
+      <c r="AH12" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="14"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -2169,88 +2399,97 @@
       <c r="K13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="R13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="5" t="s">
+      <c r="T13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X13" s="7" t="s">
+      <c r="X13" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Y13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="7" t="s">
+      <c r="Y13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="7" t="s">
+      <c r="AA13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AB13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AC13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AD13" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AE13" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AF13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AG13" s="7" t="s">
+      <c r="AG13" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="AH13" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="14"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="C14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -2268,90 +2507,99 @@
       <c r="K14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="L14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE14" s="4" t="s">
+      <c r="Q14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AF14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG14" s="7" t="s">
+      <c r="AF14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="11" t="s">
         <v>153</v>
       </c>
+      <c r="AH14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="14"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -2369,88 +2617,97 @@
       <c r="K15" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="R15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="W15" s="7" t="s">
+      <c r="W15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB15" s="5" t="s">
+      <c r="Y15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="AC15" s="7" t="s">
+      <c r="AC15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE15" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AF15" s="7" t="s">
+      <c r="AF15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AG15" s="7" t="s">
+      <c r="AG15" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="AH15" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -2468,229 +2725,247 @@
       <c r="K16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="P16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="4" t="s">
+      <c r="R16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="V16" s="7" t="s">
+      <c r="V16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="W16" s="7" t="s">
+      <c r="W16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="X16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" s="7" t="s">
+      <c r="X16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AB16" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AC16" s="7" t="s">
+      <c r="AC16" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AD16" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" s="7" t="s">
+      <c r="AE16" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AF16" s="7" t="s">
+      <c r="AF16" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="AG16" s="7" t="s">
+      <c r="AG16" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9" t="s">
+      <c r="AH16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+    </row>
+    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="C17" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="G17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="K17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="5" t="s">
+      <c r="P17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG17" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+      <c r="V17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="17"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:33" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
@@ -6572,6 +6847,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6579,12 +6860,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD3553-2C89-4043-A20F-C89DE4EA0B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D107A-2B37-4467-82AB-912C92E68A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="170">
   <si>
     <t>Question</t>
   </si>
@@ -529,6 +529,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pair programming with Tricia </t>
+  </si>
+  <si>
+    <t>meeting for debugging and CP re-evaluation with team</t>
+  </si>
+  <si>
+    <t>deduction of edollar function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing rounds logic with Celine/ Pair Programming </t>
   </si>
 </sst>
 </file>
@@ -699,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -713,18 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -742,15 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,15 +766,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,11 +778,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1104,76 +1119,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="30" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="18" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="18" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="18" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="33" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1191,10 +1206,10 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1212,1702 +1227,1732 @@
       <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="X2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AB2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AD2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AE2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AF2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AG2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AI2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="21" t="s">
+      <c r="AJ2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AK2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AL2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AM2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="23" t="s">
+      <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="L3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="U3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3" s="12" t="s">
+      <c r="Y3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="14"/>
+      <c r="AI3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="25" t="s">
+      <c r="J4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="29" t="s">
+      <c r="R4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="T4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="X4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="24" t="s">
+      <c r="X4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AC4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="AH4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="14"/>
+      <c r="AH4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="10"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="C5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="29" t="s">
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="X5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="12" t="s">
+      <c r="X5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="14"/>
+      <c r="AI5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="10"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="S6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="11" t="s">
+      <c r="U6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="11" t="s">
+      <c r="Y6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AC6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AD6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AF6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AH6" s="12" t="s">
+      <c r="AH6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="14"/>
+      <c r="AI6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="10" t="s">
+      <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="29" t="s">
+      <c r="R7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB7" s="11" t="s">
+      <c r="X7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD7" s="11" t="s">
+      <c r="AD7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="AF7" s="11" t="s">
+      <c r="AF7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AH7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="14"/>
+      <c r="AI7" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="10"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="25" t="s">
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="11" t="s">
+      <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="11" t="s">
+      <c r="V8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AF8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AF8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="14"/>
+      <c r="AI8" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="10"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="L9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="12" t="s">
+      <c r="S9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB9" s="11" t="s">
+      <c r="Z9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC9" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF9" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AH9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="14"/>
+      <c r="AI9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="10" t="s">
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="29" t="s">
+      <c r="R10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="11" t="s">
+      <c r="T10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Y10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB10" s="11" t="s">
+      <c r="Y10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AC10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AD10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AF10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AG10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="AH10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="14"/>
+      <c r="AH10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI10" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="10"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH11" s="12" t="s">
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="14"/>
+      <c r="AI11" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="10"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="10" t="s">
+      <c r="L12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="10" t="s">
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="12" t="s">
+      <c r="S12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="11" t="s">
+      <c r="U12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="X12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" s="12" t="s">
+      <c r="Z12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AB12" s="11" t="s">
+      <c r="AB12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AC12" s="11" t="s">
+      <c r="AC12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD12" s="11" t="s">
+      <c r="AD12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AE12" s="11" t="s">
+      <c r="AE12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG12" s="11" t="s">
+      <c r="AG12" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AH12" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="14"/>
+      <c r="AH12" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="10"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="25" t="s">
+      <c r="J13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="29" t="s">
+      <c r="R13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="T13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="24" t="s">
+      <c r="Y13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="AA13" s="12" t="s">
+      <c r="AA13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AB13" s="11" t="s">
+      <c r="AB13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AC13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD13" s="11" t="s">
+      <c r="AD13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AE13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AF13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AG13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="AH13" s="12" t="s">
+      <c r="AH13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="14"/>
+      <c r="AI13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="25" t="s">
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="H14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE14" s="10" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AF14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG14" s="11" t="s">
+      <c r="AF14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="AH14" s="12" t="s">
+      <c r="AH14" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14"/>
+      <c r="AI14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="E15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="N15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="X15" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB15" s="11" t="s">
+      <c r="Y15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AC15" s="11" t="s">
+      <c r="AC15" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AD15" s="11" t="s">
+      <c r="AD15" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AE15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AF15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AG15" s="11" t="s">
+      <c r="AG15" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AH15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="14"/>
+      <c r="AI15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="10" t="s">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="29" t="s">
+      <c r="R16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="X16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" s="12" t="s">
+      <c r="X16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AB16" s="11" t="s">
+      <c r="AB16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AC16" s="11" t="s">
+      <c r="AC16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AD16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AE16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AF16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AG16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH16" s="12" t="s">
+      <c r="AH16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="14"/>
+      <c r="AI16" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="10"/>
     </row>
     <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="35" t="s">
+      <c r="C17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="27" t="s">
+      <c r="G17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="35" t="s">
+      <c r="K17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="26" t="s">
+      <c r="P17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="V17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH17" s="15" t="s">
+      <c r="V17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="17"/>
+      <c r="AI17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="13"/>
     </row>
     <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -6847,12 +6892,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6860,6 +6899,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D107A-2B37-4467-82AB-912C92E68A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47ADF91-3F35-4E37-91EC-D1A4AF5ED7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="176">
   <si>
     <t>Question</t>
   </si>
@@ -538,6 +538,24 @@
   </si>
   <si>
     <t xml:space="preserve">Sharing rounds logic with Celine/ Pair Programming </t>
+  </si>
+  <si>
+    <t>Debugging, delete and update web service</t>
+  </si>
+  <si>
+    <t>meeting for debugging, testing, aws deployment and slides</t>
+  </si>
+  <si>
+    <t>meeting for debugging, testing, aws deployment and presentation slides</t>
+  </si>
+  <si>
+    <t>testing, slides</t>
+  </si>
+  <si>
+    <t>Testing - login and add bid function (manual). Bugs logged in bug metrics.</t>
+  </si>
+  <si>
+    <t>Meeting for debugging, testing, aws deployment and slides</t>
   </si>
 </sst>
 </file>
@@ -708,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -778,17 +796,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,17 +820,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,9 +1135,9 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI12" sqref="AI12"/>
+      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1119,27 +1149,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="34" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="34" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="32" t="s">
         <v>124</v>
       </c>
       <c r="N1" s="37"/>
@@ -1148,37 +1178,37 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="S1" s="38"/>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="31" t="s">
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="31" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
@@ -1295,7 +1325,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1397,17 +1427,19 @@
       <c r="AH3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="9"/>
+      <c r="AI3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="43" t="s">
+        <v>170</v>
+      </c>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1507,17 +1539,19 @@
       <c r="AH4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI4" s="39" t="s">
+      <c r="AI4" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ4" s="9"/>
+      <c r="AJ4" s="43" t="s">
+        <v>171</v>
+      </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="10"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1617,17 +1651,19 @@
       <c r="AH5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="9"/>
+      <c r="AI5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="10"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1732,14 +1768,16 @@
       <c r="AI6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6" s="9"/>
+      <c r="AJ6" s="43" t="s">
+        <v>173</v>
+      </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1839,17 +1877,19 @@
       <c r="AH7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AI7" s="39" t="s">
+      <c r="AI7" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ7" s="9"/>
+      <c r="AJ7" s="43" t="s">
+        <v>171</v>
+      </c>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="10"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1949,17 +1989,19 @@
       <c r="AH8" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AI8" s="39" t="s">
+      <c r="AI8" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AJ8" s="9"/>
+      <c r="AJ8" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="10"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2061,17 +2103,19 @@
       <c r="AH9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ9" s="9"/>
+      <c r="AI9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="43" t="s">
+        <v>170</v>
+      </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2171,17 +2215,19 @@
       <c r="AH10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI10" s="39" t="s">
+      <c r="AI10" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ10" s="9"/>
+      <c r="AJ10" s="43" t="s">
+        <v>171</v>
+      </c>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="10"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2281,17 +2327,19 @@
       <c r="AH11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ11" s="9"/>
+      <c r="AI11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="10"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2396,14 +2444,16 @@
       <c r="AI12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AJ12" s="9"/>
+      <c r="AJ12" s="42" t="s">
+        <v>167</v>
+      </c>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="10"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2506,14 +2556,16 @@
       <c r="AI13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AJ13" s="9"/>
+      <c r="AJ13" s="43" t="s">
+        <v>172</v>
+      </c>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2616,14 +2668,16 @@
       <c r="AI14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AJ14" s="9"/>
+      <c r="AJ14" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2725,17 +2779,19 @@
       <c r="AH15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ15" s="9"/>
+      <c r="AI15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="43" t="s">
+        <v>174</v>
+      </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2835,17 +2891,19 @@
       <c r="AH16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AI16" s="39" t="s">
+      <c r="AI16" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ16" s="9"/>
+      <c r="AJ16" s="43" t="s">
+        <v>175</v>
+      </c>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="10"/>
     </row>
     <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -2945,10 +3003,12 @@
       <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ17" s="12"/>
+      <c r="AI17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
@@ -6892,6 +6952,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6899,12 +6965,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47ADF91-3F35-4E37-91EC-D1A4AF5ED7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB26E83-DEBB-4DA5-86CE-31B127F550EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="179">
   <si>
     <t>Question</t>
   </si>
@@ -556,6 +556,15 @@
   </si>
   <si>
     <t>Meeting for debugging, testing, aws deployment and slides</t>
+  </si>
+  <si>
+    <t>Group meeting, PM review preparation and testing/debugging session</t>
+  </si>
+  <si>
+    <t>Re deploy to AWS, Application Demo and Progress Update</t>
+  </si>
+  <si>
+    <t>Application Demo and Progress Update</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -802,6 +811,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,35 +853,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,9 +1147,9 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK24" sqref="AK24"/>
+      <selection pane="topRight" activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1149,66 +1161,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="32" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="29" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="29" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="29" t="s">
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="31"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1337,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1430,16 +1442,18 @@
       <c r="AI3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="43" t="s">
+      <c r="AJ3" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="9"/>
+      <c r="AK3" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1542,16 +1556,18 @@
       <c r="AI4" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="9"/>
+      <c r="AK4" s="31" t="s">
+        <v>177</v>
+      </c>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="10"/>
     </row>
     <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1654,16 +1670,18 @@
       <c r="AI5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="9"/>
+      <c r="AJ5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="10"/>
     </row>
     <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1768,16 +1786,18 @@
       <c r="AI6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6" s="43" t="s">
+      <c r="AJ6" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="AK6" s="9"/>
+      <c r="AK6" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1880,16 +1900,18 @@
       <c r="AI7" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ7" s="43" t="s">
+      <c r="AJ7" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="9"/>
+      <c r="AK7" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="10"/>
     </row>
     <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1992,16 +2014,18 @@
       <c r="AI8" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AJ8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK8" s="9"/>
+      <c r="AJ8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="10"/>
     </row>
     <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2106,16 +2130,18 @@
       <c r="AI9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AJ9" s="43" t="s">
+      <c r="AJ9" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="AK9" s="9"/>
+      <c r="AK9" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2218,16 +2244,18 @@
       <c r="AI10" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ10" s="43" t="s">
+      <c r="AJ10" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="AK10" s="9"/>
+      <c r="AK10" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="10"/>
     </row>
     <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2330,16 +2358,18 @@
       <c r="AI11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AJ11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK11" s="9"/>
+      <c r="AJ11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="10"/>
     </row>
     <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2444,16 +2474,18 @@
       <c r="AI12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AJ12" s="42" t="s">
+      <c r="AJ12" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="AK12" s="9"/>
+      <c r="AK12" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="10"/>
     </row>
     <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2556,16 +2588,18 @@
       <c r="AI13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AJ13" s="43" t="s">
+      <c r="AJ13" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="AK13" s="9"/>
+      <c r="AK13" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2668,16 +2702,18 @@
       <c r="AI14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AJ14" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK14" s="9"/>
+      <c r="AJ14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2782,16 +2818,18 @@
       <c r="AI15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AJ15" s="43" t="s">
+      <c r="AJ15" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="AK15" s="9"/>
+      <c r="AK15" s="31" t="s">
+        <v>176</v>
+      </c>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2894,16 +2932,18 @@
       <c r="AI16" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AJ16" s="43" t="s">
+      <c r="AJ16" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" s="9"/>
+      <c r="AK16" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="10"/>
     </row>
     <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -3003,13 +3043,15 @@
       <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK17" s="12"/>
+      <c r="AI17" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
       <c r="AN17" s="13"/>
@@ -6952,12 +6994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -6965,6 +7001,12 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tricia\Documents\GitHub\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB26E83-DEBB-4DA5-86CE-31B127F550EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE8DFD-8CD3-4A9E-AB8C-BE5C0AC44183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="500" windowWidth="12210" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="180">
   <si>
     <t>Question</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>Application Demo and Progress Update</t>
+  </si>
+  <si>
+    <t>Include update bid function for database</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,17 +826,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,14 +847,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,80 +1153,80 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM6" sqref="AM6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="9" width="30.59765625" style="3" customWidth="1"/>
-    <col min="10" max="34" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="9" width="30.6328125" style="3" customWidth="1"/>
+    <col min="10" max="34" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="40" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="37" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="37" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="37" t="s">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
+    </row>
+    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
@@ -1336,8 +1342,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1448,12 +1454,14 @@
       <c r="AK3" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AL3" s="9"/>
+      <c r="AL3" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM3" s="9"/>
       <c r="AN3" s="10"/>
     </row>
-    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1562,12 +1570,14 @@
       <c r="AK4" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="AL4" s="9"/>
+      <c r="AL4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="AM4" s="9"/>
       <c r="AN4" s="10"/>
     </row>
-    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1676,12 +1686,14 @@
       <c r="AK5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AL5" s="9"/>
+      <c r="AL5" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="AM5" s="9"/>
       <c r="AN5" s="10"/>
     </row>
-    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1792,12 +1804,14 @@
       <c r="AK6" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AL6" s="9"/>
+      <c r="AL6" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM6" s="9"/>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1906,12 +1920,14 @@
       <c r="AK7" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL7" s="9"/>
+      <c r="AL7" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="AM7" s="9"/>
       <c r="AN7" s="10"/>
     </row>
-    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2020,12 +2036,14 @@
       <c r="AK8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AL8" s="9"/>
+      <c r="AL8" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="AM8" s="9"/>
       <c r="AN8" s="10"/>
     </row>
-    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2136,12 +2154,14 @@
       <c r="AK9" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AL9" s="9"/>
+      <c r="AL9" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM9" s="9"/>
       <c r="AN9" s="10"/>
     </row>
-    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -2250,12 +2270,14 @@
       <c r="AK10" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL10" s="9"/>
+      <c r="AL10" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="AM10" s="9"/>
       <c r="AN10" s="10"/>
     </row>
-    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2364,12 +2386,14 @@
       <c r="AK11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AL11" s="9"/>
+      <c r="AL11" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="AM11" s="9"/>
       <c r="AN11" s="10"/>
     </row>
-    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2480,12 +2504,14 @@
       <c r="AK12" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AL12" s="9"/>
+      <c r="AL12" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM12" s="9"/>
       <c r="AN12" s="10"/>
     </row>
-    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2594,12 +2620,14 @@
       <c r="AK13" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL13" s="9"/>
+      <c r="AL13" s="46" t="s">
+        <v>179</v>
+      </c>
       <c r="AM13" s="9"/>
       <c r="AN13" s="10"/>
     </row>
-    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,12 +2736,14 @@
       <c r="AK14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AL14" s="9"/>
+      <c r="AL14" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="AM14" s="9"/>
       <c r="AN14" s="10"/>
     </row>
-    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2824,12 +2854,14 @@
       <c r="AK15" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AL15" s="9"/>
+      <c r="AL15" s="46" t="s">
+        <v>178</v>
+      </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="10"/>
     </row>
-    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -2938,12 +2970,14 @@
       <c r="AK16" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL16" s="9"/>
+      <c r="AL16" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="AM16" s="9"/>
       <c r="AN16" s="10"/>
     </row>
-    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -3043,7 +3077,7 @@
       <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="45" t="s">
+      <c r="AI17" s="33" t="s">
         <v>19</v>
       </c>
       <c r="AJ17" s="32" t="s">
@@ -3052,3948 +3086,3956 @@
       <c r="AK17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AL17" s="12"/>
+      <c r="AL17" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="AM17" s="12"/>
       <c r="AN17" s="13"/>
     </row>
-    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AA1:AG1"/>
     <mergeCell ref="C1:E1"/>
@@ -7001,12 +7043,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="M1:S1"/>
     <mergeCell ref="F1:L1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE8DFD-8CD3-4A9E-AB8C-BE5C0AC44183}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C5549-5645-4B50-B6AC-A950088EF5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="500" windowWidth="12210" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="182">
   <si>
     <t>Question</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>Include update bid function for database</t>
+  </si>
+  <si>
+    <t>Complete dump section and dump course with Casper</t>
+  </si>
+  <si>
+    <t>Complete dump section and dump course with Bao Xian</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -767,7 +773,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,6 +834,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,25 +867,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,90 +1173,91 @@
   </sheetPr>
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="29.36328125" customWidth="1"/>
-    <col min="3" max="9" width="30.6328125" style="3" customWidth="1"/>
-    <col min="10" max="34" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" customWidth="1"/>
+    <col min="2" max="2" width="29.38671875" customWidth="1"/>
+    <col min="3" max="9" width="30.609375" style="3" customWidth="1"/>
+    <col min="10" max="34" width="30.609375" customWidth="1"/>
+    <col min="39" max="39" width="30.609375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="37" t="s">
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="34" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="34" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="34" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
-    </row>
-    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="23" t="s">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="48"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1254,10 +1275,10 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1275,90 +1296,90 @@
       <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AD2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AL2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AM2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1376,10 +1397,10 @@
       <c r="K3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -1397,7 +1418,7 @@
       <c r="R3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="21" t="s">
         <v>85</v>
       </c>
       <c r="T3" s="8" t="s">
@@ -1418,7 +1439,7 @@
       <c r="Y3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -1445,36 +1466,38 @@
       <c r="AH3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="31" t="s">
+      <c r="AI3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="31" t="s">
+      <c r="AK3" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AL3" s="46" t="s">
+      <c r="AL3" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AM3" s="9"/>
+      <c r="AM3" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN3" s="10"/>
     </row>
-    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1492,10 +1515,10 @@
       <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -1513,7 +1536,7 @@
       <c r="R4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="21" t="s">
         <v>86</v>
       </c>
       <c r="T4" s="8" t="s">
@@ -1534,7 +1557,7 @@
       <c r="Y4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="16" t="s">
         <v>121</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -1561,36 +1584,38 @@
       <c r="AH4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="AJ4" s="31" t="s">
+      <c r="AJ4" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="30" t="s">
         <v>177</v>
       </c>
       <c r="AL4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="9"/>
+      <c r="AM4" s="51" t="s">
+        <v>180</v>
+      </c>
       <c r="AN4" s="10"/>
     </row>
-    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1608,10 +1633,10 @@
       <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1629,10 +1654,10 @@
       <c r="R5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="18" t="s">
+      <c r="S5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="U5" s="7" t="s">
@@ -1650,10 +1675,10 @@
       <c r="Y5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="18" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -1677,38 +1702,40 @@
       <c r="AH5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM5" s="9"/>
+      <c r="AI5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="AN5" s="10"/>
     </row>
-    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1726,10 +1753,10 @@
       <c r="K6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>60</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1747,7 +1774,7 @@
       <c r="R6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="8" t="s">
@@ -1768,7 +1795,7 @@
       <c r="Y6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -1798,33 +1825,35 @@
       <c r="AI6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6" s="31" t="s">
+      <c r="AJ6" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="AK6" s="31" t="s">
+      <c r="AK6" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AL6" s="46" t="s">
+      <c r="AL6" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AM6" s="9"/>
+      <c r="AM6" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN6" s="10"/>
     </row>
-    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="35"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1842,10 +1871,10 @@
       <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="17" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1863,7 +1892,7 @@
       <c r="R7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="21" t="s">
         <v>86</v>
       </c>
       <c r="T7" s="8" t="s">
@@ -1884,7 +1913,7 @@
       <c r="Y7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -1911,36 +1940,38 @@
       <c r="AH7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AI7" s="27" t="s">
+      <c r="AI7" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="AJ7" s="31" t="s">
+      <c r="AJ7" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="30" t="s">
         <v>178</v>
       </c>
       <c r="AL7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM7" s="9"/>
+      <c r="AM7" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN7" s="10"/>
     </row>
-    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="35"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1958,10 +1989,10 @@
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="18" t="s">
+      <c r="L8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -1979,10 +2010,10 @@
       <c r="R8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="18" t="s">
+      <c r="S8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="U8" s="7" t="s">
@@ -2000,10 +2031,10 @@
       <c r="Y8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="18" t="s">
+      <c r="Z8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -2027,38 +2058,40 @@
       <c r="AH8" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="AJ8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM8" s="9"/>
+      <c r="AJ8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM8" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="AN8" s="10"/>
     </row>
-    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2076,10 +2109,10 @@
       <c r="K9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="18" t="s">
+      <c r="L9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -2097,7 +2130,7 @@
       <c r="R9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T9" s="8" t="s">
@@ -2118,7 +2151,7 @@
       <c r="Y9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -2145,36 +2178,38 @@
       <c r="AH9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ9" s="31" t="s">
+      <c r="AI9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="AK9" s="31" t="s">
+      <c r="AK9" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AL9" s="46" t="s">
+      <c r="AL9" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AM9" s="9"/>
+      <c r="AM9" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN9" s="10"/>
     </row>
-    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2192,10 +2227,10 @@
       <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="18" t="s">
+      <c r="L10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -2213,7 +2248,7 @@
       <c r="R10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="21" t="s">
         <v>86</v>
       </c>
       <c r="T10" s="8" t="s">
@@ -2234,7 +2269,7 @@
       <c r="Y10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="Z10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -2261,36 +2296,38 @@
       <c r="AH10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI10" s="27" t="s">
+      <c r="AI10" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="AJ10" s="31" t="s">
+      <c r="AJ10" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="AK10" s="31" t="s">
+      <c r="AK10" s="30" t="s">
         <v>178</v>
       </c>
       <c r="AL10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM10" s="9"/>
+      <c r="AM10" s="51" t="s">
+        <v>181</v>
+      </c>
       <c r="AN10" s="10"/>
     </row>
-    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="35"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2308,10 +2345,10 @@
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="18" t="s">
+      <c r="L11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -2329,7 +2366,7 @@
       <c r="R11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="T11" s="8" t="s">
@@ -2350,7 +2387,7 @@
       <c r="Y11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -2377,38 +2414,40 @@
       <c r="AH11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM11" s="9"/>
+      <c r="AI11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="AN11" s="10"/>
     </row>
-    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2426,10 +2465,10 @@
       <c r="K12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="18" t="s">
+      <c r="L12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -2447,7 +2486,7 @@
       <c r="R12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="21" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="8" t="s">
@@ -2468,7 +2507,7 @@
       <c r="Y12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -2498,33 +2537,35 @@
       <c r="AI12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AJ12" s="30" t="s">
+      <c r="AJ12" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="AK12" s="31" t="s">
+      <c r="AK12" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AL12" s="46" t="s">
+      <c r="AL12" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AM12" s="9"/>
+      <c r="AM12" s="51" t="s">
+        <v>179</v>
+      </c>
       <c r="AN12" s="10"/>
     </row>
-    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2542,10 +2583,10 @@
       <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="18" t="s">
+      <c r="L13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -2563,7 +2604,7 @@
       <c r="R13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="21" t="s">
         <v>86</v>
       </c>
       <c r="T13" s="8" t="s">
@@ -2584,7 +2625,7 @@
       <c r="Y13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="16" t="s">
         <v>122</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -2614,33 +2655,35 @@
       <c r="AI13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AJ13" s="31" t="s">
+      <c r="AJ13" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="AK13" s="31" t="s">
+      <c r="AK13" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="AL13" s="46" t="s">
+      <c r="AL13" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="AM13" s="9"/>
+      <c r="AM13" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN13" s="10"/>
     </row>
-    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2658,10 +2701,10 @@
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="18" t="s">
+      <c r="L14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2679,7 +2722,7 @@
       <c r="R14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="S14" s="21" t="s">
         <v>19</v>
       </c>
       <c r="T14" s="8" t="s">
@@ -2700,7 +2743,7 @@
       <c r="Y14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AA14" s="8" t="s">
@@ -2730,35 +2773,37 @@
       <c r="AI14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AJ14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM14" s="9"/>
+      <c r="AJ14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM14" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="AN14" s="10"/>
     </row>
-    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2776,10 +2821,10 @@
       <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="17" t="s">
         <v>63</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2797,7 +2842,7 @@
       <c r="R15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="21" t="s">
         <v>87</v>
       </c>
       <c r="T15" s="8" t="s">
@@ -2818,7 +2863,7 @@
       <c r="Y15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="Z15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA15" s="8" t="s">
@@ -2845,36 +2890,38 @@
       <c r="AH15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI15" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ15" s="31" t="s">
+      <c r="AI15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AK15" s="31" t="s">
+      <c r="AK15" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AL15" s="46" t="s">
+      <c r="AL15" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AM15" s="9"/>
+      <c r="AM15" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN15" s="10"/>
     </row>
-    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2892,10 +2939,10 @@
       <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="17" t="s">
         <v>61</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -2913,7 +2960,7 @@
       <c r="R16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="21" t="s">
         <v>86</v>
       </c>
       <c r="T16" s="8" t="s">
@@ -2934,7 +2981,7 @@
       <c r="Y16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="17" t="s">
+      <c r="Z16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="AA16" s="8" t="s">
@@ -2961,4088 +3008,4091 @@
       <c r="AH16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AI16" s="27" t="s">
+      <c r="AI16" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="AJ16" s="31" t="s">
+      <c r="AJ16" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" s="31" t="s">
+      <c r="AK16" s="30" t="s">
         <v>178</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM16" s="9"/>
+      <c r="AM16" s="51" t="s">
+        <v>18</v>
+      </c>
       <c r="AN16" s="10"/>
     </row>
-    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="25" t="s">
+      <c r="C17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="20" t="s">
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="25" t="s">
+      <c r="K17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="26" t="s">
+      <c r="P17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="V17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="21" t="s">
+      <c r="V17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="20" t="s">
         <v>19</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG17" s="19" t="s">
+      <c r="AB17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="13"/>
-    </row>
-    <row r="18" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="AI17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN17" s="12"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
     </row>
-    <row r="866" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
     </row>
-    <row r="867" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
     </row>
-    <row r="868" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
     </row>
-    <row r="871" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
     </row>
-    <row r="872" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
     </row>
-    <row r="873" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
     </row>
-    <row r="875" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
     </row>
-    <row r="877" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
     </row>
-    <row r="878" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
     </row>
-    <row r="879" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
     </row>
-    <row r="880" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
     </row>
-    <row r="881" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
     </row>
-    <row r="882" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
     </row>
-    <row r="883" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
     </row>
-    <row r="884" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
     </row>
-    <row r="885" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
     </row>
-    <row r="886" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
     </row>
-    <row r="887" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
     </row>
-    <row r="888" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
     </row>
-    <row r="889" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
     </row>
-    <row r="890" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
     </row>
-    <row r="891" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
     </row>
-    <row r="892" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
     </row>
-    <row r="893" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
     </row>
-    <row r="894" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
     </row>
-    <row r="895" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
     </row>
-    <row r="896" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
     </row>
-    <row r="897" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
     </row>
-    <row r="898" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
     </row>
-    <row r="899" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
     </row>
-    <row r="900" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
     </row>
-    <row r="901" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
     </row>
-    <row r="902" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
     </row>
-    <row r="903" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
     </row>
-    <row r="904" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
     </row>
-    <row r="905" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
     </row>
-    <row r="906" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
     </row>
-    <row r="907" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
     </row>
-    <row r="908" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
     </row>
-    <row r="909" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
     </row>
-    <row r="910" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
     </row>
-    <row r="911" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
     </row>
-    <row r="912" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
     </row>
-    <row r="913" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
     </row>
-    <row r="914" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
     </row>
-    <row r="916" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
     </row>
-    <row r="917" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
     </row>
-    <row r="918" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
     </row>
-    <row r="919" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
     </row>
-    <row r="920" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
     </row>
-    <row r="921" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
     </row>
-    <row r="922" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
     </row>
-    <row r="923" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
     </row>
-    <row r="924" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
     </row>
-    <row r="925" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
     </row>
-    <row r="926" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
     </row>
-    <row r="927" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
     </row>
-    <row r="928" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
     </row>
-    <row r="929" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
     </row>
-    <row r="930" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
     </row>
-    <row r="931" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
     </row>
-    <row r="932" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
     </row>
-    <row r="933" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
     </row>
-    <row r="934" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
     </row>
-    <row r="935" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
     </row>
-    <row r="936" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
     </row>
-    <row r="937" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
     </row>
-    <row r="938" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
     </row>
-    <row r="939" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
     </row>
-    <row r="940" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
     </row>
-    <row r="941" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
     </row>
-    <row r="942" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
     </row>
-    <row r="943" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
     </row>
-    <row r="944" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
     </row>
-    <row r="945" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
     </row>
-    <row r="946" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
     </row>
-    <row r="947" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
     </row>
-    <row r="948" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
     </row>
-    <row r="949" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
     </row>
-    <row r="950" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
     </row>
-    <row r="951" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
     </row>
-    <row r="952" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
     </row>
-    <row r="953" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
     </row>
-    <row r="954" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
     </row>
-    <row r="955" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
     </row>
-    <row r="956" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
     </row>
-    <row r="957" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
     </row>
-    <row r="958" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
     </row>
-    <row r="959" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
     </row>
-    <row r="960" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
     </row>
-    <row r="961" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
     </row>
-    <row r="962" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
     </row>
-    <row r="963" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
     </row>
-    <row r="964" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
     </row>
-    <row r="965" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
     </row>
-    <row r="966" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
     </row>
-    <row r="967" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
     </row>
-    <row r="968" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
     </row>
-    <row r="969" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
     </row>
-    <row r="970" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
     </row>
-    <row r="971" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
     </row>
-    <row r="972" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
     </row>
-    <row r="973" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
     </row>
-    <row r="974" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A974" s="1"/>
       <c r="B974" s="2"/>
     </row>
-    <row r="975" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A975" s="1"/>
       <c r="B975" s="2"/>
     </row>
-    <row r="976" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A976" s="1"/>
       <c r="B976" s="2"/>
     </row>
-    <row r="977" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A977" s="1"/>
       <c r="B977" s="2"/>
     </row>
-    <row r="978" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A978" s="1"/>
       <c r="B978" s="2"/>
     </row>
-    <row r="979" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A979" s="1"/>
       <c r="B979" s="2"/>
     </row>
-    <row r="980" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A980" s="1"/>
       <c r="B980" s="2"/>
     </row>
-    <row r="981" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A981" s="1"/>
       <c r="B981" s="2"/>
     </row>
-    <row r="982" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A982" s="1"/>
       <c r="B982" s="2"/>
     </row>
-    <row r="983" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A983" s="1"/>
       <c r="B983" s="2"/>
     </row>
-    <row r="984" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A984" s="1"/>
       <c r="B984" s="2"/>
     </row>
-    <row r="985" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A985" s="1"/>
       <c r="B985" s="2"/>
     </row>
-    <row r="986" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A986" s="1"/>
       <c r="B986" s="2"/>
     </row>
-    <row r="987" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A987" s="1"/>
       <c r="B987" s="2"/>
     </row>
-    <row r="988" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A988" s="1"/>
       <c r="B988" s="2"/>
     </row>
-    <row r="989" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A989" s="1"/>
       <c r="B989" s="2"/>
     </row>
-    <row r="990" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A990" s="1"/>
       <c r="B990" s="2"/>
     </row>
-    <row r="991" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A991" s="1"/>
       <c r="B991" s="2"/>
     </row>
-    <row r="992" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A992" s="1"/>
       <c r="B992" s="2"/>
     </row>
-    <row r="993" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A993" s="1"/>
       <c r="B993" s="2"/>
     </row>
-    <row r="994" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A994" s="1"/>
       <c r="B994" s="2"/>
     </row>
-    <row r="995" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A995" s="1"/>
       <c r="B995" s="2"/>
     </row>
-    <row r="996" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A996" s="1"/>
       <c r="B996" s="2"/>
     </row>
-    <row r="997" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A997" s="1"/>
       <c r="B997" s="2"/>
     </row>
-    <row r="998" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A998" s="1"/>
       <c r="B998" s="2"/>
     </row>
-    <row r="999" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A999" s="1"/>
       <c r="B999" s="2"/>
     </row>
-    <row r="1000" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A1000" s="1"/>
       <c r="B1000" s="2"/>
     </row>
-    <row r="1001" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A1001" s="1"/>
       <c r="B1001" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="F1:L1"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics/du.xlsx
+++ b/metrics/du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C5549-5645-4B50-B6AC-A950088EF5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CE02A-18B7-4655-BFA1-90F31DF56DDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="500" windowWidth="12210" windowHeight="9390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="185">
   <si>
     <t>Question</t>
   </si>
@@ -574,6 +574,15 @@
   </si>
   <si>
     <t>Complete dump section and dump course with Bao Xian</t>
+  </si>
+  <si>
+    <t>Non Working Day</t>
+  </si>
+  <si>
+    <t>Pair programming with Bao Xian to dump bid and dumb section</t>
+  </si>
+  <si>
+    <t>Pair programming with Casper to dump bid and dumb section</t>
   </si>
 </sst>
 </file>
@@ -744,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -773,7 +782,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,42 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -886,6 +858,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1174,90 +1188,90 @@
   <dimension ref="A1:AN1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM18" sqref="AM18"/>
+      <pane xSplit="2" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" customWidth="1"/>
-    <col min="2" max="2" width="29.38671875" customWidth="1"/>
-    <col min="3" max="9" width="30.609375" style="3" customWidth="1"/>
-    <col min="10" max="34" width="30.609375" customWidth="1"/>
-    <col min="39" max="39" width="30.609375" style="3"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="9" width="30.6328125" style="3" customWidth="1"/>
+    <col min="10" max="34" width="30.6328125" customWidth="1"/>
+    <col min="39" max="39" width="30.6328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="41" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="38" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="38" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="46" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="48"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.5">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="22" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="35"/>
+    </row>
+    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1275,10 +1289,10 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -1296,90 +1310,90 @@
       <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AL2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="15" t="s">
+      <c r="AN2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1397,10 +1411,10 @@
       <c r="K3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -1418,7 +1432,7 @@
       <c r="R3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="20" t="s">
         <v>85</v>
       </c>
       <c r="T3" s="8" t="s">
@@ -1439,7 +1453,7 @@
       <c r="Y3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -1466,38 +1480,40 @@
       <c r="AH3" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AI3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="AK3" s="30" t="s">
+      <c r="AK3" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="AL3" s="33" t="s">
+      <c r="AL3" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AM3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN3" s="10"/>
-    </row>
-    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
+      <c r="AM3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1515,10 +1531,10 @@
       <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>59</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -1536,7 +1552,7 @@
       <c r="R4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>86</v>
       </c>
       <c r="T4" s="8" t="s">
@@ -1557,7 +1573,7 @@
       <c r="Y4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="15" t="s">
         <v>121</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -1584,38 +1600,40 @@
       <c r="AH4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI4" s="26" t="s">
+      <c r="AI4" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AJ4" s="30" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="AK4" s="30" t="s">
+      <c r="AK4" s="29" t="s">
         <v>177</v>
       </c>
       <c r="AL4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AN4" s="10"/>
-    </row>
-    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
+      <c r="AN4" s="52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1633,10 +1651,10 @@
       <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>42</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1654,10 +1672,10 @@
       <c r="R5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="17" t="s">
+      <c r="S5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="U5" s="7" t="s">
@@ -1675,10 +1693,10 @@
       <c r="Y5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="17" t="s">
+      <c r="Z5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AB5" s="7" t="s">
@@ -1702,40 +1720,42 @@
       <c r="AH5" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ5" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM5" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN5" s="10"/>
-    </row>
-    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="AI5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1753,10 +1773,10 @@
       <c r="K6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>60</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1774,7 +1794,7 @@
       <c r="R6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="8" t="s">
@@ -1795,7 +1815,7 @@
       <c r="Y6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -1825,35 +1845,37 @@
       <c r="AI6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6" s="30" t="s">
+      <c r="AJ6" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="AK6" s="30" t="s">
+      <c r="AK6" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AL6" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AM6" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="10"/>
-    </row>
-    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="35"/>
+      <c r="AM6" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN6" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1871,10 +1893,10 @@
       <c r="K7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1892,7 +1914,7 @@
       <c r="R7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="20" t="s">
         <v>86</v>
       </c>
       <c r="T7" s="8" t="s">
@@ -1913,7 +1935,7 @@
       <c r="Y7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -1940,38 +1962,40 @@
       <c r="AH7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="AI7" s="26" t="s">
+      <c r="AI7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AJ7" s="30" t="s">
+      <c r="AJ7" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="30" t="s">
+      <c r="AK7" s="29" t="s">
         <v>178</v>
       </c>
       <c r="AL7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN7" s="10"/>
-    </row>
-    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
+      <c r="AM7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN7" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1989,10 +2013,10 @@
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -2010,10 +2034,10 @@
       <c r="R8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="17" t="s">
+      <c r="S8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="U8" s="7" t="s">
@@ -2031,10 +2055,10 @@
       <c r="Y8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="17" t="s">
+      <c r="Z8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AB8" s="7" t="s">
@@ -2058,40 +2082,42 @@
       <c r="AH8" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AI8" s="26" t="s">
+      <c r="AI8" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AJ8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM8" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN8" s="10"/>
-    </row>
-    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34" t="s">
+      <c r="AJ8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN8" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2109,10 +2135,10 @@
       <c r="K9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="17" t="s">
+      <c r="L9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -2130,7 +2156,7 @@
       <c r="R9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="T9" s="8" t="s">
@@ -2151,7 +2177,7 @@
       <c r="Y9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -2178,38 +2204,40 @@
       <c r="AH9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AI9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ9" s="30" t="s">
+      <c r="AI9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="AK9" s="30" t="s">
+      <c r="AK9" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="AL9" s="33" t="s">
+      <c r="AL9" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AM9" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN9" s="10"/>
-    </row>
-    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35"/>
+      <c r="AM9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN9" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2227,10 +2255,10 @@
       <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="17" t="s">
+      <c r="L10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -2248,7 +2276,7 @@
       <c r="R10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="20" t="s">
         <v>86</v>
       </c>
       <c r="T10" s="8" t="s">
@@ -2269,7 +2297,7 @@
       <c r="Y10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -2296,38 +2324,40 @@
       <c r="AH10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AI10" s="26" t="s">
+      <c r="AI10" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AJ10" s="30" t="s">
+      <c r="AJ10" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="AK10" s="30" t="s">
+      <c r="AK10" s="29" t="s">
         <v>178</v>
       </c>
       <c r="AL10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM10" s="51" t="s">
+      <c r="AM10" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="AN10" s="10"/>
-    </row>
-    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35"/>
+      <c r="AN10" s="52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2345,10 +2375,10 @@
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="17" t="s">
+      <c r="L11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -2366,7 +2396,7 @@
       <c r="R11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="T11" s="8" t="s">
@@ -2387,7 +2417,7 @@
       <c r="Y11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z11" s="16" t="s">
+      <c r="Z11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -2414,40 +2444,42 @@
       <c r="AH11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AI11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN11" s="10"/>
-    </row>
-    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
+      <c r="AI11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2465,10 +2497,10 @@
       <c r="K12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="17" t="s">
+      <c r="L12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -2486,7 +2518,7 @@
       <c r="R12" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="T12" s="8" t="s">
@@ -2507,7 +2539,7 @@
       <c r="Y12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -2537,35 +2569,37 @@
       <c r="AI12" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AJ12" s="29" t="s">
+      <c r="AJ12" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="AK12" s="30" t="s">
+      <c r="AK12" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="AL12" s="33" t="s">
+      <c r="AL12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AM12" s="51" t="s">
+      <c r="AM12" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AN12" s="10"/>
-    </row>
-    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
+      <c r="AN12" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2583,10 +2617,10 @@
       <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="17" t="s">
+      <c r="L13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -2604,7 +2638,7 @@
       <c r="R13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="T13" s="8" t="s">
@@ -2625,7 +2659,7 @@
       <c r="Y13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z13" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -2655,35 +2689,37 @@
       <c r="AI13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AJ13" s="30" t="s">
+      <c r="AJ13" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="AK13" s="30" t="s">
+      <c r="AK13" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="AL13" s="33" t="s">
+      <c r="AL13" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="AM13" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN13" s="10"/>
-    </row>
-    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
+      <c r="AM13" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN13" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2701,10 +2737,10 @@
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="17" t="s">
+      <c r="L14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2722,7 +2758,7 @@
       <c r="R14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="T14" s="8" t="s">
@@ -2743,7 +2779,7 @@
       <c r="Y14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AA14" s="8" t="s">
@@ -2773,37 +2809,39 @@
       <c r="AI14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AJ14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN14" s="10"/>
-    </row>
-    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34" t="s">
+      <c r="AJ14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN14" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2821,10 +2859,10 @@
       <c r="K15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -2842,7 +2880,7 @@
       <c r="R15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="20" t="s">
         <v>87</v>
       </c>
       <c r="T15" s="8" t="s">
@@ -2863,7 +2901,7 @@
       <c r="Y15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="16" t="s">
+      <c r="Z15" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA15" s="8" t="s">
@@ -2890,38 +2928,40 @@
       <c r="AH15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AI15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ15" s="30" t="s">
+      <c r="AI15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AK15" s="30" t="s">
+      <c r="AK15" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="AL15" s="33" t="s">
+      <c r="AL15" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AM15" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN15" s="10"/>
-    </row>
-    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35"/>
+      <c r="AM15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN15" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2939,10 +2979,10 @@
       <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N16" s="6" t="s">
@@ -2960,7 +3000,7 @@
       <c r="R16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="20" t="s">
         <v>86</v>
       </c>
       <c r="T16" s="8" t="s">
@@ -2981,7 +3021,7 @@
       <c r="Y16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z16" s="16" t="s">
+      <c r="Z16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="AA16" s="8" t="s">
@@ -3008,4091 +3048,4095 @@
       <c r="AH16" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AI16" s="26" t="s">
+      <c r="AI16" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AJ16" s="30" t="s">
+      <c r="AJ16" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="AK16" s="30" t="s">
+      <c r="AK16" s="29" t="s">
         <v>178</v>
       </c>
       <c r="AL16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AM16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN16" s="10"/>
-    </row>
-    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35"/>
+      <c r="AM16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN16" s="38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="24" t="s">
+      <c r="K17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="25" t="s">
+      <c r="P17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="24" t="s">
         <v>19</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="V17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="X17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z17" s="20" t="s">
+      <c r="V17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG17" s="18" t="s">
+      <c r="AB17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="AI17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM17" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN17" s="12"/>
-    </row>
-    <row r="18" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+      <c r="AI17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM17" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN17" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:40" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
     </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
-    <row r="197" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
     </row>
-    <row r="198" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
     </row>
-    <row r="199" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
     </row>
-    <row r="200" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
     </row>
-    <row r="201" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
     </row>
-    <row r="202" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
     </row>
-    <row r="203" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
     </row>
-    <row r="204" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
     </row>
-    <row r="205" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
     </row>
-    <row r="207" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
     </row>
-    <row r="208" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
     </row>
-    <row r="209" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
     </row>
-    <row r="210" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
     </row>
-    <row r="211" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
     </row>
-    <row r="212" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
     </row>
-    <row r="213" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
     </row>
-    <row r="214" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
     </row>
-    <row r="215" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
     </row>
-    <row r="216" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
     </row>
-    <row r="217" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
     </row>
-    <row r="218" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
     </row>
-    <row r="219" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
     </row>
-    <row r="221" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
     </row>
-    <row r="222" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
     </row>
-    <row r="223" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
     </row>
-    <row r="224" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
     </row>
-    <row r="225" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
     </row>
-    <row r="226" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
     </row>
-    <row r="227" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
     </row>
-    <row r="228" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
     </row>
-    <row r="229" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
     </row>
-    <row r="230" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
     </row>
-    <row r="231" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
     </row>
-    <row r="232" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
     </row>
-    <row r="233" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
     </row>
-    <row r="234" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
     </row>
-    <row r="235" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
     </row>
-    <row r="236" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
     </row>
-    <row r="237" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
     </row>
-    <row r="238" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
     </row>
-    <row r="239" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
     </row>
-    <row r="240" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
     </row>
-    <row r="241" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
     </row>
-    <row r="242" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
     </row>
-    <row r="243" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
     </row>
-    <row r="244" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
     </row>
-    <row r="245" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
     </row>
-    <row r="246" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
     </row>
-    <row r="249" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
     </row>
-    <row r="250" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
     </row>
-    <row r="251" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
     </row>
-    <row r="252" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
     </row>
-    <row r="253" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
     </row>
-    <row r="254" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="255" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
     </row>
-    <row r="256" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
     </row>
-    <row r="257" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="258" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
     </row>
-    <row r="259" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
     </row>
-    <row r="260" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
     </row>
-    <row r="261" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
     </row>
-    <row r="262" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
     </row>
-    <row r="264" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
     </row>
-    <row r="265" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
     </row>
-    <row r="266" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
     </row>
-    <row r="267" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
     </row>
-    <row r="268" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
     </row>
-    <row r="269" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
     </row>
-    <row r="270" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
     </row>
-    <row r="292" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
     </row>
-    <row r="295" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
     </row>
-    <row r="296" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
     </row>
-    <row r="297" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
     </row>
-    <row r="298" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
     </row>
-    <row r="299" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
     </row>
-    <row r="300" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
     </row>
-    <row r="305" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
     </row>
-    <row r="306" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
     </row>
-    <row r="307" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
     </row>
-    <row r="308" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
     </row>
-    <row r="310" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
     </row>
-    <row r="311" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
     </row>
-    <row r="312" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
     </row>
-    <row r="313" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
     </row>
-    <row r="314" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
     </row>
-    <row r="315" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
     </row>
-    <row r="316" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="317" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
     </row>
-    <row r="318" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
     </row>
-    <row r="319" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="320" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
     </row>
-    <row r="321" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
     </row>
-    <row r="322" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
     </row>
-    <row r="324" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
     </row>
-    <row r="325" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
     </row>
-    <row r="326" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
     </row>
-    <row r="328" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
     </row>
-    <row r="330" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="331" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
     </row>
-    <row r="332" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
     </row>
-    <row r="333" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="334" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
     </row>
-    <row r="335" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
     </row>
-    <row r="336" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
     </row>
-    <row r="338" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
     </row>
-    <row r="341" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
     </row>
-    <row r="342" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
     </row>
-    <row r="343" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
     </row>
-    <row r="344" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
     </row>
-    <row r="345" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
     </row>
-    <row r="346" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="347" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
     </row>
-    <row r="348" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
     </row>
-    <row r="349" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="350" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
     </row>
-    <row r="351" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
     </row>
-    <row r="352" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
     </row>
-    <row r="353" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
     </row>
-    <row r="354" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
     </row>
-    <row r="356" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
     </row>
-    <row r="357" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
     </row>
-    <row r="358" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
     </row>
-    <row r="359" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
     </row>
-    <row r="360" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
     </row>
-    <row r="362" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="363" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
     </row>
-    <row r="364" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
     </row>
-    <row r="365" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
     </row>
-    <row r="367" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
     </row>
-    <row r="368" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
     </row>
-    <row r="370" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
     </row>
-    <row r="371" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
     </row>
-    <row r="372" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
     </row>
-    <row r="373" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
     </row>
-    <row r="374" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
     </row>
-    <row r="376" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="377" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
     </row>
-    <row r="378" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
     </row>
-    <row r="379" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="380" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
     </row>
-    <row r="381" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
     </row>
-    <row r="383" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
     </row>
-    <row r="384" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
     </row>
-    <row r="387" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
     </row>
-    <row r="389" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
     </row>
-    <row r="390" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
     </row>
-    <row r="391" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
     </row>
-    <row r="392" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
     </row>
-    <row r="394" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="396" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
     </row>
-    <row r="397" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
     </row>
-    <row r="398" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
     </row>
-    <row r="400" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
     </row>
-    <row r="404" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
     </row>
-    <row r="405" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
     </row>
-    <row r="406" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
     </row>
-    <row r="407" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
     </row>
-    <row r="408" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="409" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
     </row>
-    <row r="410" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
     </row>
-    <row r="411" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="412" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
     </row>
-    <row r="413" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
     </row>
-    <row r="414" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
     </row>
-    <row r="416" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
     </row>
-    <row r="417" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
     </row>
-    <row r="418" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
     </row>
-    <row r="419" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
     </row>
-    <row r="420" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="423" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
     </row>
-    <row r="424" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
     </row>
-    <row r="425" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="426" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
     </row>
-    <row r="427" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
     </row>
-    <row r="428" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
     </row>
-    <row r="429" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
     </row>
-    <row r="430" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
     </row>
-    <row r="432" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
     </row>
-    <row r="433" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
     </row>
-    <row r="434" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
     </row>
-    <row r="435" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
     </row>
-    <row r="436" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
     </row>
-    <row r="437" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
     </row>
-    <row r="438" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="439" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
     </row>
-    <row r="440" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
     </row>
-    <row r="441" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="442" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
     </row>
-    <row r="443" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
     </row>
-    <row r="444" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
     </row>
-    <row r="445" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
     </row>
-    <row r="446" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
     </row>
-    <row r="449" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
     </row>
-    <row r="450" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
     </row>
-    <row r="451" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
     </row>
-    <row r="452" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
     </row>
-    <row r="453" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
     </row>
-    <row r="454" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="455" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
     </row>
-    <row r="456" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
     </row>
-    <row r="457" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="458" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
     </row>
-    <row r="459" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
     </row>
-    <row r="461" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
     </row>
-    <row r="462" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
     </row>
-    <row r="463" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
     </row>
-    <row r="464" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
     </row>
-    <row r="465" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
     </row>
-    <row r="467" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="468" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
     </row>
-    <row r="469" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
     </row>
-    <row r="470" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="471" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
     </row>
-    <row r="472" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
     </row>
-    <row r="473" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
     </row>
-    <row r="474" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
     </row>
-    <row r="475" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
     </row>
-    <row r="477" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
     </row>
-    <row r="478" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
     </row>
-    <row r="479" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
     </row>
-    <row r="480" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
     </row>
-    <row r="481" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
     </row>
-    <row r="482" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
     </row>
-    <row r="483" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="484" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
     </row>
-    <row r="485" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
     </row>
-    <row r="486" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="487" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
     </row>
-    <row r="497" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
     </row>
-    <row r="498" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
     </row>
-    <row r="499" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="500" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
     </row>
-    <row r="501" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
     </row>
-    <row r="502" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="503" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
     </row>
-    <row r="505" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
     </row>
-    <row r="507" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
     </row>
-    <row r="508" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
     </row>
-    <row r="509" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
     </row>
-    <row r="511" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
     </row>
-    <row r="513" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="514" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
     </row>
-    <row r="515" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
     </row>
-    <row r="516" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="517" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
     </row>
-    <row r="518" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
     </row>
-    <row r="519" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
     </row>
-    <row r="521" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
     </row>
-    <row r="523" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
     </row>
-    <row r="524" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
     </row>
-    <row r="525" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
     </row>
-    <row r="526" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
     </row>
-    <row r="527" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
     </row>
-    <row r="529" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="530" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
     </row>
-    <row r="531" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
     </row>
-    <row r="532" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="533" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
     </row>
-    <row r="534" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
     </row>
-    <row r="535" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
     </row>
-    <row r="536" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
     </row>
-    <row r="537" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
     </row>
-    <row r="539" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
     </row>
-    <row r="540" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
     </row>
-    <row r="541" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
     </row>
-    <row r="542" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
     </row>
-    <row r="543" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
     </row>
-    <row r="544" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
     </row>
-    <row r="545" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="546" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
     </row>
-    <row r="547" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
     </row>
-    <row r="548" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
     </row>
-    <row r="550" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
     </row>
-    <row r="552" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
     </row>
-    <row r="553" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
     </row>
-    <row r="556" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
     </row>
-    <row r="557" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
     </row>
-    <row r="560" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
     </row>
-    <row r="561" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
     </row>
-    <row r="563" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
     </row>
-    <row r="565" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
     </row>
-    <row r="566" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
     </row>
-    <row r="568" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
     </row>
-    <row r="569" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="570" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
     </row>
-    <row r="571" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
     </row>
-    <row r="572" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="573" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
     </row>
-    <row r="574" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
     </row>
-    <row r="576" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
     </row>
-    <row r="577" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
     </row>
-    <row r="578" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
     </row>
-    <row r="579" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
     </row>
-    <row r="580" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
     </row>
-    <row r="581" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
     </row>
-    <row r="582" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
     </row>
-    <row r="583" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
     </row>
-    <row r="584" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
     </row>
-    <row r="585" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
     </row>
-    <row r="586" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
     </row>
-    <row r="589" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
     </row>
-    <row r="590" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
     </row>
-    <row r="591" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
     </row>
-    <row r="592" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
     </row>
-    <row r="594" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
     </row>
-    <row r="595" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
     </row>
-    <row r="596" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
     </row>
-    <row r="597" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
     </row>
-    <row r="598" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
     </row>
-    <row r="599" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
     </row>
-    <row r="600" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
     </row>
-    <row r="601" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
     </row>
-    <row r="602" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="603" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
     </row>
-    <row r="604" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="604" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
     </row>
-    <row r="605" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
     </row>
-    <row r="606" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="606" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
     </row>
-    <row r="607" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="607" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
     </row>
-    <row r="608" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
     </row>
-    <row r="609" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="609" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
     </row>
-    <row r="610" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="610" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
     </row>
-    <row r="611" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="611" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
     </row>
-    <row r="612" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="612" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
     </row>
-    <row r="613" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="613" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="614" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="615" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
     </row>
-    <row r="617" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="617" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="618" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
     </row>
-    <row r="619" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="619" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
     </row>
-    <row r="620" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="620" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
     </row>
-    <row r="621" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="621" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="622" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="623" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="625" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="626" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
     </row>
-    <row r="627" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
     </row>
-    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="628" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
     </row>
-    <row r="629" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="629" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
     </row>
-    <row r="630" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="630" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
     </row>
-    <row r="631" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="631" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
     </row>
-    <row r="632" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="632" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
     </row>
-    <row r="633" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="633" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
     </row>
-    <row r="634" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="634" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
     </row>
-    <row r="635" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="635" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
     </row>
-    <row r="636" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="636" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
     </row>
-    <row r="637" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="637" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
     </row>
-    <row r="638" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
     </row>
-    <row r="639" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="639" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
     </row>
-    <row r="640" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="640" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="641" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="642" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="643" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="644" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
     </row>
-    <row r="645" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="645" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
     </row>
-    <row r="646" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="646" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
     </row>
-    <row r="647" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="647" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
     </row>
-    <row r="648" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="648" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
     </row>
-    <row r="649" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="650" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
     </row>
-    <row r="651" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="651" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
     </row>
-    <row r="652" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="652" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
     </row>
-    <row r="653" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="653" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="654" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
     </row>
-    <row r="655" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="655" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
     </row>
-    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
     </row>
-    <row r="657" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="657" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
     </row>
-    <row r="658" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="658" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
     </row>
-    <row r="659" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="659" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
     </row>
-    <row r="660" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="661" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="662" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="663" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="664" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
     </row>
-    <row r="665" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="665" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
     </row>
-    <row r="666" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="666" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
     </row>
-    <row r="667" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="667" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="668" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="669" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="670" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="671" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="672" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="673" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
     </row>
-    <row r="674" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="674" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="675" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="676" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="677" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="678" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
     </row>
-    <row r="679" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="679" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
     </row>
-    <row r="680" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="680" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="681" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="682" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="683" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="684" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="685" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
     </row>
-    <row r="686" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="686" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
     </row>
-    <row r="687" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="687" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
     </row>
-    <row r="689" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="689" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
     </row>
-    <row r="690" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="690" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
     </row>
-    <row r="691" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="691" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
     </row>
-    <row r="692" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="692" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
     </row>
-    <row r="693" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="693" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
     </row>
-    <row r="694" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="694" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
     </row>
-    <row r="695" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="695" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
     </row>
-    <row r="696" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="696" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
     </row>
-    <row r="697" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="697" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
     </row>
-    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="698" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
     </row>
-    <row r="699" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="699" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
     </row>
-    <row r="700" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="700" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
     </row>
-    <row r="701" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="701" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
     </row>
-    <row r="702" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="702" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
     </row>
-    <row r="703" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="703" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
     </row>
-    <row r="704" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
     </row>
-    <row r="705" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="705" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
     </row>
-    <row r="706" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="706" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
     </row>
-    <row r="707" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="707" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
     </row>
-    <row r="708" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="708" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
     </row>
-    <row r="709" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="709" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
     </row>
-    <row r="710" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="710" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
     </row>
-    <row r="711" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="711" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
     </row>
-    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="712" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
     </row>
-    <row r="713" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="713" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
     </row>
-    <row r="714" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="714" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
     </row>
-    <row r="715" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="715" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
     </row>
-    <row r="716" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="716" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
     </row>
-    <row r="717" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="717" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
     </row>
-    <row r="718" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="718" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
     </row>
-    <row r="719" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="719" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
     </row>
-    <row r="720" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
     </row>
-    <row r="721" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="721" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
     </row>
-    <row r="722" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="722" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
     </row>
-    <row r="723" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="723" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
     </row>
-    <row r="724" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="724" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
     </row>
-    <row r="725" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="725" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
     </row>
-    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="726" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
     </row>
-    <row r="727" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="727" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
     </row>
-    <row r="728" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="728" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
     </row>
-    <row r="729" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="729" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
     </row>
-    <row r="730" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="730" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
     </row>
-    <row r="731" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="731" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
     </row>
-    <row r="732" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="732" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
     </row>
-    <row r="733" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="733" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
     </row>
-    <row r="734" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="734" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
     </row>
-    <row r="735" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="735" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
     </row>
-    <row r="736" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="736" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
     </row>
-    <row r="737" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="737" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
     </row>
-    <row r="738" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="738" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
     </row>
-    <row r="739" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="739" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
     </row>
-    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="740" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
     </row>
-    <row r="741" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="741" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
     </row>
-    <row r="742" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="742" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
     </row>
-    <row r="743" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="743" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
     </row>
-    <row r="744" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="744" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
     </row>
-    <row r="745" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="745" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
     </row>
-    <row r="746" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="746" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
     </row>
-    <row r="747" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="747" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
     </row>
-    <row r="748" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="748" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
     </row>
-    <row r="749" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="749" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
     </row>
-    <row r="750" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="750" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
     </row>
-    <row r="751" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="751" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
     </row>
-    <row r="752" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="752" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
     </row>
-    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="753" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
     </row>
-    <row r="754" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="754" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
     </row>
-    <row r="755" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="755" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
     </row>
-    <row r="756" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="756" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
     </row>
-    <row r="757" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="757" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
     </row>
-    <row r="758" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="758" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
     </row>
-    <row r="759" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="759" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
     </row>
-    <row r="760" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="760" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
     </row>
-    <row r="761" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="761" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
     </row>
-    <row r="762" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="762" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
     </row>
-    <row r="763" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="763" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
     </row>
-    <row r="764" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="764" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
     </row>
-    <row r="765" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="765" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
     </row>
-    <row r="766" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="766" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
     </row>
-    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="767" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
     </row>
-    <row r="768" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
     </row>
-    <row r="769" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="769" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
     </row>
-    <row r="770" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="770" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
     </row>
-    <row r="771" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="771" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
     </row>
-    <row r="772" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="772" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
     </row>
-    <row r="773" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="773" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
     </row>
-    <row r="774" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="774" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
     </row>
-    <row r="775" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="775" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
     </row>
-    <row r="776" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="776" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
     </row>
-    <row r="777" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="777" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
     </row>
-    <row r="778" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="778" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
     </row>
-    <row r="779" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="779" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
     </row>
-    <row r="780" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="780" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
     </row>
-    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="781" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
     </row>
-    <row r="782" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="782" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
     </row>
-    <row r="783" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="783" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
     </row>
-    <row r="784" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
     </row>
-    <row r="785" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="785" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
     </row>
-    <row r="786" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="786" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
     </row>
-    <row r="787" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="787" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="788" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
     </row>
-    <row r="789" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="789" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
     </row>
-    <row r="790" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="790" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="791" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
     </row>
-    <row r="792" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="792" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
     </row>
-    <row r="793" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="793" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
     </row>
-    <row r="794" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="794" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
     </row>
-    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="795" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
     </row>
-    <row r="796" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="796" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="797" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="798" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
     </row>
-    <row r="799" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="799" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
     </row>
-    <row r="800" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="800" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
     </row>
-    <row r="801" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="801" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
     </row>
-    <row r="802" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="802" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
     </row>
-    <row r="803" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="803" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
     </row>
-    <row r="804" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="804" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
     </row>
-    <row r="805" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="805" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
     </row>
-    <row r="806" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="806" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
     </row>
-    <row r="807" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="807" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
     </row>
-    <row r="808" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="808" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
     </row>
-    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="809" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
     </row>
-    <row r="810" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="810" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
     </row>
-    <row r="811" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="811" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
     </row>
-    <row r="812" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="812" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
     </row>
-    <row r="813" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="813" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
     </row>
-    <row r="814" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="814" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
     </row>
-    <row r="815" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="815" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
     </row>
-    <row r="816" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="816" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
     </row>
-    <row r="817" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="817" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
     </row>
-    <row r="818" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="818" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
     </row>
-    <row r="819" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="819" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
     </row>
-    <row r="820" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="820" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
     </row>
-    <row r="821" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="821" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
     </row>
-    <row r="822" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="822" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
     </row>
-    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="823" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
     </row>
-    <row r="824" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="824" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
     </row>
-    <row r="825" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="825" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
     </row>
-    <row r="826" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="826" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
     </row>
-    <row r="827" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="827" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
     </row>
-    <row r="828" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="828" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
     </row>
-    <row r="829" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="829" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
     </row>
-    <row r="830" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="830" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
     </row>
-    <row r="831" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="831" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
     </row>
-    <row r="832" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="832" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
     </row>
-    <row r="833" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="833" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
     </row>
-    <row r="834" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="834" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
     </row>
-    <row r="835" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="835" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
     </row>
-    <row r="836" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="836" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
     </row>
-    <row r="837" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="837" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
     </row>
-    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="838" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
     </row>
-    <row r="839" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="839" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
     </row>
-    <row r="840" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="840" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
     </row>
-    <row r="841" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="841" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
     </row>
-    <row r="842" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="842" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
     </row>
-    <row r="843" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="843" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
     </row>
-    <row r="844" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="844" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
     </row>
-    <row r="845" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="845" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
     </row>
-    <row r="846" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="846" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
     </row>
-    <row r="847" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="847" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
     </row>
-    <row r="848" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="848" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
     </row>
-    <row r="849" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="849" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
     </row>
-    <row r="850" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="850" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
     </row>
-    <row r="851" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="851" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
     </row>
-    <row r="852" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="852" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="853" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
     </row>
-    <row r="854" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="854" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
     </row>
-    <row r="855" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="855" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
     </row>
-    <row r="856" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="856" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
     </row>
-    <row r="857" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="857" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
     </row>
-    <row r="858" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="858" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
     </row>
-    <row r="859" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="859" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
     </row>
-    <row r="860" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="860" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
     </row>
-    <row r="861" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="861" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
     </row>
-    <row r="862" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="862" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
     </row>
-    <row r="863" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="863" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
     </row>
-    <row r="864" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="864" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
     </row>
-    <row r="865" spans="1:2" ht="15" x14ac:dyDescent="0.5">
+    <row r="865" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
 